--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>1.67</v>
@@ -1005,10 +1005,10 @@
         <v>2.2</v>
       </c>
       <c r="M2">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N2">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O2">
         <v>1.05</v>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="S2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2">
         <v>51</v>
@@ -1038,13 +1038,13 @@
         <v>12</v>
       </c>
       <c r="X2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2">
         <v>81</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA2">
         <v>9.5</v>
@@ -1065,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="AG2">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1094,7 +1094,7 @@
         <v>3.5</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J3">
         <v>2.15</v>
@@ -1121,7 +1121,7 @@
         <v>1.29</v>
       </c>
       <c r="R3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="S3">
         <v>7</v>
@@ -1145,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="Z3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3">
         <v>13</v>
@@ -1166,7 +1166,7 @@
         <v>41</v>
       </c>
       <c r="AG3">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1192,13 +1192,13 @@
         <v>160</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -1213,43 +1213,43 @@
         <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P4">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q4">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="S4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U4">
         <v>51</v>
       </c>
       <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
         <v>6.5</v>
       </c>
-      <c r="W4">
-        <v>7</v>
-      </c>
       <c r="X4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4">
         <v>41</v>
       </c>
       <c r="Z4">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA4">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB4">
         <v>17</v>
@@ -1258,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="AD4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4">
         <v>17</v>
@@ -1267,7 +1267,7 @@
         <v>34</v>
       </c>
       <c r="AG4">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1293,25 +1293,25 @@
         <v>160</v>
       </c>
       <c r="H5">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I5">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
         <v>1.07</v>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <v>17</v>
@@ -1335,16 +1335,16 @@
         <v>126</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W5">
         <v>9.5</v>
       </c>
       <c r="X5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z5">
         <v>6</v>
@@ -1356,19 +1356,19 @@
         <v>29</v>
       </c>
       <c r="AC5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD5">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5">
         <v>41</v>
       </c>
       <c r="AG5">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1394,49 +1394,49 @@
         <v>160</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J6">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="M6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O6">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="P6">
         <v>1.22</v>
       </c>
       <c r="Q6">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="R6">
+        <v>9.5</v>
+      </c>
+      <c r="S6">
+        <v>6.5</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
         <v>11</v>
       </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>8</v>
-      </c>
-      <c r="U6">
-        <v>13</v>
-      </c>
       <c r="V6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W6">
         <v>8</v>
@@ -1448,28 +1448,28 @@
         <v>15</v>
       </c>
       <c r="Z6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD6">
+        <v>81</v>
+      </c>
+      <c r="AE6">
         <v>51</v>
       </c>
-      <c r="AE6">
-        <v>41</v>
-      </c>
       <c r="AF6">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1534,10 +1534,10 @@
         <v>7.5</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W7">
         <v>7</v>
@@ -1549,19 +1549,19 @@
         <v>17</v>
       </c>
       <c r="Z7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7">
         <v>34</v>
       </c>
       <c r="AD7">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE7">
         <v>41</v>
@@ -1596,19 +1596,19 @@
         <v>160</v>
       </c>
       <c r="H8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K8">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="L8">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>1.73</v>
       </c>
       <c r="O8">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P8">
         <v>1.18</v>
@@ -1626,7 +1626,7 @@
         <v>1.1</v>
       </c>
       <c r="R8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S8">
         <v>6.5</v>
@@ -1641,16 +1641,16 @@
         <v>17</v>
       </c>
       <c r="W8">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X8">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y8">
         <v>13</v>
       </c>
       <c r="Z8">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA8">
         <v>21</v>
@@ -1697,19 +1697,19 @@
         <v>160</v>
       </c>
       <c r="H9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I9">
         <v>3.5</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M9">
         <v>1.91</v>
@@ -1733,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V9">
         <v>10</v>
@@ -1751,13 +1751,13 @@
         <v>19</v>
       </c>
       <c r="Z9">
+        <v>21</v>
+      </c>
+      <c r="AA9">
+        <v>15</v>
+      </c>
+      <c r="AB9">
         <v>19</v>
-      </c>
-      <c r="AA9">
-        <v>13</v>
-      </c>
-      <c r="AB9">
-        <v>17</v>
       </c>
       <c r="AC9">
         <v>34</v>
@@ -1798,19 +1798,19 @@
         <v>160</v>
       </c>
       <c r="H10">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>1.83</v>
@@ -1819,19 +1819,19 @@
         <v>1.83</v>
       </c>
       <c r="O10">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P10">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q10">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T10">
         <v>34</v>
@@ -1843,7 +1843,7 @@
         <v>7.5</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10">
         <v>21</v>
@@ -1870,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="AF10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG10">
         <v>51</v>
@@ -1899,19 +1899,19 @@
         <v>160</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="K11">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="L11">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M11">
         <v>1.8</v>
@@ -1920,37 +1920,37 @@
         <v>1.91</v>
       </c>
       <c r="O11">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P11">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="R11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S11">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="T11">
         <v>8</v>
       </c>
       <c r="U11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X11">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z11">
         <v>34</v>
@@ -2000,13 +2000,13 @@
         <v>160</v>
       </c>
       <c r="H12">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="I12">
         <v>3.6</v>
       </c>
       <c r="J12">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -2021,22 +2021,22 @@
         <v>1.67</v>
       </c>
       <c r="O12">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12">
         <v>1.29</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S12">
         <v>11</v>
       </c>
       <c r="T12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U12">
         <v>51</v>
@@ -2054,10 +2054,10 @@
         <v>41</v>
       </c>
       <c r="Z12">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA12">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>21</v>
@@ -2066,7 +2066,7 @@
         <v>51</v>
       </c>
       <c r="AD12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE12">
         <v>17</v>
@@ -2101,13 +2101,13 @@
         <v>160</v>
       </c>
       <c r="H13">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I13">
         <v>4.2</v>
       </c>
       <c r="J13">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="K13">
         <v>1.8</v>
@@ -2122,13 +2122,13 @@
         <v>1.83</v>
       </c>
       <c r="O13">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P13">
         <v>1.22</v>
       </c>
       <c r="Q13">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2158,7 +2158,7 @@
         <v>7.5</v>
       </c>
       <c r="AA13">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>19</v>
@@ -2211,10 +2211,10 @@
         <v>6.5</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M14">
         <v>2.1</v>
@@ -2336,13 +2336,13 @@
         <v>12</v>
       </c>
       <c r="S15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T15">
         <v>41</v>
       </c>
       <c r="U15">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="V15">
         <v>7</v>
@@ -2351,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="X15">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y15">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="AC15">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD15">
         <v>8.5</v>
@@ -2413,16 +2413,16 @@
         <v>2.05</v>
       </c>
       <c r="K16">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="L16">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N16">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="O16">
         <v>1.73</v>
@@ -2514,10 +2514,10 @@
         <v>1.95</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="L17">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="M17">
         <v>1.83</v>
@@ -2544,10 +2544,10 @@
         <v>9.5</v>
       </c>
       <c r="U17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W17">
         <v>6.5</v>
@@ -2707,13 +2707,13 @@
         <v>161</v>
       </c>
       <c r="H19">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I19">
         <v>3.25</v>
       </c>
       <c r="J19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2728,22 +2728,22 @@
         <v>1.91</v>
       </c>
       <c r="O19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19">
         <v>1.33</v>
       </c>
       <c r="Q19">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R19">
         <v>9</v>
       </c>
       <c r="S19">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U19">
         <v>34</v>
@@ -2758,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="Y19">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19">
         <v>10</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="AF19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG19">
         <v>51</v>
@@ -2808,34 +2808,34 @@
         <v>160</v>
       </c>
       <c r="H20">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="I20">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J20">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L20">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M20">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O20">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R20">
         <v>12</v>
@@ -2853,28 +2853,28 @@
         <v>6.5</v>
       </c>
       <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>26</v>
+      </c>
+      <c r="Y20">
+        <v>67</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AA20">
         <v>9</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>23</v>
       </c>
-      <c r="Y20">
-        <v>51</v>
-      </c>
-      <c r="Z20">
-        <v>6.5</v>
-      </c>
-      <c r="AA20">
-        <v>8.5</v>
-      </c>
-      <c r="AB20">
-        <v>21</v>
-      </c>
       <c r="AC20">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE20">
         <v>12</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="AG20">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2909,19 +2909,19 @@
         <v>161</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I21">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M21">
         <v>1.91</v>
@@ -2930,13 +2930,13 @@
         <v>1.8</v>
       </c>
       <c r="O21">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q21">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R21">
         <v>8.5</v>
@@ -2945,13 +2945,13 @@
         <v>7</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W21">
         <v>6.5</v>
@@ -2963,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="Z21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA21">
         <v>15</v>
@@ -2978,13 +2978,13 @@
         <v>41</v>
       </c>
       <c r="AE21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF21">
         <v>41</v>
       </c>
       <c r="AG21">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -3010,19 +3010,19 @@
         <v>161</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
         <v>3.4</v>
       </c>
       <c r="J22">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M22">
         <v>1.73</v>
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="O22">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P22">
         <v>1.3</v>
@@ -3049,10 +3049,10 @@
         <v>11</v>
       </c>
       <c r="U22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22">
         <v>6.5</v>
@@ -3061,10 +3061,10 @@
         <v>9.5</v>
       </c>
       <c r="Y22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA22">
         <v>13</v>
@@ -3073,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="AC22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD22">
         <v>41</v>
@@ -3082,7 +3082,7 @@
         <v>29</v>
       </c>
       <c r="AF22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG22">
         <v>51</v>
@@ -3111,19 +3111,19 @@
         <v>161</v>
       </c>
       <c r="H23">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K23">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="L23">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="M23">
         <v>1.73</v>
@@ -3132,13 +3132,13 @@
         <v>2</v>
       </c>
       <c r="O23">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P23">
         <v>1.29</v>
       </c>
       <c r="Q23">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R23">
         <v>11</v>
@@ -3150,7 +3150,7 @@
         <v>9.5</v>
       </c>
       <c r="U23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V23">
         <v>13</v>
@@ -3212,25 +3212,25 @@
         <v>160</v>
       </c>
       <c r="H24">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I24">
         <v>3.1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K24">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O24">
         <v>1.8</v>
@@ -3239,16 +3239,16 @@
         <v>1.36</v>
       </c>
       <c r="Q24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R24">
         <v>7</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T24">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U24">
         <v>17</v>
@@ -3272,19 +3272,19 @@
         <v>15</v>
       </c>
       <c r="AB24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24">
         <v>34</v>
       </c>
       <c r="AD24">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE24">
         <v>41</v>
       </c>
       <c r="AF24">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG24">
         <v>67</v>
@@ -3313,13 +3313,13 @@
         <v>161</v>
       </c>
       <c r="H25">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         <v>1.8</v>
       </c>
       <c r="M25">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P25">
         <v>1.29</v>
@@ -3343,7 +3343,7 @@
         <v>1.18</v>
       </c>
       <c r="R25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="S25">
         <v>7</v>
@@ -3420,13 +3420,13 @@
         <v>4.2</v>
       </c>
       <c r="J26">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K26">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="L26">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="M26">
         <v>1.83</v>
@@ -3435,7 +3435,7 @@
         <v>1.83</v>
       </c>
       <c r="O26">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P26">
         <v>1.22</v>
@@ -3453,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="U26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V26">
         <v>15</v>
@@ -3462,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y26">
         <v>13</v>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="AB26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC26">
         <v>26</v>
@@ -3515,46 +3515,46 @@
         <v>161</v>
       </c>
       <c r="H27">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="I27">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L27">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M27">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N27">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O27">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P27">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q27">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R27">
         <v>11</v>
       </c>
       <c r="S27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T27">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U27">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="V27">
         <v>7.5</v>
@@ -3676,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="AB28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC28">
         <v>51</v>
@@ -3717,7 +3717,7 @@
         <v>160</v>
       </c>
       <c r="H29">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I29">
         <v>3.8</v>
@@ -3818,37 +3818,37 @@
         <v>162</v>
       </c>
       <c r="H30">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="I30">
         <v>3.5</v>
       </c>
       <c r="J30">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="K30">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L30">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="M30">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="N30">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q30">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S30">
         <v>9</v>
@@ -3860,40 +3860,40 @@
         <v>26</v>
       </c>
       <c r="V30">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X30">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA30">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD30">
+        <v>29</v>
+      </c>
+      <c r="AE30">
         <v>23</v>
       </c>
-      <c r="AE30">
-        <v>19</v>
-      </c>
       <c r="AF30">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG30">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3919,34 +3919,34 @@
         <v>162</v>
       </c>
       <c r="H31">
-        <v>4.49</v>
+        <v>4.75</v>
       </c>
       <c r="I31">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="K31">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M31">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N31">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="O31">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="P31">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="Q31">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R31">
         <v>11</v>
@@ -3955,46 +3955,46 @@
         <v>7.5</v>
       </c>
       <c r="T31">
+        <v>8.5</v>
+      </c>
+      <c r="U31">
+        <v>13</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
         <v>9</v>
       </c>
-      <c r="U31">
-        <v>14</v>
-      </c>
-      <c r="V31">
-        <v>12</v>
-      </c>
-      <c r="W31">
-        <v>6.5</v>
-      </c>
-      <c r="X31">
-        <v>7.5</v>
-      </c>
       <c r="Y31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB31">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC31">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD31">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AE31">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF31">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AG31">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -4020,46 +4020,46 @@
         <v>160</v>
       </c>
       <c r="H32">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="I32">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="L32">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M32">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O32">
         <v>1.03</v>
       </c>
       <c r="P32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R32">
         <v>11</v>
       </c>
       <c r="S32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T32">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="U32">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="V32">
         <v>7</v>
@@ -4071,22 +4071,22 @@
         <v>41</v>
       </c>
       <c r="Y32">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Z32">
         <v>5.5</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32">
         <v>29</v>
       </c>
       <c r="AC32">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD32">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE32">
         <v>12</v>
@@ -4124,13 +4124,13 @@
         <v>1.33</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>1.62</v>
       </c>
       <c r="O33">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P33">
         <v>1.18</v>
@@ -4151,10 +4151,10 @@
         <v>3.25</v>
       </c>
       <c r="R33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T33">
         <v>41</v>
@@ -4163,7 +4163,7 @@
         <v>126</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="W33">
         <v>9</v>
@@ -4178,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="AA33">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33">
         <v>23</v>
@@ -4190,7 +4190,7 @@
         <v>8</v>
       </c>
       <c r="AE33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF33">
         <v>34</v>
@@ -4222,82 +4222,82 @@
         <v>162</v>
       </c>
       <c r="H34">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="I34">
         <v>5.25</v>
       </c>
       <c r="J34">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="K34">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="L34">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="M34">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
         <v>1.17</v>
       </c>
       <c r="Q34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="R34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U34">
         <v>8</v>
       </c>
       <c r="V34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W34">
         <v>10</v>
       </c>
       <c r="X34">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z34">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA34">
+        <v>34</v>
+      </c>
+      <c r="AB34">
         <v>26</v>
       </c>
-      <c r="AB34">
-        <v>21</v>
-      </c>
       <c r="AC34">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD34">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE34">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AF34">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AG34">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4323,82 +4323,82 @@
         <v>162</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J35">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="K35">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="M35">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="N35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="P35">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q35">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>21</v>
+      </c>
+      <c r="V35">
+        <v>11</v>
+      </c>
+      <c r="W35">
+        <v>6.5</v>
+      </c>
+      <c r="X35">
         <v>9.5</v>
       </c>
-      <c r="S35">
-        <v>7.5</v>
-      </c>
-      <c r="T35">
-        <v>9.5</v>
-      </c>
-      <c r="U35">
-        <v>18</v>
-      </c>
-      <c r="V35">
-        <v>10</v>
-      </c>
-      <c r="W35">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>8.5</v>
-      </c>
       <c r="Y35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD35">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AE35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG35">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4424,13 +4424,13 @@
         <v>160</v>
       </c>
       <c r="H36">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="I36">
         <v>3.4</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="K36">
         <v>2.3</v>
@@ -4451,7 +4451,7 @@
         <v>1.3</v>
       </c>
       <c r="Q36">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R36">
         <v>7.5</v>
@@ -4460,7 +4460,7 @@
         <v>11</v>
       </c>
       <c r="T36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U36">
         <v>51</v>
@@ -4472,7 +4472,7 @@
         <v>6.5</v>
       </c>
       <c r="X36">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36">
         <v>41</v>
@@ -4564,7 +4564,7 @@
         <v>67</v>
       </c>
       <c r="U37">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="V37">
         <v>8</v>
@@ -4573,7 +4573,7 @@
         <v>13</v>
       </c>
       <c r="X37">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y37">
         <v>101</v>
@@ -4582,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB37">
         <v>29</v>
@@ -4600,7 +4600,7 @@
         <v>34</v>
       </c>
       <c r="AG37">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4626,82 +4626,82 @@
         <v>162</v>
       </c>
       <c r="H38">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="I38">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="L38">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="M38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O38">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P38">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Q38">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="R38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S38">
         <v>21</v>
       </c>
       <c r="T38">
+        <v>41</v>
+      </c>
+      <c r="U38">
+        <v>101</v>
+      </c>
+      <c r="V38">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>23</v>
+      </c>
+      <c r="Y38">
+        <v>67</v>
+      </c>
+      <c r="Z38">
+        <v>7</v>
+      </c>
+      <c r="AA38">
+        <v>9.5</v>
+      </c>
+      <c r="AB38">
+        <v>23</v>
+      </c>
+      <c r="AC38">
         <v>51</v>
-      </c>
-      <c r="U38">
-        <v>151</v>
-      </c>
-      <c r="V38">
-        <v>7</v>
-      </c>
-      <c r="W38">
-        <v>9</v>
-      </c>
-      <c r="X38">
-        <v>21</v>
-      </c>
-      <c r="Y38">
-        <v>71</v>
-      </c>
-      <c r="Z38">
-        <v>6.5</v>
-      </c>
-      <c r="AA38">
-        <v>7.5</v>
-      </c>
-      <c r="AB38">
-        <v>17</v>
-      </c>
-      <c r="AC38">
-        <v>76</v>
       </c>
       <c r="AD38">
         <v>9</v>
       </c>
       <c r="AE38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG38">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4727,82 +4727,82 @@
         <v>162</v>
       </c>
       <c r="H39">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I39">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="J39">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <v>1.62</v>
       </c>
       <c r="N39">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P39">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q39">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U39">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="V39">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y39">
+        <v>26</v>
+      </c>
+      <c r="Z39">
+        <v>11</v>
+      </c>
+      <c r="AA39">
+        <v>9.5</v>
+      </c>
+      <c r="AB39">
+        <v>13</v>
+      </c>
+      <c r="AC39">
+        <v>34</v>
+      </c>
+      <c r="AD39">
+        <v>21</v>
+      </c>
+      <c r="AE39">
+        <v>17</v>
+      </c>
+      <c r="AF39">
         <v>23</v>
       </c>
-      <c r="Z39">
-        <v>10</v>
-      </c>
-      <c r="AA39">
-        <v>8</v>
-      </c>
-      <c r="AB39">
-        <v>11</v>
-      </c>
-      <c r="AC39">
-        <v>26</v>
-      </c>
-      <c r="AD39">
-        <v>18</v>
-      </c>
-      <c r="AE39">
-        <v>14</v>
-      </c>
-      <c r="AF39">
-        <v>20</v>
-      </c>
       <c r="AG39">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4828,13 +4828,13 @@
         <v>162</v>
       </c>
       <c r="H40">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I40">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J40">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4843,67 +4843,67 @@
         <v>1.85</v>
       </c>
       <c r="M40">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="N40">
         <v>2</v>
       </c>
       <c r="O40">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P40">
         <v>1.33</v>
       </c>
       <c r="Q40">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R40">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U40">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W40">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y40">
         <v>23</v>
       </c>
       <c r="Z40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA40">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB40">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC40">
+        <v>34</v>
+      </c>
+      <c r="AD40">
         <v>26</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>21</v>
       </c>
-      <c r="AE40">
-        <v>18</v>
-      </c>
       <c r="AF40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG40">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -4929,82 +4929,82 @@
         <v>162</v>
       </c>
       <c r="H41">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="I41">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="K41">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="N41">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="O41">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P41">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Q41">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="R41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S41">
         <v>23</v>
       </c>
       <c r="T41">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U41">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <v>29</v>
+      </c>
+      <c r="Y41">
+        <v>81</v>
+      </c>
+      <c r="Z41">
+        <v>6.5</v>
+      </c>
+      <c r="AA41">
         <v>9.5</v>
       </c>
-      <c r="X41">
-        <v>26</v>
-      </c>
-      <c r="Y41">
-        <v>91</v>
-      </c>
-      <c r="Z41">
-        <v>6</v>
-      </c>
-      <c r="AA41">
-        <v>7.5</v>
-      </c>
       <c r="AB41">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC41">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AD41">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF41">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG41">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -5030,19 +5030,19 @@
         <v>161</v>
       </c>
       <c r="H42">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="I42">
         <v>3.25</v>
       </c>
       <c r="J42">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M42">
         <v>1.95</v>
@@ -5051,43 +5051,43 @@
         <v>1.8</v>
       </c>
       <c r="O42">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="P42">
         <v>1.33</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R42">
         <v>8</v>
       </c>
       <c r="S42">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="T42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U42">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W42">
         <v>6.5</v>
       </c>
       <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>21</v>
+      </c>
+      <c r="Z42">
+        <v>13</v>
+      </c>
+      <c r="AA42">
         <v>11</v>
-      </c>
-      <c r="Y42">
-        <v>23</v>
-      </c>
-      <c r="Z42">
-        <v>12</v>
-      </c>
-      <c r="AA42">
-        <v>10</v>
       </c>
       <c r="AB42">
         <v>17</v>
@@ -5096,13 +5096,13 @@
         <v>34</v>
       </c>
       <c r="AD42">
+        <v>34</v>
+      </c>
+      <c r="AE42">
         <v>26</v>
       </c>
-      <c r="AE42">
-        <v>23</v>
-      </c>
       <c r="AF42">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG42">
         <v>51</v>
@@ -5131,13 +5131,13 @@
         <v>161</v>
       </c>
       <c r="H43">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J43">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -5146,19 +5146,19 @@
         <v>1.67</v>
       </c>
       <c r="M43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O43">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P43">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q43">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R43">
         <v>8</v>
@@ -5167,25 +5167,25 @@
         <v>6</v>
       </c>
       <c r="T43">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W43">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X43">
         <v>9</v>
       </c>
       <c r="Y43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z43">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA43">
         <v>17</v>
@@ -5232,82 +5232,82 @@
         <v>162</v>
       </c>
       <c r="H44">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I44">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="J44">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="K44">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="M44">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N44">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O44">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P44">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q44">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R44">
         <v>8</v>
       </c>
       <c r="S44">
+        <v>8.5</v>
+      </c>
+      <c r="T44">
+        <v>15</v>
+      </c>
+      <c r="U44">
+        <v>29</v>
+      </c>
+      <c r="V44">
         <v>8</v>
       </c>
-      <c r="T44">
+      <c r="W44">
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <v>12</v>
+      </c>
+      <c r="Y44">
+        <v>26</v>
+      </c>
+      <c r="Z44">
         <v>13</v>
       </c>
-      <c r="U44">
+      <c r="AA44">
+        <v>11</v>
+      </c>
+      <c r="AB44">
+        <v>15</v>
+      </c>
+      <c r="AC44">
+        <v>41</v>
+      </c>
+      <c r="AD44">
         <v>26</v>
       </c>
-      <c r="V44">
-        <v>7.5</v>
-      </c>
-      <c r="W44">
-        <v>5.5</v>
-      </c>
-      <c r="X44">
-        <v>9.5</v>
-      </c>
-      <c r="Y44">
+      <c r="AE44">
         <v>23</v>
-      </c>
-      <c r="Z44">
-        <v>11</v>
-      </c>
-      <c r="AA44">
-        <v>9.5</v>
-      </c>
-      <c r="AB44">
-        <v>14</v>
-      </c>
-      <c r="AC44">
-        <v>34</v>
-      </c>
-      <c r="AD44">
-        <v>23</v>
-      </c>
-      <c r="AE44">
-        <v>21</v>
       </c>
       <c r="AF44">
         <v>34</v>
       </c>
       <c r="AG44">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -5333,58 +5333,58 @@
         <v>162</v>
       </c>
       <c r="H45">
-        <v>4.49</v>
+        <v>3.8</v>
       </c>
       <c r="I45">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="J45">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="K45">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="L45">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="M45">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N45">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="P45">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Q45">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S45">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U45">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V45">
         <v>12</v>
       </c>
       <c r="W45">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X45">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z45">
         <v>21</v>
@@ -5393,22 +5393,22 @@
         <v>13</v>
       </c>
       <c r="AB45">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC45">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD45">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AE45">
         <v>34</v>
       </c>
       <c r="AF45">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AG45">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -5434,82 +5434,82 @@
         <v>162</v>
       </c>
       <c r="H46">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
       <c r="I46">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="J46">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="K46">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="L46">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="M46">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="N46">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="P46">
         <v>1.33</v>
       </c>
       <c r="Q46">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R46">
         <v>10</v>
       </c>
       <c r="S46">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="T46">
+        <v>13</v>
+      </c>
+      <c r="U46">
+        <v>26</v>
+      </c>
+      <c r="V46">
+        <v>10</v>
+      </c>
+      <c r="W46">
+        <v>6.5</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>21</v>
+      </c>
+      <c r="Z46">
+        <v>15</v>
+      </c>
+      <c r="AA46">
         <v>11</v>
       </c>
-      <c r="U46">
-        <v>23</v>
-      </c>
-      <c r="V46">
-        <v>9</v>
-      </c>
-      <c r="W46">
-        <v>6</v>
-      </c>
-      <c r="X46">
-        <v>9</v>
-      </c>
-      <c r="Y46">
-        <v>18</v>
-      </c>
-      <c r="Z46">
-        <v>14</v>
-      </c>
-      <c r="AA46">
-        <v>10</v>
-      </c>
       <c r="AB46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46">
         <v>23</v>
       </c>
       <c r="AF46">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AG46">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -5535,31 +5535,31 @@
         <v>162</v>
       </c>
       <c r="H47">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I47">
         <v>5.5</v>
       </c>
       <c r="J47">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K47">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="L47">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M47">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O47">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Q47">
         <v>1.07</v>
@@ -5568,10 +5568,10 @@
         <v>15</v>
       </c>
       <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
         <v>7</v>
-      </c>
-      <c r="T47">
-        <v>6.5</v>
       </c>
       <c r="U47">
         <v>8.5</v>
@@ -5580,37 +5580,37 @@
         <v>23</v>
       </c>
       <c r="W47">
+        <v>11</v>
+      </c>
+      <c r="X47">
         <v>9.5</v>
       </c>
-      <c r="X47">
-        <v>7.5</v>
-      </c>
       <c r="Y47">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z47">
         <v>51</v>
       </c>
       <c r="AA47">
+        <v>26</v>
+      </c>
+      <c r="AB47">
         <v>23</v>
       </c>
-      <c r="AB47">
-        <v>18</v>
-      </c>
       <c r="AC47">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD47">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="AE47">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF47">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="AG47">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -5636,7 +5636,7 @@
         <v>161</v>
       </c>
       <c r="H48">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I48">
         <v>3.5</v>
@@ -5651,10 +5651,10 @@
         <v>1.67</v>
       </c>
       <c r="M48">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O48">
         <v>1.14</v>
@@ -5663,7 +5663,7 @@
         <v>1.29</v>
       </c>
       <c r="Q48">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R48">
         <v>8</v>
@@ -5675,19 +5675,19 @@
         <v>26</v>
       </c>
       <c r="U48">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V48">
         <v>6</v>
       </c>
       <c r="W48">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X48">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y48">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z48">
         <v>7</v>
@@ -5737,13 +5737,13 @@
         <v>161</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I49">
         <v>3.4</v>
       </c>
       <c r="J49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <v>2.2</v>
@@ -5764,7 +5764,7 @@
         <v>1.3</v>
       </c>
       <c r="Q49">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
         <v>8</v>
@@ -5794,7 +5794,7 @@
         <v>19</v>
       </c>
       <c r="AA49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB49">
         <v>17</v>
@@ -5812,7 +5812,7 @@
         <v>41</v>
       </c>
       <c r="AG49">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -5838,7 +5838,7 @@
         <v>161</v>
       </c>
       <c r="H50">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I50">
         <v>4.33</v>
@@ -5847,10 +5847,10 @@
         <v>1.45</v>
       </c>
       <c r="K50">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="L50">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M50">
         <v>2.1</v>
@@ -5865,7 +5865,7 @@
         <v>1.2</v>
       </c>
       <c r="Q50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="R50">
         <v>10</v>
@@ -5913,7 +5913,7 @@
         <v>51</v>
       </c>
       <c r="AG50">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -5939,82 +5939,82 @@
         <v>161</v>
       </c>
       <c r="H51">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="I51">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K51">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="L51">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N51">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O51">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P51">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Q51">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R51">
         <v>15</v>
       </c>
       <c r="S51">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T51">
         <v>51</v>
       </c>
       <c r="U51">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="V51">
         <v>7.5</v>
       </c>
       <c r="W51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X51">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y51">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Z51">
         <v>6</v>
       </c>
       <c r="AA51">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB51">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC51">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD51">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF51">
         <v>34</v>
       </c>
       <c r="AG51">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -6040,25 +6040,25 @@
         <v>161</v>
       </c>
       <c r="H52">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="I52">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J52">
         <v>7</v>
       </c>
       <c r="K52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O52">
         <v>1.1</v>
@@ -6067,7 +6067,7 @@
         <v>1.25</v>
       </c>
       <c r="Q52">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R52">
         <v>8</v>
@@ -6100,10 +6100,10 @@
         <v>9</v>
       </c>
       <c r="AB52">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD52">
         <v>10</v>
@@ -6141,34 +6141,34 @@
         <v>161</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I53">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="L53">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O53">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
         <v>1.18</v>
       </c>
       <c r="Q53">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="R53">
         <v>10</v>
@@ -6180,16 +6180,16 @@
         <v>6</v>
       </c>
       <c r="U53">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W53">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X53">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y53">
         <v>13</v>
@@ -6198,10 +6198,10 @@
         <v>41</v>
       </c>
       <c r="AA53">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB53">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC53">
         <v>34</v>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="160">
   <si>
     <t>Id</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>Q9YPy46c</t>
-  </si>
-  <si>
-    <t>KWXTzOL3</t>
-  </si>
-  <si>
     <t>QXGCSaTq</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-14</t>
-  </si>
-  <si>
     <t>2024-06-15</t>
   </si>
   <si>
@@ -352,15 +343,15 @@
     <t>2024-07-02</t>
   </si>
   <si>
+    <t>13:00</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>13:00</t>
-  </si>
-  <si>
     <t>21:00</t>
   </si>
   <si>
@@ -376,124 +367,124 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Hungary</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
   </si>
   <si>
     <t>ROUND 1</t>
@@ -860,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG61"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,100 +963,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H2">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="K2">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="O2">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="P2">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="Q2">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="R2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="T2">
+        <v>21</v>
+      </c>
+      <c r="U2">
         <v>51</v>
-      </c>
-      <c r="U2">
-        <v>151</v>
       </c>
       <c r="V2">
         <v>7</v>
       </c>
       <c r="W2">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X2">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Y2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AA2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB2">
+        <v>17</v>
+      </c>
+      <c r="AC2">
+        <v>41</v>
+      </c>
+      <c r="AD2">
+        <v>17</v>
+      </c>
+      <c r="AE2">
+        <v>17</v>
+      </c>
+      <c r="AF2">
         <v>29</v>
       </c>
-      <c r="AC2">
-        <v>67</v>
-      </c>
-      <c r="AD2">
-        <v>8</v>
-      </c>
-      <c r="AE2">
-        <v>12</v>
-      </c>
-      <c r="AF2">
-        <v>34</v>
-      </c>
       <c r="AG2">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1073,100 +1064,100 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>9.5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1.8</v>
+      </c>
+      <c r="M3">
+        <v>2.63</v>
+      </c>
+      <c r="N3">
+        <v>1.44</v>
+      </c>
+      <c r="O3">
+        <v>1.07</v>
+      </c>
+      <c r="P3">
+        <v>1.17</v>
+      </c>
+      <c r="Q3">
         <v>3.25</v>
       </c>
-      <c r="J3">
-        <v>2.15</v>
-      </c>
-      <c r="K3">
-        <v>2.2</v>
-      </c>
-      <c r="L3">
-        <v>1.67</v>
-      </c>
-      <c r="M3">
-        <v>1.91</v>
-      </c>
-      <c r="N3">
-        <v>1.8</v>
-      </c>
-      <c r="O3">
-        <v>1.67</v>
-      </c>
-      <c r="P3">
-        <v>1.33</v>
-      </c>
-      <c r="Q3">
-        <v>1.29</v>
-      </c>
       <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>41</v>
+      </c>
+      <c r="U3">
+        <v>151</v>
+      </c>
+      <c r="V3">
+        <v>5.5</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>29</v>
+      </c>
+      <c r="Y3">
+        <v>81</v>
+      </c>
+      <c r="Z3">
+        <v>5.5</v>
+      </c>
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>34</v>
+      </c>
+      <c r="AC3">
+        <v>81</v>
+      </c>
+      <c r="AD3">
         <v>8</v>
       </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3">
-        <v>21</v>
-      </c>
-      <c r="V3">
-        <v>9.5</v>
-      </c>
-      <c r="W3">
-        <v>6.5</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>21</v>
-      </c>
-      <c r="Z3">
-        <v>19</v>
-      </c>
-      <c r="AA3">
-        <v>13</v>
-      </c>
-      <c r="AB3">
-        <v>17</v>
-      </c>
-      <c r="AC3">
-        <v>34</v>
-      </c>
-      <c r="AD3">
-        <v>41</v>
-      </c>
       <c r="AE3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF3">
         <v>41</v>
       </c>
       <c r="AG3">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1174,100 +1165,100 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>5.75</v>
       </c>
       <c r="I4">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J4">
-        <v>4.33</v>
+        <v>1.57</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="L4">
+        <v>1.84</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>1.73</v>
       </c>
-      <c r="M4">
-        <v>1.91</v>
-      </c>
-      <c r="N4">
-        <v>1.8</v>
-      </c>
       <c r="O4">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="P4">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q4">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="R4">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="S4">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>12</v>
+      </c>
+      <c r="V4">
+        <v>15</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>29</v>
+      </c>
+      <c r="AA4">
+        <v>19</v>
+      </c>
+      <c r="AB4">
         <v>21</v>
       </c>
-      <c r="U4">
+      <c r="AC4">
+        <v>34</v>
+      </c>
+      <c r="AD4">
+        <v>67</v>
+      </c>
+      <c r="AE4">
         <v>51</v>
       </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>6.5</v>
-      </c>
-      <c r="X4">
-        <v>15</v>
-      </c>
-      <c r="Y4">
-        <v>41</v>
-      </c>
-      <c r="Z4">
-        <v>9</v>
-      </c>
-      <c r="AA4">
-        <v>9.5</v>
-      </c>
-      <c r="AB4">
-        <v>17</v>
-      </c>
-      <c r="AC4">
-        <v>41</v>
-      </c>
-      <c r="AD4">
-        <v>17</v>
-      </c>
-      <c r="AE4">
-        <v>17</v>
-      </c>
       <c r="AF4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG4">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1275,100 +1266,100 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H5">
-        <v>1.38</v>
+        <v>5.25</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
+        <v>1.73</v>
+      </c>
+      <c r="K5">
+        <v>2.2</v>
+      </c>
+      <c r="L5">
+        <v>1.67</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1.73</v>
+      </c>
+      <c r="O5">
+        <v>2.05</v>
+      </c>
+      <c r="P5">
+        <v>1.29</v>
+      </c>
+      <c r="Q5">
+        <v>1.17</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>7.5</v>
+      </c>
+      <c r="U5">
+        <v>15</v>
+      </c>
+      <c r="V5">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>2.1</v>
-      </c>
-      <c r="L5">
-        <v>1.73</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>1.07</v>
-      </c>
-      <c r="P5">
-        <v>1.18</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>9</v>
-      </c>
-      <c r="S5">
+      <c r="Y5">
         <v>17</v>
       </c>
-      <c r="T5">
+      <c r="Z5">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>17</v>
+      </c>
+      <c r="AB5">
+        <v>21</v>
+      </c>
+      <c r="AC5">
+        <v>34</v>
+      </c>
+      <c r="AD5">
+        <v>51</v>
+      </c>
+      <c r="AE5">
         <v>41</v>
       </c>
-      <c r="U5">
-        <v>126</v>
-      </c>
-      <c r="V5">
-        <v>5.5</v>
-      </c>
-      <c r="W5">
-        <v>9.5</v>
-      </c>
-      <c r="X5">
-        <v>29</v>
-      </c>
-      <c r="Y5">
-        <v>81</v>
-      </c>
-      <c r="Z5">
-        <v>6</v>
-      </c>
-      <c r="AA5">
-        <v>9.5</v>
-      </c>
-      <c r="AB5">
-        <v>29</v>
-      </c>
-      <c r="AC5">
-        <v>81</v>
-      </c>
-      <c r="AD5">
-        <v>8.5</v>
-      </c>
-      <c r="AE5">
-        <v>15</v>
-      </c>
       <c r="AF5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1376,37 +1367,37 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I6">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L6">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1415,16 +1406,16 @@
         <v>1.73</v>
       </c>
       <c r="O6">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="P6">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Q6">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="R6">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="S6">
         <v>6.5</v>
@@ -1433,22 +1424,22 @@
         <v>7</v>
       </c>
       <c r="U6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA6">
         <v>21</v>
@@ -1457,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="AC6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD6">
         <v>81</v>
@@ -1477,31 +1468,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H7">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="I7">
         <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1510,64 +1501,64 @@
         <v>1.67</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N7">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="P7">
         <v>1.29</v>
       </c>
       <c r="Q7">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>7</v>
       </c>
       <c r="X7">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC7">
         <v>34</v>
       </c>
       <c r="AD7">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE7">
+        <v>34</v>
+      </c>
+      <c r="AF7">
         <v>41</v>
-      </c>
-      <c r="AF7">
-        <v>51</v>
       </c>
       <c r="AG7">
         <v>67</v>
@@ -1578,100 +1569,100 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H8">
+        <v>1.48</v>
+      </c>
+      <c r="I8">
+        <v>4.33</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="I8">
-        <v>4.5</v>
-      </c>
-      <c r="J8">
-        <v>1.45</v>
-      </c>
       <c r="K8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="N8">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O8">
+        <v>1.1</v>
+      </c>
+      <c r="P8">
+        <v>1.2</v>
+      </c>
+      <c r="Q8">
         <v>2.63</v>
       </c>
-      <c r="P8">
-        <v>1.18</v>
-      </c>
-      <c r="Q8">
-        <v>1.1</v>
-      </c>
       <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>19</v>
+      </c>
+      <c r="T8">
+        <v>41</v>
+      </c>
+      <c r="U8">
+        <v>81</v>
+      </c>
+      <c r="V8">
+        <v>7.5</v>
+      </c>
+      <c r="W8">
+        <v>8.5</v>
+      </c>
+      <c r="X8">
+        <v>21</v>
+      </c>
+      <c r="Y8">
+        <v>51</v>
+      </c>
+      <c r="Z8">
+        <v>7.5</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>19</v>
+      </c>
+      <c r="AC8">
+        <v>51</v>
+      </c>
+      <c r="AD8">
         <v>11</v>
       </c>
-      <c r="S8">
-        <v>6.5</v>
-      </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>17</v>
-      </c>
-      <c r="W8">
-        <v>9</v>
-      </c>
-      <c r="X8">
-        <v>9</v>
-      </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>13</v>
       </c>
-      <c r="Z8">
-        <v>41</v>
-      </c>
-      <c r="AA8">
-        <v>21</v>
-      </c>
-      <c r="AB8">
-        <v>21</v>
-      </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>29</v>
       </c>
-      <c r="AD8">
-        <v>81</v>
-      </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>51</v>
-      </c>
-      <c r="AF8">
-        <v>51</v>
-      </c>
-      <c r="AG8">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1679,100 +1670,100 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H9">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="I9">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="L9">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="M9">
+        <v>1.8</v>
+      </c>
+      <c r="N9">
         <v>1.91</v>
       </c>
-      <c r="N9">
-        <v>1.8</v>
-      </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="P9">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <v>17</v>
+      </c>
+      <c r="W9">
         <v>8.5</v>
       </c>
-      <c r="S9">
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <v>9</v>
-      </c>
-      <c r="U9">
-        <v>17</v>
-      </c>
-      <c r="V9">
-        <v>10</v>
-      </c>
-      <c r="W9">
-        <v>7</v>
-      </c>
       <c r="X9">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y9">
+        <v>13</v>
+      </c>
+      <c r="Z9">
+        <v>34</v>
+      </c>
+      <c r="AA9">
         <v>19</v>
-      </c>
-      <c r="Z9">
-        <v>21</v>
-      </c>
-      <c r="AA9">
-        <v>15</v>
       </c>
       <c r="AB9">
         <v>19</v>
       </c>
       <c r="AC9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD9">
+        <v>67</v>
+      </c>
+      <c r="AE9">
         <v>41</v>
-      </c>
-      <c r="AE9">
-        <v>34</v>
       </c>
       <c r="AF9">
         <v>41</v>
       </c>
       <c r="AG9">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1780,76 +1771,76 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H10">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="I10">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="M10">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O10">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P10">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="Q10">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R10">
+        <v>8.5</v>
+      </c>
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="S10">
-        <v>19</v>
-      </c>
       <c r="T10">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U10">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
         <v>7.5</v>
       </c>
-      <c r="W10">
-        <v>8.5</v>
-      </c>
       <c r="X10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y10">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z10">
         <v>7.5</v>
@@ -1858,22 +1849,22 @@
         <v>9</v>
       </c>
       <c r="AB10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10">
         <v>51</v>
       </c>
       <c r="AD10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1881,97 +1872,97 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>1.53</v>
       </c>
       <c r="I11">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11">
-        <v>1.55</v>
+        <v>6.25</v>
       </c>
       <c r="K11">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N11">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="O11">
+        <v>1.13</v>
+      </c>
+      <c r="P11">
+        <v>1.22</v>
+      </c>
+      <c r="Q11">
         <v>2.38</v>
       </c>
-      <c r="P11">
-        <v>1.2</v>
-      </c>
-      <c r="Q11">
-        <v>1.14</v>
-      </c>
       <c r="R11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="U11">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="V11">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="W11">
         <v>8.5</v>
       </c>
       <c r="X11">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y11">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="Z11">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="AA11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AB11">
         <v>19</v>
       </c>
       <c r="AC11">
+        <v>51</v>
+      </c>
+      <c r="AD11">
+        <v>11</v>
+      </c>
+      <c r="AE11">
+        <v>13</v>
+      </c>
+      <c r="AF11">
         <v>26</v>
-      </c>
-      <c r="AD11">
-        <v>67</v>
-      </c>
-      <c r="AE11">
-        <v>41</v>
-      </c>
-      <c r="AF11">
-        <v>41</v>
       </c>
       <c r="AG11">
         <v>51</v>
@@ -1982,94 +1973,94 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12">
         <v>1.73</v>
       </c>
-      <c r="I12">
-        <v>3.6</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
+      <c r="M12">
         <v>2.2</v>
       </c>
-      <c r="L12">
-        <v>1.67</v>
-      </c>
-      <c r="M12">
-        <v>2.1</v>
-      </c>
       <c r="N12">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O12">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="P12">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Q12">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
         <v>8.5</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U12">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="V12">
         <v>6</v>
       </c>
       <c r="W12">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y12">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z12">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA12">
         <v>9</v>
       </c>
       <c r="AB12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12">
         <v>34</v>
@@ -2083,100 +2074,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H13">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="J13">
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M13">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N13">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O13">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="P13">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Q13">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T13">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U13">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="V13">
         <v>7.5</v>
       </c>
       <c r="W13">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X13">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y13">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z13">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA13">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB13">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC13">
         <v>51</v>
       </c>
       <c r="AD13">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2184,100 +2175,100 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H14">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J14">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M14">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N14">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>1.11</v>
+        <v>1.95</v>
       </c>
       <c r="P14">
+        <v>1.25</v>
+      </c>
+      <c r="Q14">
         <v>1.22</v>
       </c>
-      <c r="Q14">
-        <v>2.38</v>
-      </c>
       <c r="R14">
+        <v>9.5</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>8.5</v>
+      </c>
+      <c r="U14">
+        <v>15</v>
+      </c>
+      <c r="V14">
+        <v>11</v>
+      </c>
+      <c r="W14">
+        <v>7.5</v>
+      </c>
+      <c r="X14">
         <v>9</v>
       </c>
-      <c r="S14">
+      <c r="Y14">
+        <v>17</v>
+      </c>
+      <c r="Z14">
+        <v>21</v>
+      </c>
+      <c r="AA14">
         <v>15</v>
       </c>
-      <c r="T14">
+      <c r="AB14">
+        <v>19</v>
+      </c>
+      <c r="AC14">
         <v>34</v>
       </c>
-      <c r="U14">
-        <v>81</v>
-      </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>8</v>
-      </c>
-      <c r="X14">
-        <v>21</v>
-      </c>
-      <c r="Y14">
+      <c r="AD14">
         <v>51</v>
       </c>
-      <c r="Z14">
-        <v>6.5</v>
-      </c>
-      <c r="AA14">
-        <v>9</v>
-      </c>
-      <c r="AB14">
-        <v>23</v>
-      </c>
-      <c r="AC14">
-        <v>51</v>
-      </c>
-      <c r="AD14">
-        <v>11</v>
-      </c>
       <c r="AE14">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AF14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2285,13 +2276,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>120</v>
@@ -2300,85 +2291,85 @@
         <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H15">
-        <v>1.33</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="J15">
+        <v>1.95</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>1.83</v>
+      </c>
+      <c r="N15">
+        <v>1.83</v>
+      </c>
+      <c r="O15">
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <v>1.3</v>
+      </c>
+      <c r="Q15">
+        <v>1.22</v>
+      </c>
+      <c r="R15">
+        <v>9.5</v>
+      </c>
+      <c r="S15">
+        <v>7.5</v>
+      </c>
+      <c r="T15">
+        <v>9.5</v>
+      </c>
+      <c r="U15">
+        <v>17</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>6.5</v>
+      </c>
+      <c r="X15">
         <v>9</v>
       </c>
-      <c r="K15">
-        <v>1.73</v>
-      </c>
-      <c r="L15">
-        <v>2.1</v>
-      </c>
-      <c r="M15">
-        <v>2.1</v>
-      </c>
-      <c r="N15">
-        <v>1.67</v>
-      </c>
-      <c r="O15">
-        <v>1.07</v>
-      </c>
-      <c r="P15">
-        <v>1.17</v>
-      </c>
-      <c r="Q15">
-        <v>3.25</v>
-      </c>
-      <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>19</v>
-      </c>
-      <c r="T15">
+      <c r="Y15">
+        <v>17</v>
+      </c>
+      <c r="Z15">
+        <v>21</v>
+      </c>
+      <c r="AA15">
+        <v>15</v>
+      </c>
+      <c r="AB15">
+        <v>17</v>
+      </c>
+      <c r="AC15">
+        <v>29</v>
+      </c>
+      <c r="AD15">
         <v>41</v>
       </c>
-      <c r="U15">
-        <v>101</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <v>23</v>
-      </c>
-      <c r="Y15">
-        <v>67</v>
-      </c>
-      <c r="Z15">
-        <v>6.5</v>
-      </c>
-      <c r="AA15">
-        <v>9.5</v>
-      </c>
-      <c r="AB15">
-        <v>26</v>
-      </c>
-      <c r="AC15">
+      <c r="AE15">
+        <v>34</v>
+      </c>
+      <c r="AF15">
+        <v>41</v>
+      </c>
+      <c r="AG15">
         <v>51</v>
-      </c>
-      <c r="AD15">
-        <v>8.5</v>
-      </c>
-      <c r="AE15">
-        <v>12</v>
-      </c>
-      <c r="AF15">
-        <v>34</v>
-      </c>
-      <c r="AG15">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2386,100 +2377,100 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J16">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="K16">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="L16">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="M16">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N16">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="P16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q16">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
         <v>7.5</v>
       </c>
-      <c r="T16">
-        <v>10</v>
-      </c>
       <c r="U16">
+        <v>12</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <v>7.5</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>29</v>
+      </c>
+      <c r="AA16">
         <v>19</v>
       </c>
-      <c r="V16">
-        <v>11</v>
-      </c>
-      <c r="W16">
-        <v>7</v>
-      </c>
-      <c r="X16">
-        <v>9.5</v>
-      </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>19</v>
-      </c>
-      <c r="Z16">
-        <v>19</v>
-      </c>
-      <c r="AA16">
-        <v>13</v>
-      </c>
-      <c r="AB16">
-        <v>17</v>
       </c>
       <c r="AC16">
         <v>29</v>
       </c>
       <c r="AD16">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AE16">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AF16">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2487,37 +2478,37 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
         <v>118</v>
       </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="I17">
+        <v>3.25</v>
+      </c>
+      <c r="J17">
         <v>3.4</v>
       </c>
-      <c r="J17">
-        <v>1.95</v>
-      </c>
       <c r="K17">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="M17">
         <v>1.83</v>
@@ -2526,58 +2517,58 @@
         <v>1.83</v>
       </c>
       <c r="O17">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="P17">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q17">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="R17">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>17</v>
+      </c>
+      <c r="U17">
+        <v>41</v>
+      </c>
+      <c r="V17">
         <v>7.5</v>
-      </c>
-      <c r="T17">
-        <v>9.5</v>
-      </c>
-      <c r="U17">
-        <v>17</v>
-      </c>
-      <c r="V17">
-        <v>12</v>
       </c>
       <c r="W17">
         <v>6.5</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y17">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z17">
+        <v>11</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <v>41</v>
+      </c>
+      <c r="AD17">
         <v>21</v>
       </c>
-      <c r="AA17">
-        <v>15</v>
-      </c>
-      <c r="AB17">
-        <v>17</v>
-      </c>
-      <c r="AC17">
-        <v>29</v>
-      </c>
-      <c r="AD17">
-        <v>41</v>
-      </c>
       <c r="AE17">
+        <v>21</v>
+      </c>
+      <c r="AF17">
         <v>34</v>
-      </c>
-      <c r="AF17">
-        <v>41</v>
       </c>
       <c r="AG17">
         <v>51</v>
@@ -2588,100 +2579,100 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H18">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="I18">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="J18">
-        <v>1.65</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="L18">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="M18">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O18">
-        <v>2.2</v>
+        <v>1.06</v>
       </c>
       <c r="P18">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Q18">
-        <v>1.14</v>
+        <v>3.4</v>
       </c>
       <c r="R18">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T18">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="U18">
+        <v>126</v>
+      </c>
+      <c r="V18">
+        <v>6.5</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>26</v>
+      </c>
+      <c r="Y18">
+        <v>67</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>9</v>
+      </c>
+      <c r="AB18">
+        <v>23</v>
+      </c>
+      <c r="AC18">
+        <v>67</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
         <v>12</v>
       </c>
-      <c r="V18">
-        <v>15</v>
-      </c>
-      <c r="W18">
-        <v>7.5</v>
-      </c>
-      <c r="X18">
-        <v>9</v>
-      </c>
-      <c r="Y18">
-        <v>15</v>
-      </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>29</v>
       </c>
-      <c r="AA18">
-        <v>19</v>
-      </c>
-      <c r="AB18">
-        <v>19</v>
-      </c>
-      <c r="AC18">
-        <v>29</v>
-      </c>
-      <c r="AD18">
-        <v>67</v>
-      </c>
-      <c r="AE18">
-        <v>51</v>
-      </c>
-      <c r="AF18">
-        <v>51</v>
-      </c>
       <c r="AG18">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2689,97 +2680,97 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H19">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="I19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J19">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
+        <v>1.67</v>
+      </c>
+      <c r="M19">
+        <v>1.91</v>
+      </c>
+      <c r="N19">
+        <v>1.8</v>
+      </c>
+      <c r="O19">
         <v>1.73</v>
-      </c>
-      <c r="M19">
-        <v>1.8</v>
-      </c>
-      <c r="N19">
-        <v>1.91</v>
-      </c>
-      <c r="O19">
-        <v>1.33</v>
       </c>
       <c r="P19">
         <v>1.33</v>
       </c>
       <c r="Q19">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>9.5</v>
+      </c>
+      <c r="U19">
+        <v>19</v>
+      </c>
+      <c r="V19">
         <v>10</v>
-      </c>
-      <c r="T19">
-        <v>17</v>
-      </c>
-      <c r="U19">
-        <v>34</v>
-      </c>
-      <c r="V19">
-        <v>8</v>
       </c>
       <c r="W19">
         <v>6.5</v>
       </c>
       <c r="X19">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y19">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Z19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC19">
+        <v>34</v>
+      </c>
+      <c r="AD19">
         <v>41</v>
       </c>
-      <c r="AD19">
-        <v>23</v>
-      </c>
       <c r="AE19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG19">
         <v>51</v>
@@ -2790,100 +2781,100 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="E20" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H20">
+        <v>3.7</v>
+      </c>
+      <c r="I20">
+        <v>3.4</v>
+      </c>
+      <c r="J20">
+        <v>2.05</v>
+      </c>
+      <c r="K20">
+        <v>1.98</v>
+      </c>
+      <c r="L20">
+        <v>1.92</v>
+      </c>
+      <c r="M20">
+        <v>1.73</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1.73</v>
+      </c>
+      <c r="P20">
         <v>1.3</v>
       </c>
-      <c r="I20">
-        <v>5.25</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>1.73</v>
-      </c>
-      <c r="L20">
-        <v>2.08</v>
-      </c>
-      <c r="M20">
-        <v>2.1</v>
-      </c>
-      <c r="N20">
-        <v>1.67</v>
-      </c>
-      <c r="O20">
-        <v>1.06</v>
-      </c>
-      <c r="P20">
-        <v>1.17</v>
-      </c>
       <c r="Q20">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="R20">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>8.5</v>
+      </c>
+      <c r="T20">
+        <v>11</v>
+      </c>
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20">
         <v>12</v>
       </c>
-      <c r="S20">
-        <v>19</v>
-      </c>
-      <c r="T20">
+      <c r="W20">
+        <v>6.5</v>
+      </c>
+      <c r="X20">
+        <v>9.5</v>
+      </c>
+      <c r="Y20">
+        <v>17</v>
+      </c>
+      <c r="Z20">
+        <v>21</v>
+      </c>
+      <c r="AA20">
+        <v>13</v>
+      </c>
+      <c r="AB20">
+        <v>15</v>
+      </c>
+      <c r="AC20">
+        <v>26</v>
+      </c>
+      <c r="AD20">
         <v>41</v>
       </c>
-      <c r="U20">
-        <v>101</v>
-      </c>
-      <c r="V20">
-        <v>6.5</v>
-      </c>
-      <c r="W20">
-        <v>10</v>
-      </c>
-      <c r="X20">
-        <v>26</v>
-      </c>
-      <c r="Y20">
-        <v>67</v>
-      </c>
-      <c r="Z20">
-        <v>6</v>
-      </c>
-      <c r="AA20">
-        <v>9</v>
-      </c>
-      <c r="AB20">
-        <v>23</v>
-      </c>
-      <c r="AC20">
-        <v>67</v>
-      </c>
-      <c r="AD20">
-        <v>8</v>
-      </c>
       <c r="AE20">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AF20">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG20">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2891,91 +2882,91 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H21">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J21">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="K21">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L21">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="M21">
+        <v>1.73</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
         <v>1.91</v>
       </c>
-      <c r="N21">
-        <v>1.8</v>
-      </c>
-      <c r="O21">
-        <v>1.73</v>
-      </c>
       <c r="P21">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q21">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R21">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T21">
         <v>9.5</v>
       </c>
       <c r="U21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W21">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X21">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y21">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA21">
         <v>15</v>
       </c>
       <c r="AB21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD21">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE21">
         <v>34</v>
@@ -2992,100 +2983,100 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H22">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I22">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K22">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="M22">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O22">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q22">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S22">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="T22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V22">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="W22">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>9.5</v>
       </c>
       <c r="Y22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z22">
         <v>21</v>
       </c>
       <c r="AA22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC22">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD22">
+        <v>51</v>
+      </c>
+      <c r="AE22">
         <v>41</v>
       </c>
-      <c r="AE22">
-        <v>29</v>
-      </c>
       <c r="AF22">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3093,67 +3084,67 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
         <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
         <v>3.5</v>
       </c>
       <c r="J23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K23">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="M23">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O23">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
         <v>1.29</v>
       </c>
       <c r="Q23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W23">
         <v>7</v>
@@ -3162,25 +3153,25 @@
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z23">
         <v>23</v>
       </c>
       <c r="AA23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD23">
         <v>51</v>
       </c>
       <c r="AE23">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF23">
         <v>41</v>
@@ -3194,88 +3185,88 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H24">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="I24">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="J24">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="L24">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="M24">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N24">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O24">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P24">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="Q24">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S24">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T24">
         <v>8</v>
       </c>
       <c r="U24">
+        <v>12</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>8.5</v>
+      </c>
+      <c r="Y24">
+        <v>13</v>
+      </c>
+      <c r="Z24">
+        <v>29</v>
+      </c>
+      <c r="AA24">
         <v>17</v>
       </c>
-      <c r="V24">
-        <v>9.5</v>
-      </c>
-      <c r="W24">
-        <v>6</v>
-      </c>
-      <c r="X24">
-        <v>9.5</v>
-      </c>
-      <c r="Y24">
-        <v>19</v>
-      </c>
-      <c r="Z24">
-        <v>21</v>
-      </c>
-      <c r="AA24">
-        <v>15</v>
-      </c>
       <c r="AB24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD24">
         <v>51</v>
@@ -3284,10 +3275,10 @@
         <v>41</v>
       </c>
       <c r="AF24">
+        <v>41</v>
+      </c>
+      <c r="AG24">
         <v>51</v>
-      </c>
-      <c r="AG24">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3295,100 +3286,100 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>1.48</v>
       </c>
       <c r="I25">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
         <v>1.8</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="M25">
+        <v>1.91</v>
+      </c>
+      <c r="N25">
         <v>1.8</v>
       </c>
-      <c r="M25">
-        <v>1.83</v>
-      </c>
-      <c r="N25">
-        <v>1.83</v>
-      </c>
       <c r="O25">
-        <v>1.95</v>
+        <v>1.1</v>
       </c>
       <c r="P25">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Q25">
-        <v>1.18</v>
+        <v>2.63</v>
       </c>
       <c r="R25">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <v>19</v>
+      </c>
+      <c r="T25">
+        <v>41</v>
+      </c>
+      <c r="U25">
+        <v>81</v>
+      </c>
+      <c r="V25">
+        <v>7.5</v>
+      </c>
+      <c r="W25">
+        <v>8.5</v>
+      </c>
+      <c r="X25">
+        <v>21</v>
+      </c>
+      <c r="Y25">
+        <v>51</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25">
         <v>9</v>
       </c>
-      <c r="S25">
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <v>8.5</v>
-      </c>
-      <c r="U25">
-        <v>15</v>
-      </c>
-      <c r="V25">
-        <v>12</v>
-      </c>
-      <c r="W25">
-        <v>7</v>
-      </c>
-      <c r="X25">
-        <v>9</v>
-      </c>
-      <c r="Y25">
-        <v>17</v>
-      </c>
-      <c r="Z25">
-        <v>23</v>
-      </c>
-      <c r="AA25">
-        <v>17</v>
-      </c>
       <c r="AB25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25">
+        <v>51</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>13</v>
+      </c>
+      <c r="AF25">
         <v>29</v>
       </c>
-      <c r="AD25">
-        <v>51</v>
-      </c>
-      <c r="AE25">
-        <v>41</v>
-      </c>
-      <c r="AF25">
-        <v>41</v>
-      </c>
       <c r="AG25">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3396,100 +3387,100 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H26">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="I26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="J26">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="K26">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="L26">
+        <v>1.57</v>
+      </c>
+      <c r="M26">
         <v>2.1</v>
       </c>
-      <c r="M26">
-        <v>1.83</v>
-      </c>
       <c r="N26">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O26">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="P26">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Q26">
-        <v>1.17</v>
+        <v>1.95</v>
       </c>
       <c r="R26">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>21</v>
+      </c>
+      <c r="U26">
+        <v>51</v>
+      </c>
+      <c r="V26">
+        <v>5.5</v>
+      </c>
+      <c r="W26">
+        <v>6.5</v>
+      </c>
+      <c r="X26">
+        <v>15</v>
+      </c>
+      <c r="Y26">
+        <v>41</v>
+      </c>
+      <c r="Z26">
         <v>7.5</v>
       </c>
-      <c r="T26">
-        <v>8</v>
-      </c>
-      <c r="U26">
-        <v>12</v>
-      </c>
-      <c r="V26">
-        <v>15</v>
-      </c>
-      <c r="W26">
-        <v>8</v>
-      </c>
-      <c r="X26">
-        <v>8.5</v>
-      </c>
-      <c r="Y26">
+      <c r="AA26">
+        <v>9</v>
+      </c>
+      <c r="AB26">
+        <v>21</v>
+      </c>
+      <c r="AC26">
+        <v>51</v>
+      </c>
+      <c r="AD26">
         <v>13</v>
       </c>
-      <c r="Z26">
-        <v>29</v>
-      </c>
-      <c r="AA26">
+      <c r="AE26">
         <v>17</v>
       </c>
-      <c r="AB26">
-        <v>17</v>
-      </c>
-      <c r="AC26">
-        <v>26</v>
-      </c>
-      <c r="AD26">
-        <v>51</v>
-      </c>
-      <c r="AE26">
-        <v>41</v>
-      </c>
       <c r="AF26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG26">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3497,85 +3488,85 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H27">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="I27">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="K27">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="M27">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O27">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P27">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q27">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="R27">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>29</v>
+      </c>
+      <c r="U27">
+        <v>67</v>
+      </c>
+      <c r="V27">
+        <v>5.5</v>
+      </c>
+      <c r="W27">
+        <v>7.5</v>
+      </c>
+      <c r="X27">
         <v>19</v>
-      </c>
-      <c r="T27">
-        <v>41</v>
-      </c>
-      <c r="U27">
-        <v>81</v>
-      </c>
-      <c r="V27">
-        <v>7.5</v>
-      </c>
-      <c r="W27">
-        <v>8.5</v>
-      </c>
-      <c r="X27">
-        <v>21</v>
       </c>
       <c r="Y27">
         <v>51</v>
       </c>
       <c r="Z27">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA27">
         <v>9</v>
       </c>
       <c r="AB27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27">
         <v>51</v>
@@ -3584,13 +3575,13 @@
         <v>11</v>
       </c>
       <c r="AE27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG27">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3598,100 +3589,100 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H28">
+        <v>2.75</v>
+      </c>
+      <c r="I28">
+        <v>3.5</v>
+      </c>
+      <c r="J28">
+        <v>2.45</v>
+      </c>
+      <c r="K28">
+        <v>2.1</v>
+      </c>
+      <c r="L28">
+        <v>1.73</v>
+      </c>
+      <c r="M28">
         <v>1.83</v>
       </c>
-      <c r="I28">
-        <v>3.4</v>
-      </c>
-      <c r="J28">
-        <v>4.33</v>
-      </c>
-      <c r="K28">
-        <v>2.35</v>
-      </c>
-      <c r="L28">
-        <v>1.57</v>
-      </c>
-      <c r="M28">
-        <v>2.1</v>
-      </c>
       <c r="N28">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O28">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q28">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="R28">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="S28">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="T28">
+        <v>12</v>
+      </c>
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28">
+        <v>9</v>
+      </c>
+      <c r="W28">
+        <v>7</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
         <v>21</v>
       </c>
-      <c r="U28">
-        <v>51</v>
-      </c>
-      <c r="V28">
-        <v>5.5</v>
-      </c>
-      <c r="W28">
-        <v>6.5</v>
-      </c>
-      <c r="X28">
+      <c r="Z28">
         <v>15</v>
       </c>
-      <c r="Y28">
-        <v>41</v>
-      </c>
-      <c r="Z28">
-        <v>7.5</v>
-      </c>
       <c r="AA28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC28">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD28">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE28">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF28">
         <v>34</v>
       </c>
       <c r="AG28">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3699,100 +3690,100 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="K29">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="L29">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="N29">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="O29">
-        <v>1.14</v>
+        <v>2.1</v>
       </c>
       <c r="P29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q29">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="S29">
+        <v>7.5</v>
+      </c>
+      <c r="T29">
         <v>8.5</v>
       </c>
-      <c r="S29">
-        <v>12</v>
-      </c>
-      <c r="T29">
+      <c r="U29">
+        <v>15</v>
+      </c>
+      <c r="V29">
+        <v>13</v>
+      </c>
+      <c r="W29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>15</v>
+      </c>
+      <c r="Z29">
+        <v>26</v>
+      </c>
+      <c r="AA29">
+        <v>15</v>
+      </c>
+      <c r="AB29">
+        <v>17</v>
+      </c>
+      <c r="AC29">
         <v>29</v>
       </c>
-      <c r="U29">
-        <v>67</v>
-      </c>
-      <c r="V29">
-        <v>5.5</v>
-      </c>
-      <c r="W29">
-        <v>7.5</v>
-      </c>
-      <c r="X29">
-        <v>19</v>
-      </c>
-      <c r="Y29">
+      <c r="AD29">
         <v>51</v>
       </c>
-      <c r="Z29">
-        <v>6.5</v>
-      </c>
-      <c r="AA29">
-        <v>9</v>
-      </c>
-      <c r="AB29">
-        <v>21</v>
-      </c>
-      <c r="AC29">
+      <c r="AE29">
+        <v>41</v>
+      </c>
+      <c r="AF29">
+        <v>41</v>
+      </c>
+      <c r="AG29">
         <v>51</v>
-      </c>
-      <c r="AD29">
-        <v>11</v>
-      </c>
-      <c r="AE29">
-        <v>15</v>
-      </c>
-      <c r="AF29">
-        <v>34</v>
-      </c>
-      <c r="AG29">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3800,100 +3791,100 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H30">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="I30">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="J30">
-        <v>2.45</v>
+        <v>17</v>
       </c>
       <c r="K30">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="L30">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="M30">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O30">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="P30">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="Q30">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="R30">
         <v>11</v>
       </c>
       <c r="S30">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="T30">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="U30">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y30">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="Z30">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="AA30">
         <v>11</v>
       </c>
       <c r="AB30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AC30">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AD30">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="AE30">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AF30">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3901,100 +3892,100 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H31">
+        <v>1.33</v>
+      </c>
+      <c r="I31">
         <v>4.75</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
       <c r="J31">
-        <v>1.67</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="L31">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M31">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O31">
-        <v>2.15</v>
+        <v>1.06</v>
       </c>
       <c r="P31">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Q31">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="R31">
         <v>11</v>
       </c>
       <c r="S31">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="T31">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="U31">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="V31">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>26</v>
+      </c>
+      <c r="Y31">
+        <v>67</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>9.5</v>
+      </c>
+      <c r="AB31">
+        <v>23</v>
+      </c>
+      <c r="AC31">
+        <v>67</v>
+      </c>
+      <c r="AD31">
         <v>8</v>
       </c>
-      <c r="X31">
-        <v>9</v>
-      </c>
-      <c r="Y31">
-        <v>15</v>
-      </c>
-      <c r="Z31">
-        <v>26</v>
-      </c>
-      <c r="AA31">
-        <v>15</v>
-      </c>
-      <c r="AB31">
-        <v>19</v>
-      </c>
-      <c r="AC31">
-        <v>29</v>
-      </c>
-      <c r="AD31">
-        <v>51</v>
-      </c>
       <c r="AE31">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF31">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG31">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -4002,100 +3993,100 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H32">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="I32">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J32">
-        <v>17</v>
+        <v>1.29</v>
       </c>
       <c r="K32">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="L32">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O32">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Q32">
-        <v>4.33</v>
+        <v>1.05</v>
       </c>
       <c r="R32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S32">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>67</v>
+        <v>6.5</v>
       </c>
       <c r="U32">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X32">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Y32">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="Z32">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="AA32">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AB32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC32">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AD32">
-        <v>6.5</v>
+        <v>151</v>
       </c>
       <c r="AE32">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="AF32">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG32">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4103,100 +4094,100 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33">
+        <v>3.3</v>
+      </c>
+      <c r="I33">
+        <v>3.4</v>
+      </c>
+      <c r="J33">
+        <v>2.2</v>
+      </c>
+      <c r="K33">
+        <v>2.03</v>
+      </c>
+      <c r="L33">
+        <v>1.83</v>
+      </c>
+      <c r="M33">
+        <v>1.8</v>
+      </c>
+      <c r="N33">
+        <v>1.91</v>
+      </c>
+      <c r="O33">
+        <v>1.67</v>
+      </c>
+      <c r="P33">
+        <v>1.3</v>
+      </c>
+      <c r="Q33">
         <v>1.33</v>
       </c>
-      <c r="I33">
-        <v>4.75</v>
-      </c>
-      <c r="J33">
+      <c r="R33">
         <v>10</v>
       </c>
-      <c r="K33">
-        <v>1.8</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>2.2</v>
-      </c>
-      <c r="N33">
-        <v>1.62</v>
-      </c>
-      <c r="O33">
-        <v>1.06</v>
-      </c>
-      <c r="P33">
-        <v>1.18</v>
-      </c>
-      <c r="Q33">
-        <v>3.25</v>
-      </c>
-      <c r="R33">
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
         <v>11</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>21</v>
       </c>
-      <c r="T33">
+      <c r="V33">
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <v>6.5</v>
+      </c>
+      <c r="X33">
+        <v>9.5</v>
+      </c>
+      <c r="Y33">
+        <v>19</v>
+      </c>
+      <c r="Z33">
+        <v>17</v>
+      </c>
+      <c r="AA33">
+        <v>12</v>
+      </c>
+      <c r="AB33">
+        <v>15</v>
+      </c>
+      <c r="AC33">
+        <v>29</v>
+      </c>
+      <c r="AD33">
         <v>41</v>
       </c>
-      <c r="U33">
-        <v>126</v>
-      </c>
-      <c r="V33">
-        <v>6.5</v>
-      </c>
-      <c r="W33">
-        <v>9</v>
-      </c>
-      <c r="X33">
-        <v>26</v>
-      </c>
-      <c r="Y33">
-        <v>67</v>
-      </c>
-      <c r="Z33">
-        <v>6</v>
-      </c>
-      <c r="AA33">
-        <v>9.5</v>
-      </c>
-      <c r="AB33">
-        <v>23</v>
-      </c>
-      <c r="AC33">
-        <v>67</v>
-      </c>
-      <c r="AD33">
-        <v>8</v>
-      </c>
       <c r="AE33">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AF33">
         <v>34</v>
       </c>
       <c r="AG33">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4204,100 +4195,100 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>1.73</v>
       </c>
       <c r="I34">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="J34">
-        <v>1.29</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
+        <v>1.6</v>
+      </c>
+      <c r="M34">
         <v>2.1</v>
       </c>
-      <c r="M34">
-        <v>2.2</v>
-      </c>
       <c r="N34">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>1.17</v>
       </c>
       <c r="P34">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="Q34">
-        <v>1.05</v>
+        <v>2.05</v>
       </c>
       <c r="R34">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="S34">
+        <v>11</v>
+      </c>
+      <c r="T34">
+        <v>23</v>
+      </c>
+      <c r="U34">
+        <v>51</v>
+      </c>
+      <c r="V34">
+        <v>5.5</v>
+      </c>
+      <c r="W34">
+        <v>6.5</v>
+      </c>
+      <c r="X34">
+        <v>17</v>
+      </c>
+      <c r="Y34">
+        <v>41</v>
+      </c>
+      <c r="Z34">
         <v>7</v>
       </c>
-      <c r="T34">
-        <v>6.5</v>
-      </c>
-      <c r="U34">
-        <v>8</v>
-      </c>
-      <c r="V34">
-        <v>23</v>
-      </c>
-      <c r="W34">
-        <v>10</v>
-      </c>
-      <c r="X34">
-        <v>10</v>
-      </c>
-      <c r="Y34">
-        <v>12</v>
-      </c>
-      <c r="Z34">
+      <c r="AA34">
+        <v>9</v>
+      </c>
+      <c r="AB34">
+        <v>19</v>
+      </c>
+      <c r="AC34">
         <v>51</v>
       </c>
-      <c r="AA34">
+      <c r="AD34">
+        <v>13</v>
+      </c>
+      <c r="AE34">
+        <v>17</v>
+      </c>
+      <c r="AF34">
         <v>34</v>
       </c>
-      <c r="AB34">
-        <v>26</v>
-      </c>
-      <c r="AC34">
-        <v>34</v>
-      </c>
-      <c r="AD34">
-        <v>151</v>
-      </c>
-      <c r="AE34">
-        <v>81</v>
-      </c>
-      <c r="AF34">
-        <v>81</v>
-      </c>
       <c r="AG34">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4305,100 +4296,100 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H35">
-        <v>3.4</v>
+        <v>1.17</v>
       </c>
       <c r="I35">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="J35">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="L35">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="M35">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="O35">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="P35">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Q35">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S35">
+        <v>29</v>
+      </c>
+      <c r="T35">
+        <v>67</v>
+      </c>
+      <c r="U35">
+        <v>251</v>
+      </c>
+      <c r="V35">
         <v>8</v>
       </c>
-      <c r="T35">
+      <c r="W35">
+        <v>13</v>
+      </c>
+      <c r="X35">
+        <v>41</v>
+      </c>
+      <c r="Y35">
+        <v>101</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
         <v>11</v>
       </c>
-      <c r="U35">
-        <v>21</v>
-      </c>
-      <c r="V35">
+      <c r="AB35">
+        <v>29</v>
+      </c>
+      <c r="AC35">
+        <v>81</v>
+      </c>
+      <c r="AD35">
+        <v>6.5</v>
+      </c>
+      <c r="AE35">
         <v>11</v>
-      </c>
-      <c r="W35">
-        <v>6.5</v>
-      </c>
-      <c r="X35">
-        <v>9.5</v>
-      </c>
-      <c r="Y35">
-        <v>19</v>
-      </c>
-      <c r="Z35">
-        <v>17</v>
-      </c>
-      <c r="AA35">
-        <v>13</v>
-      </c>
-      <c r="AB35">
-        <v>15</v>
-      </c>
-      <c r="AC35">
-        <v>29</v>
-      </c>
-      <c r="AD35">
-        <v>41</v>
-      </c>
-      <c r="AE35">
-        <v>29</v>
       </c>
       <c r="AF35">
         <v>34</v>
       </c>
       <c r="AG35">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4406,97 +4397,97 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="E36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
-      </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H36">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="I36">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="L36">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O36">
+        <v>1.07</v>
+      </c>
+      <c r="P36">
         <v>1.17</v>
       </c>
-      <c r="P36">
-        <v>1.3</v>
-      </c>
       <c r="Q36">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="R36">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="S36">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T36">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U36">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="V36">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="W36">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y36">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Z36">
         <v>7</v>
       </c>
       <c r="AA36">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC36">
         <v>51</v>
       </c>
       <c r="AD36">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE36">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF36">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG36">
         <v>67</v>
@@ -4507,100 +4498,100 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
         <v>159</v>
       </c>
-      <c r="G37" t="s">
-        <v>160</v>
-      </c>
       <c r="H37">
-        <v>1.17</v>
+        <v>2.05</v>
       </c>
       <c r="I37">
+        <v>3.6</v>
+      </c>
+      <c r="J37">
+        <v>3.4</v>
+      </c>
+      <c r="K37">
+        <v>1.8</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1.62</v>
+      </c>
+      <c r="N37">
+        <v>2.2</v>
+      </c>
+      <c r="O37">
+        <v>1.3</v>
+      </c>
+      <c r="P37">
+        <v>1.29</v>
+      </c>
+      <c r="Q37">
+        <v>1.73</v>
+      </c>
+      <c r="R37">
+        <v>13</v>
+      </c>
+      <c r="S37">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <v>21</v>
+      </c>
+      <c r="U37">
+        <v>41</v>
+      </c>
+      <c r="V37">
+        <v>9</v>
+      </c>
+      <c r="W37">
         <v>7</v>
       </c>
-      <c r="J37">
-        <v>15</v>
-      </c>
-      <c r="K37">
-        <v>1.5</v>
-      </c>
-      <c r="L37">
-        <v>2.5</v>
-      </c>
-      <c r="M37">
-        <v>2.25</v>
-      </c>
-      <c r="N37">
-        <v>1.57</v>
-      </c>
-      <c r="O37">
-        <v>1.03</v>
-      </c>
-      <c r="P37">
-        <v>1.1</v>
-      </c>
-      <c r="Q37">
-        <v>5</v>
-      </c>
-      <c r="R37">
-        <v>15</v>
-      </c>
-      <c r="S37">
+      <c r="X37">
+        <v>13</v>
+      </c>
+      <c r="Y37">
         <v>29</v>
       </c>
-      <c r="T37">
-        <v>67</v>
-      </c>
-      <c r="U37">
-        <v>251</v>
-      </c>
-      <c r="V37">
-        <v>8</v>
-      </c>
-      <c r="W37">
+      <c r="Z37">
+        <v>11</v>
+      </c>
+      <c r="AA37">
+        <v>9</v>
+      </c>
+      <c r="AB37">
         <v>13</v>
       </c>
-      <c r="X37">
+      <c r="AC37">
+        <v>34</v>
+      </c>
+      <c r="AD37">
+        <v>19</v>
+      </c>
+      <c r="AE37">
+        <v>17</v>
+      </c>
+      <c r="AF37">
+        <v>23</v>
+      </c>
+      <c r="AG37">
         <v>41</v>
-      </c>
-      <c r="Y37">
-        <v>101</v>
-      </c>
-      <c r="Z37">
-        <v>6</v>
-      </c>
-      <c r="AA37">
-        <v>11</v>
-      </c>
-      <c r="AB37">
-        <v>29</v>
-      </c>
-      <c r="AC37">
-        <v>81</v>
-      </c>
-      <c r="AD37">
-        <v>6.5</v>
-      </c>
-      <c r="AE37">
-        <v>11</v>
-      </c>
-      <c r="AF37">
-        <v>34</v>
-      </c>
-      <c r="AG37">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4608,100 +4599,100 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H38">
+        <v>2.5</v>
+      </c>
+      <c r="I38">
+        <v>3.25</v>
+      </c>
+      <c r="J38">
+        <v>2.88</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1.85</v>
+      </c>
+      <c r="M38">
+        <v>1.73</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1.4</v>
+      </c>
+      <c r="P38">
         <v>1.33</v>
       </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
+      <c r="Q38">
+        <v>1.5</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>15</v>
+      </c>
+      <c r="U38">
+        <v>29</v>
+      </c>
+      <c r="V38">
         <v>9</v>
       </c>
-      <c r="K38">
-        <v>1.67</v>
-      </c>
-      <c r="L38">
-        <v>2.2</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>1.73</v>
-      </c>
-      <c r="O38">
-        <v>1.07</v>
-      </c>
-      <c r="P38">
-        <v>1.17</v>
-      </c>
-      <c r="Q38">
-        <v>3.25</v>
-      </c>
-      <c r="R38">
+      <c r="W38">
+        <v>6.5</v>
+      </c>
+      <c r="X38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>23</v>
+      </c>
+      <c r="Z38">
         <v>13</v>
       </c>
-      <c r="S38">
+      <c r="AA38">
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <v>15</v>
+      </c>
+      <c r="AC38">
+        <v>34</v>
+      </c>
+      <c r="AD38">
+        <v>26</v>
+      </c>
+      <c r="AE38">
         <v>21</v>
-      </c>
-      <c r="T38">
-        <v>41</v>
-      </c>
-      <c r="U38">
-        <v>101</v>
-      </c>
-      <c r="V38">
-        <v>8</v>
-      </c>
-      <c r="W38">
-        <v>10</v>
-      </c>
-      <c r="X38">
-        <v>23</v>
-      </c>
-      <c r="Y38">
-        <v>67</v>
-      </c>
-      <c r="Z38">
-        <v>7</v>
-      </c>
-      <c r="AA38">
-        <v>9.5</v>
-      </c>
-      <c r="AB38">
-        <v>23</v>
-      </c>
-      <c r="AC38">
-        <v>51</v>
-      </c>
-      <c r="AD38">
-        <v>9</v>
-      </c>
-      <c r="AE38">
-        <v>12</v>
       </c>
       <c r="AF38">
         <v>29</v>
       </c>
       <c r="AG38">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4709,31 +4700,31 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H39">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="I39">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="K39">
         <v>1.8</v>
@@ -4742,67 +4733,67 @@
         <v>2</v>
       </c>
       <c r="M39">
+        <v>2.2</v>
+      </c>
+      <c r="N39">
         <v>1.62</v>
       </c>
-      <c r="N39">
-        <v>2.2</v>
-      </c>
       <c r="O39">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="P39">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="Q39">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="R39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S39">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="T39">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="U39">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="V39">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="W39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X39">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Y39">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="Z39">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AA39">
         <v>9.5</v>
       </c>
       <c r="AB39">
+        <v>23</v>
+      </c>
+      <c r="AC39">
+        <v>67</v>
+      </c>
+      <c r="AD39">
+        <v>8.5</v>
+      </c>
+      <c r="AE39">
         <v>13</v>
       </c>
-      <c r="AC39">
+      <c r="AF39">
         <v>34</v>
       </c>
-      <c r="AD39">
-        <v>21</v>
-      </c>
-      <c r="AE39">
-        <v>17</v>
-      </c>
-      <c r="AF39">
-        <v>23</v>
-      </c>
       <c r="AG39">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4810,97 +4801,97 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H40">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="I40">
         <v>3.25</v>
       </c>
       <c r="J40">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="M40">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="P40">
         <v>1.33</v>
       </c>
       <c r="Q40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T40">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U40">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W40">
         <v>6.5</v>
       </c>
       <c r="X40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z40">
         <v>13</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC40">
         <v>34</v>
       </c>
       <c r="AD40">
+        <v>34</v>
+      </c>
+      <c r="AE40">
         <v>26</v>
       </c>
-      <c r="AE40">
-        <v>21</v>
-      </c>
       <c r="AF40">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG40">
         <v>51</v>
@@ -4911,100 +4902,100 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H41">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J41">
+        <v>1.62</v>
+      </c>
+      <c r="K41">
+        <v>2.1</v>
+      </c>
+      <c r="L41">
+        <v>1.73</v>
+      </c>
+      <c r="M41">
+        <v>2.1</v>
+      </c>
+      <c r="N41">
+        <v>1.67</v>
+      </c>
+      <c r="O41">
+        <v>2.25</v>
+      </c>
+      <c r="P41">
+        <v>1.29</v>
+      </c>
+      <c r="Q41">
+        <v>1.14</v>
+      </c>
+      <c r="R41">
+        <v>8.5</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
         <v>11</v>
       </c>
-      <c r="K41">
-        <v>1.8</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
-      <c r="M41">
-        <v>2.2</v>
-      </c>
-      <c r="N41">
-        <v>1.62</v>
-      </c>
-      <c r="O41">
-        <v>1.05</v>
-      </c>
-      <c r="P41">
-        <v>1.18</v>
-      </c>
-      <c r="Q41">
-        <v>3.4</v>
-      </c>
-      <c r="R41">
-        <v>11</v>
-      </c>
-      <c r="S41">
-        <v>23</v>
-      </c>
-      <c r="T41">
+      <c r="V41">
+        <v>12</v>
+      </c>
+      <c r="W41">
+        <v>7</v>
+      </c>
+      <c r="X41">
+        <v>9</v>
+      </c>
+      <c r="Y41">
+        <v>15</v>
+      </c>
+      <c r="Z41">
+        <v>29</v>
+      </c>
+      <c r="AA41">
+        <v>19</v>
+      </c>
+      <c r="AB41">
+        <v>21</v>
+      </c>
+      <c r="AC41">
+        <v>34</v>
+      </c>
+      <c r="AD41">
+        <v>67</v>
+      </c>
+      <c r="AE41">
         <v>51</v>
       </c>
-      <c r="U41">
-        <v>151</v>
-      </c>
-      <c r="V41">
-        <v>7</v>
-      </c>
-      <c r="W41">
-        <v>10</v>
-      </c>
-      <c r="X41">
-        <v>29</v>
-      </c>
-      <c r="Y41">
-        <v>81</v>
-      </c>
-      <c r="Z41">
-        <v>6.5</v>
-      </c>
-      <c r="AA41">
-        <v>9.5</v>
-      </c>
-      <c r="AB41">
-        <v>23</v>
-      </c>
-      <c r="AC41">
+      <c r="AF41">
+        <v>51</v>
+      </c>
+      <c r="AG41">
         <v>67</v>
-      </c>
-      <c r="AD41">
-        <v>8.5</v>
-      </c>
-      <c r="AE41">
-        <v>13</v>
-      </c>
-      <c r="AF41">
-        <v>34</v>
-      </c>
-      <c r="AG41">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -5012,31 +5003,31 @@
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H42">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I42">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J42">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="K42">
         <v>2.2</v>
@@ -5045,43 +5036,43 @@
         <v>1.67</v>
       </c>
       <c r="M42">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O42">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P42">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q42">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
         <v>8</v>
       </c>
       <c r="S42">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="T42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U42">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V42">
         <v>8</v>
       </c>
       <c r="W42">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z42">
         <v>13</v>
@@ -5090,19 +5081,19 @@
         <v>11</v>
       </c>
       <c r="AB42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC42">
+        <v>41</v>
+      </c>
+      <c r="AD42">
+        <v>26</v>
+      </c>
+      <c r="AE42">
+        <v>23</v>
+      </c>
+      <c r="AF42">
         <v>34</v>
-      </c>
-      <c r="AD42">
-        <v>34</v>
-      </c>
-      <c r="AE42">
-        <v>26</v>
-      </c>
-      <c r="AF42">
-        <v>41</v>
       </c>
       <c r="AG42">
         <v>51</v>
@@ -5113,100 +5104,100 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H43">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I43">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J43">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="L43">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="N43">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="P43">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q43">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="R43">
+        <v>12</v>
+      </c>
+      <c r="S43">
         <v>8</v>
       </c>
-      <c r="S43">
-        <v>6</v>
-      </c>
       <c r="T43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U43">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V43">
         <v>12</v>
       </c>
       <c r="W43">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X43">
         <v>9</v>
       </c>
       <c r="Y43">
+        <v>17</v>
+      </c>
+      <c r="Z43">
+        <v>21</v>
+      </c>
+      <c r="AA43">
+        <v>13</v>
+      </c>
+      <c r="AB43">
         <v>15</v>
       </c>
-      <c r="Z43">
+      <c r="AC43">
         <v>26</v>
       </c>
-      <c r="AA43">
-        <v>17</v>
-      </c>
-      <c r="AB43">
-        <v>19</v>
-      </c>
-      <c r="AC43">
+      <c r="AD43">
+        <v>41</v>
+      </c>
+      <c r="AE43">
         <v>34</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
+        <v>41</v>
+      </c>
+      <c r="AG43">
         <v>51</v>
-      </c>
-      <c r="AE43">
-        <v>41</v>
-      </c>
-      <c r="AF43">
-        <v>51</v>
-      </c>
-      <c r="AG43">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -5214,91 +5205,91 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H44">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="I44">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J44">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="L44">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="M44">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O44">
+        <v>1.5</v>
+      </c>
+      <c r="P44">
+        <v>1.33</v>
+      </c>
+      <c r="Q44">
         <v>1.4</v>
       </c>
-      <c r="P44">
-        <v>1.36</v>
-      </c>
-      <c r="Q44">
-        <v>1.5</v>
-      </c>
       <c r="R44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S44">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="T44">
+        <v>13</v>
+      </c>
+      <c r="U44">
+        <v>26</v>
+      </c>
+      <c r="V44">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>6.5</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>21</v>
+      </c>
+      <c r="Z44">
         <v>15</v>
-      </c>
-      <c r="U44">
-        <v>29</v>
-      </c>
-      <c r="V44">
-        <v>8</v>
-      </c>
-      <c r="W44">
-        <v>6</v>
-      </c>
-      <c r="X44">
-        <v>12</v>
-      </c>
-      <c r="Y44">
-        <v>26</v>
-      </c>
-      <c r="Z44">
-        <v>13</v>
       </c>
       <c r="AA44">
         <v>11</v>
       </c>
       <c r="AB44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC44">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD44">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE44">
         <v>23</v>
@@ -5315,100 +5306,100 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H45">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="I45">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J45">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K45">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="L45">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
         <v>1.73</v>
       </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
       <c r="O45">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Q45">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="R45">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S45">
         <v>8</v>
       </c>
       <c r="T45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U45">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="V45">
+        <v>23</v>
+      </c>
+      <c r="W45">
+        <v>11</v>
+      </c>
+      <c r="X45">
+        <v>9.5</v>
+      </c>
+      <c r="Y45">
         <v>12</v>
       </c>
-      <c r="W45">
-        <v>7.5</v>
-      </c>
-      <c r="X45">
-        <v>9</v>
-      </c>
-      <c r="Y45">
-        <v>17</v>
-      </c>
       <c r="Z45">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA45">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB45">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC45">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD45">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AE45">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AF45">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG45">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -5416,100 +5407,100 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H46">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="I46">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J46">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="K46">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="M46">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O46">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="P46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q46">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="R46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S46">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="T46">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="U46">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="V46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W46">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y46">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="Z46">
+        <v>7</v>
+      </c>
+      <c r="AA46">
+        <v>9</v>
+      </c>
+      <c r="AB46">
+        <v>19</v>
+      </c>
+      <c r="AC46">
+        <v>51</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
         <v>15</v>
-      </c>
-      <c r="AA46">
-        <v>11</v>
-      </c>
-      <c r="AB46">
-        <v>13</v>
-      </c>
-      <c r="AC46">
-        <v>29</v>
-      </c>
-      <c r="AD46">
-        <v>29</v>
-      </c>
-      <c r="AE46">
-        <v>23</v>
       </c>
       <c r="AF46">
         <v>34</v>
       </c>
       <c r="AG46">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -5517,100 +5508,100 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H47">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="I47">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J47">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="N47">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="P47">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="Q47">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="S47">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="T47">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U47">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="V47">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="W47">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="X47">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y47">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z47">
+        <v>19</v>
+      </c>
+      <c r="AA47">
+        <v>13</v>
+      </c>
+      <c r="AB47">
+        <v>17</v>
+      </c>
+      <c r="AC47">
+        <v>34</v>
+      </c>
+      <c r="AD47">
+        <v>41</v>
+      </c>
+      <c r="AE47">
+        <v>34</v>
+      </c>
+      <c r="AF47">
+        <v>41</v>
+      </c>
+      <c r="AG47">
         <v>51</v>
-      </c>
-      <c r="AA47">
-        <v>26</v>
-      </c>
-      <c r="AB47">
-        <v>23</v>
-      </c>
-      <c r="AC47">
-        <v>29</v>
-      </c>
-      <c r="AD47">
-        <v>126</v>
-      </c>
-      <c r="AE47">
-        <v>67</v>
-      </c>
-      <c r="AF47">
-        <v>51</v>
-      </c>
-      <c r="AG47">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -5618,37 +5609,37 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
         <v>116</v>
       </c>
-      <c r="D48" t="s">
-        <v>119</v>
-      </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H48">
-        <v>1.67</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J48">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="L48">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="M48">
         <v>2.1</v>
@@ -5657,58 +5648,58 @@
         <v>1.67</v>
       </c>
       <c r="O48">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="P48">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Q48">
-        <v>2.15</v>
+        <v>1.1</v>
       </c>
       <c r="R48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S48">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T48">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="U48">
-        <v>67</v>
+        <v>9.5</v>
       </c>
       <c r="V48">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W48">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X48">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y48">
+        <v>13</v>
+      </c>
+      <c r="Z48">
+        <v>34</v>
+      </c>
+      <c r="AA48">
+        <v>21</v>
+      </c>
+      <c r="AB48">
+        <v>21</v>
+      </c>
+      <c r="AC48">
+        <v>34</v>
+      </c>
+      <c r="AD48">
+        <v>81</v>
+      </c>
+      <c r="AE48">
         <v>51</v>
       </c>
-      <c r="Z48">
-        <v>7</v>
-      </c>
-      <c r="AA48">
-        <v>9</v>
-      </c>
-      <c r="AB48">
-        <v>19</v>
-      </c>
-      <c r="AC48">
+      <c r="AF48">
         <v>51</v>
-      </c>
-      <c r="AD48">
-        <v>12</v>
-      </c>
-      <c r="AE48">
-        <v>15</v>
-      </c>
-      <c r="AF48">
-        <v>34</v>
       </c>
       <c r="AG48">
         <v>67</v>
@@ -5719,100 +5710,100 @@
         <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H49">
-        <v>3.9</v>
+        <v>1.18</v>
       </c>
       <c r="I49">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K49">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="L49">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="N49">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="O49">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="P49">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="R49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S49">
+        <v>26</v>
+      </c>
+      <c r="T49">
+        <v>51</v>
+      </c>
+      <c r="U49">
+        <v>201</v>
+      </c>
+      <c r="V49">
+        <v>7.5</v>
+      </c>
+      <c r="W49">
+        <v>13</v>
+      </c>
+      <c r="X49">
+        <v>34</v>
+      </c>
+      <c r="Y49">
+        <v>101</v>
+      </c>
+      <c r="Z49">
+        <v>6</v>
+      </c>
+      <c r="AA49">
+        <v>11</v>
+      </c>
+      <c r="AB49">
+        <v>34</v>
+      </c>
+      <c r="AC49">
+        <v>81</v>
+      </c>
+      <c r="AD49">
         <v>6.5</v>
       </c>
-      <c r="T49">
-        <v>8.5</v>
-      </c>
-      <c r="U49">
-        <v>17</v>
-      </c>
-      <c r="V49">
-        <v>9.5</v>
-      </c>
-      <c r="W49">
-        <v>6.5</v>
-      </c>
-      <c r="X49">
-        <v>9</v>
-      </c>
-      <c r="Y49">
-        <v>17</v>
-      </c>
-      <c r="Z49">
-        <v>19</v>
-      </c>
-      <c r="AA49">
-        <v>13</v>
-      </c>
-      <c r="AB49">
-        <v>17</v>
-      </c>
-      <c r="AC49">
+      <c r="AE49">
+        <v>12</v>
+      </c>
+      <c r="AF49">
         <v>34</v>
       </c>
-      <c r="AD49">
-        <v>41</v>
-      </c>
-      <c r="AE49">
-        <v>34</v>
-      </c>
-      <c r="AF49">
-        <v>41</v>
-      </c>
       <c r="AG49">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -5820,100 +5811,100 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="D50" t="s">
-        <v>119</v>
-      </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>1.48</v>
       </c>
       <c r="I50">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J50">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="K50">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="M50">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N50">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O50">
+        <v>1.1</v>
+      </c>
+      <c r="P50">
+        <v>1.25</v>
+      </c>
+      <c r="Q50">
         <v>2.63</v>
       </c>
-      <c r="P50">
-        <v>1.2</v>
-      </c>
-      <c r="Q50">
-        <v>1.1</v>
-      </c>
       <c r="R50">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="S50">
+        <v>15</v>
+      </c>
+      <c r="T50">
+        <v>34</v>
+      </c>
+      <c r="U50">
+        <v>81</v>
+      </c>
+      <c r="V50">
+        <v>5.5</v>
+      </c>
+      <c r="W50">
+        <v>7.5</v>
+      </c>
+      <c r="X50">
+        <v>23</v>
+      </c>
+      <c r="Y50">
+        <v>51</v>
+      </c>
+      <c r="Z50">
         <v>6</v>
       </c>
-      <c r="T50">
-        <v>6.5</v>
-      </c>
-      <c r="U50">
-        <v>9.5</v>
-      </c>
-      <c r="V50">
-        <v>15</v>
-      </c>
-      <c r="W50">
-        <v>8.5</v>
-      </c>
-      <c r="X50">
+      <c r="AA50">
         <v>9</v>
-      </c>
-      <c r="Y50">
-        <v>13</v>
-      </c>
-      <c r="Z50">
-        <v>34</v>
-      </c>
-      <c r="AA50">
-        <v>21</v>
       </c>
       <c r="AB50">
         <v>21</v>
       </c>
       <c r="AC50">
+        <v>67</v>
+      </c>
+      <c r="AD50">
+        <v>9.5</v>
+      </c>
+      <c r="AE50">
+        <v>15</v>
+      </c>
+      <c r="AF50">
         <v>34</v>
       </c>
-      <c r="AD50">
+      <c r="AG50">
         <v>81</v>
-      </c>
-      <c r="AE50">
-        <v>51</v>
-      </c>
-      <c r="AF50">
-        <v>51</v>
-      </c>
-      <c r="AG50">
-        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -5921,100 +5912,100 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
         <v>158</v>
       </c>
-      <c r="G51" t="s">
-        <v>161</v>
-      </c>
       <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>4.75</v>
+      </c>
+      <c r="J51">
+        <v>1.33</v>
+      </c>
+      <c r="K51">
+        <v>1.93</v>
+      </c>
+      <c r="L51">
+        <v>1.97</v>
+      </c>
+      <c r="M51">
+        <v>2.25</v>
+      </c>
+      <c r="N51">
+        <v>1.57</v>
+      </c>
+      <c r="O51">
+        <v>3.25</v>
+      </c>
+      <c r="P51">
         <v>1.18</v>
       </c>
-      <c r="I51">
-        <v>7</v>
-      </c>
-      <c r="J51">
+      <c r="Q51">
+        <v>1.07</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51">
+        <v>17</v>
+      </c>
+      <c r="W51">
+        <v>9.5</v>
+      </c>
+      <c r="X51">
+        <v>9.5</v>
+      </c>
+      <c r="Y51">
         <v>13</v>
       </c>
-      <c r="K51">
-        <v>1.53</v>
-      </c>
-      <c r="L51">
-        <v>2.5</v>
-      </c>
-      <c r="M51">
-        <v>2.38</v>
-      </c>
-      <c r="N51">
-        <v>1.53</v>
-      </c>
-      <c r="O51">
-        <v>1.04</v>
-      </c>
-      <c r="P51">
-        <v>1.1</v>
-      </c>
-      <c r="Q51">
-        <v>4.5</v>
-      </c>
-      <c r="R51">
-        <v>15</v>
-      </c>
-      <c r="S51">
+      <c r="Z51">
+        <v>41</v>
+      </c>
+      <c r="AA51">
         <v>26</v>
       </c>
-      <c r="T51">
-        <v>51</v>
-      </c>
-      <c r="U51">
-        <v>201</v>
-      </c>
-      <c r="V51">
-        <v>7.5</v>
-      </c>
-      <c r="W51">
-        <v>13</v>
-      </c>
-      <c r="X51">
+      <c r="AB51">
+        <v>26</v>
+      </c>
+      <c r="AC51">
         <v>34</v>
       </c>
-      <c r="Y51">
+      <c r="AD51">
         <v>101</v>
       </c>
-      <c r="Z51">
-        <v>6</v>
-      </c>
-      <c r="AA51">
-        <v>11</v>
-      </c>
-      <c r="AB51">
-        <v>34</v>
-      </c>
-      <c r="AC51">
+      <c r="AE51">
+        <v>67</v>
+      </c>
+      <c r="AF51">
+        <v>67</v>
+      </c>
+      <c r="AG51">
         <v>81</v>
-      </c>
-      <c r="AD51">
-        <v>6.5</v>
-      </c>
-      <c r="AE51">
-        <v>12</v>
-      </c>
-      <c r="AF51">
-        <v>34</v>
-      </c>
-      <c r="AG51">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -6022,100 +6013,100 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
         <v>116</v>
       </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
         <v>159</v>
       </c>
-      <c r="G52" t="s">
-        <v>161</v>
-      </c>
       <c r="H52">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -6123,100 +6114,100 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -6224,22 +6215,22 @@
         <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -6325,22 +6316,22 @@
         <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6426,22 +6417,22 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6527,22 +6518,22 @@
         <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s">
         <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6628,22 +6619,22 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -6729,22 +6720,22 @@
         <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6822,208 +6813,6 @@
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="156">
   <si>
     <t>Id</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>QXGCSaTq</t>
-  </si>
-  <si>
-    <t>8d6HRJrj</t>
-  </si>
-  <si>
-    <t>vwtfSsT6</t>
-  </si>
-  <si>
     <t>rZpKouzM</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-15</t>
-  </si>
-  <si>
     <t>2024-06-16</t>
   </si>
   <si>
@@ -367,124 +355,124 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Italy</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Hungary</t>
   </si>
   <si>
     <t>ROUND 1</t>
@@ -851,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,100 +951,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H2">
-        <v>1.91</v>
+        <v>5.5</v>
       </c>
       <c r="I2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="K2">
+        <v>2.3</v>
+      </c>
+      <c r="L2">
+        <v>1.62</v>
+      </c>
+      <c r="M2">
         <v>2.1</v>
       </c>
-      <c r="L2">
-        <v>1.73</v>
-      </c>
-      <c r="M2">
-        <v>1.83</v>
-      </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O2">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="P2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q2">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>7.5</v>
+      </c>
+      <c r="U2">
+        <v>13</v>
+      </c>
+      <c r="V2">
+        <v>13</v>
+      </c>
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
         <v>9</v>
       </c>
-      <c r="S2">
-        <v>11</v>
-      </c>
-      <c r="T2">
+      <c r="Y2">
+        <v>17</v>
+      </c>
+      <c r="Z2">
+        <v>29</v>
+      </c>
+      <c r="AA2">
+        <v>19</v>
+      </c>
+      <c r="AB2">
         <v>21</v>
       </c>
-      <c r="U2">
+      <c r="AC2">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>67</v>
+      </c>
+      <c r="AE2">
         <v>51</v>
       </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>6.5</v>
-      </c>
-      <c r="X2">
-        <v>15</v>
-      </c>
-      <c r="Y2">
-        <v>41</v>
-      </c>
-      <c r="Z2">
-        <v>9</v>
-      </c>
-      <c r="AA2">
-        <v>9</v>
-      </c>
-      <c r="AB2">
-        <v>17</v>
-      </c>
-      <c r="AC2">
-        <v>41</v>
-      </c>
-      <c r="AD2">
-        <v>17</v>
-      </c>
-      <c r="AE2">
-        <v>17</v>
-      </c>
       <c r="AF2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG2">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1064,100 +1052,100 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H3">
-        <v>1.33</v>
+        <v>6.5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3">
-        <v>9.5</v>
+        <v>1.48</v>
       </c>
       <c r="K3">
+        <v>1.88</v>
+      </c>
+      <c r="L3">
+        <v>2.05</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>1.8</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>1.73</v>
+      </c>
+      <c r="O3">
         <v>2.63</v>
       </c>
-      <c r="N3">
-        <v>1.44</v>
-      </c>
-      <c r="O3">
-        <v>1.07</v>
-      </c>
       <c r="P3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Q3">
-        <v>3.25</v>
+        <v>1.11</v>
       </c>
       <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>6.5</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>11</v>
+      </c>
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <v>8.5</v>
+      </c>
+      <c r="X3">
         <v>9</v>
       </c>
-      <c r="S3">
-        <v>17</v>
-      </c>
-      <c r="T3">
-        <v>41</v>
-      </c>
-      <c r="U3">
-        <v>151</v>
-      </c>
-      <c r="V3">
-        <v>5.5</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3">
-        <v>29</v>
-      </c>
       <c r="Y3">
+        <v>13</v>
+      </c>
+      <c r="Z3">
+        <v>34</v>
+      </c>
+      <c r="AA3">
+        <v>21</v>
+      </c>
+      <c r="AB3">
+        <v>21</v>
+      </c>
+      <c r="AC3">
+        <v>34</v>
+      </c>
+      <c r="AD3">
         <v>81</v>
       </c>
-      <c r="Z3">
-        <v>5.5</v>
-      </c>
-      <c r="AA3">
-        <v>10</v>
-      </c>
-      <c r="AB3">
-        <v>34</v>
-      </c>
-      <c r="AC3">
-        <v>81</v>
-      </c>
-      <c r="AD3">
-        <v>8</v>
-      </c>
       <c r="AE3">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AF3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1165,97 +1153,97 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H4">
-        <v>5.75</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="K4">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N4">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="P4">
+        <v>1.3</v>
+      </c>
+      <c r="Q4">
         <v>1.22</v>
       </c>
-      <c r="Q4">
-        <v>1.14</v>
-      </c>
       <c r="R4">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="S4">
         <v>6.5</v>
       </c>
       <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>17</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="W4">
         <v>7</v>
       </c>
-      <c r="U4">
-        <v>12</v>
-      </c>
-      <c r="V4">
+      <c r="X4">
+        <v>9.5</v>
+      </c>
+      <c r="Y4">
+        <v>19</v>
+      </c>
+      <c r="Z4">
+        <v>21</v>
+      </c>
+      <c r="AA4">
         <v>15</v>
       </c>
-      <c r="W4">
-        <v>8</v>
-      </c>
-      <c r="X4">
-        <v>9</v>
-      </c>
-      <c r="Y4">
-        <v>15</v>
-      </c>
-      <c r="Z4">
-        <v>29</v>
-      </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>19</v>
-      </c>
-      <c r="AB4">
-        <v>21</v>
       </c>
       <c r="AC4">
         <v>34</v>
       </c>
       <c r="AD4">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE4">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF4">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4">
         <v>67</v>
@@ -1266,100 +1254,100 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5">
-        <v>5.25</v>
+        <v>1.48</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5">
-        <v>1.73</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="N5">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O5">
-        <v>2.05</v>
+        <v>1.1</v>
       </c>
       <c r="P5">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Q5">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T5">
+        <v>34</v>
+      </c>
+      <c r="U5">
+        <v>81</v>
+      </c>
+      <c r="V5">
         <v>7.5</v>
       </c>
-      <c r="U5">
-        <v>15</v>
-      </c>
-      <c r="V5">
-        <v>12</v>
-      </c>
       <c r="W5">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X5">
+        <v>21</v>
+      </c>
+      <c r="Y5">
+        <v>51</v>
+      </c>
+      <c r="Z5">
+        <v>7.5</v>
+      </c>
+      <c r="AA5">
         <v>9</v>
       </c>
-      <c r="Y5">
-        <v>17</v>
-      </c>
-      <c r="Z5">
+      <c r="AB5">
+        <v>19</v>
+      </c>
+      <c r="AC5">
+        <v>51</v>
+      </c>
+      <c r="AD5">
+        <v>11</v>
+      </c>
+      <c r="AE5">
+        <v>13</v>
+      </c>
+      <c r="AF5">
         <v>26</v>
       </c>
-      <c r="AA5">
-        <v>17</v>
-      </c>
-      <c r="AB5">
-        <v>21</v>
-      </c>
-      <c r="AC5">
-        <v>34</v>
-      </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>51</v>
-      </c>
-      <c r="AE5">
-        <v>41</v>
-      </c>
-      <c r="AF5">
-        <v>51</v>
-      </c>
-      <c r="AG5">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1367,100 +1355,100 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I6">
         <v>4.5</v>
       </c>
       <c r="J6">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="K6">
+        <v>1.73</v>
+      </c>
+      <c r="L6">
+        <v>2.1</v>
+      </c>
+      <c r="M6">
+        <v>1.8</v>
+      </c>
+      <c r="N6">
         <v>1.91</v>
       </c>
-      <c r="L6">
-        <v>1.99</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1.73</v>
-      </c>
       <c r="O6">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="P6">
         <v>1.18</v>
       </c>
       <c r="Q6">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="R6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V6">
         <v>17</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y6">
         <v>13</v>
       </c>
       <c r="Z6">
+        <v>34</v>
+      </c>
+      <c r="AA6">
+        <v>19</v>
+      </c>
+      <c r="AB6">
+        <v>19</v>
+      </c>
+      <c r="AC6">
+        <v>26</v>
+      </c>
+      <c r="AD6">
+        <v>67</v>
+      </c>
+      <c r="AE6">
         <v>41</v>
       </c>
-      <c r="AA6">
-        <v>21</v>
-      </c>
-      <c r="AB6">
-        <v>21</v>
-      </c>
-      <c r="AC6">
-        <v>29</v>
-      </c>
-      <c r="AD6">
-        <v>81</v>
-      </c>
-      <c r="AE6">
+      <c r="AF6">
+        <v>41</v>
+      </c>
+      <c r="AG6">
         <v>51</v>
-      </c>
-      <c r="AF6">
-        <v>51</v>
-      </c>
-      <c r="AG6">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1468,31 +1456,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H7">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="I7">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J7">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>2.2</v>
@@ -1501,67 +1489,67 @@
         <v>1.67</v>
       </c>
       <c r="M7">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="P7">
         <v>1.29</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="R7">
         <v>8.5</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T7">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>51</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>7.5</v>
+      </c>
+      <c r="X7">
+        <v>17</v>
+      </c>
+      <c r="Y7">
+        <v>41</v>
+      </c>
+      <c r="Z7">
+        <v>7.5</v>
+      </c>
+      <c r="AA7">
         <v>9</v>
       </c>
-      <c r="U7">
-        <v>19</v>
-      </c>
-      <c r="V7">
-        <v>10</v>
-      </c>
-      <c r="W7">
-        <v>7</v>
-      </c>
-      <c r="X7">
-        <v>9.5</v>
-      </c>
-      <c r="Y7">
-        <v>19</v>
-      </c>
-      <c r="Z7">
-        <v>19</v>
-      </c>
-      <c r="AA7">
-        <v>15</v>
-      </c>
       <c r="AB7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7">
+        <v>51</v>
+      </c>
+      <c r="AD7">
+        <v>13</v>
+      </c>
+      <c r="AE7">
+        <v>17</v>
+      </c>
+      <c r="AF7">
         <v>34</v>
       </c>
-      <c r="AD7">
-        <v>41</v>
-      </c>
-      <c r="AE7">
-        <v>34</v>
-      </c>
-      <c r="AF7">
-        <v>41</v>
-      </c>
       <c r="AG7">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1569,31 +1557,31 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H8">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K8">
         <v>1.8</v>
@@ -1608,22 +1596,22 @@
         <v>1.83</v>
       </c>
       <c r="O8">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P8">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
         <v>12</v>
       </c>
       <c r="S8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U8">
         <v>81</v>
@@ -1644,7 +1632,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB8">
         <v>19</v>
@@ -1659,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="AF8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG8">
         <v>51</v>
@@ -1670,100 +1658,100 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9">
-        <v>5.5</v>
+        <v>1.48</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J9">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="L9">
+        <v>1.86</v>
+      </c>
+      <c r="M9">
         <v>2.1</v>
       </c>
-      <c r="M9">
-        <v>1.8</v>
-      </c>
       <c r="N9">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="O9">
-        <v>2.38</v>
+        <v>1.1</v>
       </c>
       <c r="P9">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q9">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="V9">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="W9">
         <v>8.5</v>
       </c>
       <c r="X9">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y9">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>21</v>
+      </c>
+      <c r="AC9">
+        <v>51</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>15</v>
+      </c>
+      <c r="AF9">
         <v>34</v>
       </c>
-      <c r="AA9">
-        <v>19</v>
-      </c>
-      <c r="AB9">
-        <v>19</v>
-      </c>
-      <c r="AC9">
-        <v>26</v>
-      </c>
-      <c r="AD9">
-        <v>67</v>
-      </c>
-      <c r="AE9">
-        <v>41</v>
-      </c>
-      <c r="AF9">
-        <v>41</v>
-      </c>
       <c r="AG9">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1771,97 +1759,97 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="I10">
-        <v>3.7</v>
+        <v>6.25</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="L10">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O10">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="P10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="Q10">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>51</v>
+      </c>
+      <c r="U10">
+        <v>126</v>
+      </c>
+      <c r="V10">
         <v>8.5</v>
       </c>
-      <c r="S10">
-        <v>12</v>
-      </c>
-      <c r="T10">
+      <c r="W10">
+        <v>13</v>
+      </c>
+      <c r="X10">
         <v>26</v>
       </c>
-      <c r="U10">
-        <v>51</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>7.5</v>
-      </c>
-      <c r="X10">
-        <v>17</v>
-      </c>
       <c r="Y10">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Z10">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC10">
         <v>51</v>
       </c>
       <c r="AD10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG10">
         <v>81</v>
@@ -1872,100 +1860,100 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J11">
-        <v>6.25</v>
+        <v>1.85</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
+        <v>1.73</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11">
-        <v>1.83</v>
-      </c>
       <c r="N11">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O11">
-        <v>1.13</v>
+        <v>1.91</v>
       </c>
       <c r="P11">
+        <v>1.25</v>
+      </c>
+      <c r="Q11">
         <v>1.22</v>
       </c>
-      <c r="Q11">
-        <v>2.38</v>
-      </c>
       <c r="R11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S11">
+        <v>6.5</v>
+      </c>
+      <c r="T11">
+        <v>8.5</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>7.5</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
         <v>17</v>
       </c>
-      <c r="T11">
-        <v>34</v>
-      </c>
-      <c r="U11">
-        <v>67</v>
-      </c>
-      <c r="V11">
-        <v>7.5</v>
-      </c>
-      <c r="W11">
-        <v>8.5</v>
-      </c>
-      <c r="X11">
+      <c r="Z11">
         <v>21</v>
       </c>
-      <c r="Y11">
-        <v>51</v>
-      </c>
-      <c r="Z11">
-        <v>7.5</v>
-      </c>
       <c r="AA11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB11">
         <v>19</v>
       </c>
       <c r="AC11">
+        <v>34</v>
+      </c>
+      <c r="AD11">
         <v>51</v>
       </c>
-      <c r="AD11">
-        <v>11</v>
-      </c>
       <c r="AE11">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AF11">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG11">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1973,100 +1961,100 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H12">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J12">
+        <v>1.91</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1.8</v>
+      </c>
+      <c r="M12">
+        <v>1.83</v>
+      </c>
+      <c r="N12">
+        <v>1.83</v>
+      </c>
+      <c r="O12">
+        <v>1.83</v>
+      </c>
+      <c r="P12">
+        <v>1.3</v>
+      </c>
+      <c r="Q12">
+        <v>1.22</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="K12">
-        <v>2.1</v>
-      </c>
-      <c r="L12">
-        <v>1.73</v>
-      </c>
-      <c r="M12">
-        <v>2.2</v>
-      </c>
-      <c r="N12">
-        <v>1.62</v>
-      </c>
-      <c r="O12">
-        <v>1.1</v>
-      </c>
-      <c r="P12">
-        <v>1.22</v>
-      </c>
-      <c r="Q12">
-        <v>2.5</v>
-      </c>
-      <c r="R12">
-        <v>8.5</v>
-      </c>
-      <c r="S12">
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>17</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>6.5</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>17</v>
+      </c>
+      <c r="Z12">
+        <v>21</v>
+      </c>
+      <c r="AA12">
         <v>15</v>
       </c>
-      <c r="T12">
-        <v>34</v>
-      </c>
-      <c r="U12">
-        <v>81</v>
-      </c>
-      <c r="V12">
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <v>8</v>
-      </c>
-      <c r="X12">
-        <v>21</v>
-      </c>
-      <c r="Y12">
+      <c r="AB12">
+        <v>17</v>
+      </c>
+      <c r="AC12">
+        <v>29</v>
+      </c>
+      <c r="AD12">
         <v>51</v>
       </c>
-      <c r="Z12">
-        <v>6.5</v>
-      </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>23</v>
-      </c>
-      <c r="AC12">
-        <v>67</v>
-      </c>
-      <c r="AD12">
-        <v>11</v>
-      </c>
       <c r="AE12">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AF12">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2074,100 +2062,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H13">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="I13">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="J13">
+        <v>1.65</v>
+      </c>
+      <c r="K13">
+        <v>2.01</v>
+      </c>
+      <c r="L13">
+        <v>1.89</v>
+      </c>
+      <c r="M13">
+        <v>1.91</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
+        <v>2.2</v>
+      </c>
+      <c r="P13">
+        <v>1.25</v>
+      </c>
+      <c r="Q13">
+        <v>1.14</v>
+      </c>
+      <c r="R13">
+        <v>9.5</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>7.5</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>7.5</v>
+      </c>
+      <c r="X13">
         <v>9</v>
       </c>
-      <c r="K13">
-        <v>1.67</v>
-      </c>
-      <c r="L13">
-        <v>2.2</v>
-      </c>
-      <c r="M13">
-        <v>2.1</v>
-      </c>
-      <c r="N13">
-        <v>1.67</v>
-      </c>
-      <c r="O13">
-        <v>1.07</v>
-      </c>
-      <c r="P13">
-        <v>1.14</v>
-      </c>
-      <c r="Q13">
-        <v>3.4</v>
-      </c>
-      <c r="R13">
+      <c r="Y13">
         <v>15</v>
       </c>
-      <c r="S13">
-        <v>21</v>
-      </c>
-      <c r="T13">
-        <v>41</v>
-      </c>
-      <c r="U13">
-        <v>126</v>
-      </c>
-      <c r="V13">
-        <v>7.5</v>
-      </c>
-      <c r="W13">
-        <v>11</v>
-      </c>
-      <c r="X13">
-        <v>26</v>
-      </c>
-      <c r="Y13">
+      <c r="Z13">
+        <v>29</v>
+      </c>
+      <c r="AA13">
+        <v>19</v>
+      </c>
+      <c r="AB13">
+        <v>19</v>
+      </c>
+      <c r="AC13">
+        <v>29</v>
+      </c>
+      <c r="AD13">
         <v>67</v>
       </c>
-      <c r="Z13">
-        <v>6.5</v>
-      </c>
-      <c r="AA13">
-        <v>9.5</v>
-      </c>
-      <c r="AB13">
-        <v>26</v>
-      </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>51</v>
       </c>
-      <c r="AD13">
-        <v>8.5</v>
-      </c>
-      <c r="AE13">
-        <v>12</v>
-      </c>
       <c r="AF13">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG13">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2175,100 +2163,100 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H14">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="I14">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M14">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O14">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="R14">
+        <v>8.5</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>41</v>
+      </c>
+      <c r="V14">
+        <v>7.5</v>
+      </c>
+      <c r="W14">
+        <v>6.5</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>34</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
         <v>9.5</v>
       </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>8.5</v>
-      </c>
-      <c r="U14">
+      <c r="AB14">
         <v>15</v>
       </c>
-      <c r="V14">
-        <v>11</v>
-      </c>
-      <c r="W14">
-        <v>7.5</v>
-      </c>
-      <c r="X14">
-        <v>9</v>
-      </c>
-      <c r="Y14">
-        <v>17</v>
-      </c>
-      <c r="Z14">
+      <c r="AC14">
+        <v>41</v>
+      </c>
+      <c r="AD14">
         <v>21</v>
       </c>
-      <c r="AA14">
-        <v>15</v>
-      </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>19</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>34</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>51</v>
-      </c>
-      <c r="AE14">
-        <v>41</v>
-      </c>
-      <c r="AF14">
-        <v>41</v>
-      </c>
-      <c r="AG14">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2276,100 +2264,100 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="I15">
+        <v>5.25</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1.73</v>
+      </c>
+      <c r="L15">
+        <v>2.08</v>
+      </c>
+      <c r="M15">
+        <v>2.2</v>
+      </c>
+      <c r="N15">
+        <v>1.62</v>
+      </c>
+      <c r="O15">
+        <v>1.06</v>
+      </c>
+      <c r="P15">
+        <v>1.17</v>
+      </c>
+      <c r="Q15">
         <v>3.4</v>
       </c>
-      <c r="J15">
-        <v>1.95</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1.8</v>
-      </c>
-      <c r="M15">
-        <v>1.83</v>
-      </c>
-      <c r="N15">
-        <v>1.83</v>
-      </c>
-      <c r="O15">
-        <v>1.8</v>
-      </c>
-      <c r="P15">
-        <v>1.3</v>
-      </c>
-      <c r="Q15">
-        <v>1.22</v>
-      </c>
       <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+      <c r="T15">
+        <v>41</v>
+      </c>
+      <c r="U15">
+        <v>126</v>
+      </c>
+      <c r="V15">
+        <v>6.5</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>26</v>
+      </c>
+      <c r="Y15">
+        <v>67</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
         <v>9.5</v>
       </c>
-      <c r="S15">
+      <c r="AB15">
+        <v>23</v>
+      </c>
+      <c r="AC15">
+        <v>67</v>
+      </c>
+      <c r="AD15">
         <v>7.5</v>
       </c>
-      <c r="T15">
-        <v>9.5</v>
-      </c>
-      <c r="U15">
-        <v>17</v>
-      </c>
-      <c r="V15">
+      <c r="AE15">
         <v>12</v>
       </c>
-      <c r="W15">
-        <v>6.5</v>
-      </c>
-      <c r="X15">
-        <v>9</v>
-      </c>
-      <c r="Y15">
-        <v>17</v>
-      </c>
-      <c r="Z15">
-        <v>21</v>
-      </c>
-      <c r="AA15">
-        <v>15</v>
-      </c>
-      <c r="AB15">
-        <v>17</v>
-      </c>
-      <c r="AC15">
-        <v>29</v>
-      </c>
-      <c r="AD15">
-        <v>41</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>34</v>
       </c>
-      <c r="AF15">
-        <v>41</v>
-      </c>
       <c r="AG15">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2377,37 +2365,37 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H16">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="I16">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="K16">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16">
         <v>1.91</v>
@@ -2416,61 +2404,61 @@
         <v>1.8</v>
       </c>
       <c r="O16">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q16">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="R16">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="S16">
         <v>7</v>
       </c>
       <c r="T16">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>6.5</v>
+      </c>
+      <c r="X16">
+        <v>9.5</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>19</v>
+      </c>
+      <c r="AA16">
         <v>15</v>
       </c>
-      <c r="W16">
-        <v>7.5</v>
-      </c>
-      <c r="X16">
-        <v>9</v>
-      </c>
-      <c r="Y16">
-        <v>15</v>
-      </c>
-      <c r="Z16">
-        <v>29</v>
-      </c>
-      <c r="AA16">
-        <v>19</v>
-      </c>
       <c r="AB16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD16">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AE16">
+        <v>34</v>
+      </c>
+      <c r="AF16">
+        <v>41</v>
+      </c>
+      <c r="AG16">
         <v>51</v>
-      </c>
-      <c r="AF16">
-        <v>51</v>
-      </c>
-      <c r="AG16">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2478,97 +2466,97 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
         <v>117</v>
       </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H17">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="I17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J17">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L17">
+        <v>1.92</v>
+      </c>
+      <c r="M17">
         <v>1.73</v>
       </c>
-      <c r="M17">
-        <v>1.83</v>
-      </c>
       <c r="N17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O17">
+        <v>1.73</v>
+      </c>
+      <c r="P17">
         <v>1.3</v>
       </c>
-      <c r="P17">
-        <v>1.33</v>
-      </c>
       <c r="Q17">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="T17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U17">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="V17">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="W17">
         <v>6.5</v>
       </c>
       <c r="X17">
+        <v>9.5</v>
+      </c>
+      <c r="Y17">
+        <v>17</v>
+      </c>
+      <c r="Z17">
+        <v>21</v>
+      </c>
+      <c r="AA17">
         <v>13</v>
-      </c>
-      <c r="Y17">
-        <v>29</v>
-      </c>
-      <c r="Z17">
-        <v>11</v>
-      </c>
-      <c r="AA17">
-        <v>10</v>
       </c>
       <c r="AB17">
         <v>15</v>
       </c>
       <c r="AC17">
+        <v>26</v>
+      </c>
+      <c r="AD17">
         <v>41</v>
       </c>
-      <c r="AD17">
-        <v>21</v>
-      </c>
       <c r="AE17">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF17">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17">
         <v>51</v>
@@ -2579,100 +2567,100 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H18">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="I18">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="K18">
+        <v>1.91</v>
+      </c>
+      <c r="L18">
+        <v>1.99</v>
+      </c>
+      <c r="M18">
         <v>1.73</v>
       </c>
-      <c r="L18">
-        <v>2.08</v>
-      </c>
-      <c r="M18">
-        <v>2.2</v>
-      </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>1.06</v>
+        <v>1.91</v>
       </c>
       <c r="P18">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="Q18">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="T18">
+        <v>9.5</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>7</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>15</v>
+      </c>
+      <c r="Z18">
+        <v>23</v>
+      </c>
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+      <c r="AC18">
+        <v>26</v>
+      </c>
+      <c r="AD18">
         <v>41</v>
       </c>
-      <c r="U18">
-        <v>126</v>
-      </c>
-      <c r="V18">
-        <v>6.5</v>
-      </c>
-      <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="X18">
-        <v>26</v>
-      </c>
-      <c r="Y18">
-        <v>67</v>
-      </c>
-      <c r="Z18">
-        <v>6</v>
-      </c>
-      <c r="AA18">
-        <v>9</v>
-      </c>
-      <c r="AB18">
-        <v>23</v>
-      </c>
-      <c r="AC18">
-        <v>67</v>
-      </c>
-      <c r="AD18">
-        <v>8</v>
-      </c>
       <c r="AE18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AF18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG18">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2680,70 +2668,70 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H19">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I19">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J19">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
+        <v>1.53</v>
+      </c>
+      <c r="M19">
+        <v>2.1</v>
+      </c>
+      <c r="N19">
         <v>1.67</v>
       </c>
-      <c r="M19">
-        <v>1.91</v>
-      </c>
-      <c r="N19">
+      <c r="O19">
         <v>1.8</v>
       </c>
-      <c r="O19">
-        <v>1.73</v>
-      </c>
       <c r="P19">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R19">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
         <v>9.5</v>
       </c>
-      <c r="U19">
-        <v>19</v>
-      </c>
-      <c r="V19">
-        <v>10</v>
-      </c>
       <c r="W19">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>9.5</v>
@@ -2752,28 +2740,28 @@
         <v>19</v>
       </c>
       <c r="Z19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA19">
         <v>15</v>
       </c>
       <c r="AB19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC19">
         <v>34</v>
       </c>
       <c r="AD19">
+        <v>51</v>
+      </c>
+      <c r="AE19">
         <v>41</v>
       </c>
-      <c r="AE19">
-        <v>34</v>
-      </c>
       <c r="AF19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2781,94 +2769,94 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H20">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K20">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="M20">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O20">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q20">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="R20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
         <v>8.5</v>
       </c>
-      <c r="T20">
-        <v>11</v>
-      </c>
       <c r="U20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V20">
         <v>12</v>
       </c>
       <c r="W20">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X20">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y20">
         <v>17</v>
       </c>
       <c r="Z20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD20">
+        <v>51</v>
+      </c>
+      <c r="AE20">
         <v>41</v>
-      </c>
-      <c r="AE20">
-        <v>29</v>
       </c>
       <c r="AF20">
         <v>41</v>
@@ -2882,85 +2870,85 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H21">
+        <v>5.25</v>
+      </c>
+      <c r="I21">
         <v>4.33</v>
       </c>
-      <c r="I21">
-        <v>3.5</v>
-      </c>
       <c r="J21">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="K21">
+        <v>1.73</v>
+      </c>
+      <c r="L21">
+        <v>2.1</v>
+      </c>
+      <c r="M21">
+        <v>1.8</v>
+      </c>
+      <c r="N21">
         <v>1.91</v>
       </c>
-      <c r="L21">
-        <v>1.99</v>
-      </c>
-      <c r="M21">
-        <v>1.73</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
       <c r="O21">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="P21">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Q21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S21">
         <v>8</v>
       </c>
       <c r="T21">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="V21">
         <v>17</v>
       </c>
-      <c r="V21">
+      <c r="W21">
+        <v>8.5</v>
+      </c>
+      <c r="X21">
+        <v>8.5</v>
+      </c>
+      <c r="Y21">
         <v>13</v>
       </c>
-      <c r="W21">
-        <v>7</v>
-      </c>
-      <c r="X21">
-        <v>9</v>
-      </c>
-      <c r="Y21">
-        <v>15</v>
-      </c>
       <c r="Z21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC21">
         <v>26</v>
@@ -2969,7 +2957,7 @@
         <v>51</v>
       </c>
       <c r="AE21">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF21">
         <v>41</v>
@@ -2983,97 +2971,97 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
         <v>116</v>
       </c>
-      <c r="E22" t="s">
-        <v>134</v>
-      </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H22">
+        <v>1.45</v>
+      </c>
+      <c r="I22">
         <v>4.33</v>
       </c>
-      <c r="I22">
-        <v>3.1</v>
-      </c>
       <c r="J22">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L22">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N22">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P22">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="Q22">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="R22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>41</v>
+      </c>
+      <c r="U22">
+        <v>81</v>
+      </c>
+      <c r="V22">
+        <v>7.5</v>
+      </c>
+      <c r="W22">
+        <v>8.5</v>
+      </c>
+      <c r="X22">
+        <v>21</v>
+      </c>
+      <c r="Y22">
+        <v>51</v>
+      </c>
+      <c r="Z22">
         <v>7</v>
       </c>
-      <c r="S22">
-        <v>5.5</v>
-      </c>
-      <c r="T22">
-        <v>8</v>
-      </c>
-      <c r="U22">
-        <v>17</v>
-      </c>
-      <c r="V22">
-        <v>9.5</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <v>9.5</v>
-      </c>
-      <c r="Y22">
-        <v>19</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22">
+        <v>9</v>
+      </c>
+      <c r="AB22">
         <v>21</v>
       </c>
-      <c r="AA22">
-        <v>15</v>
-      </c>
-      <c r="AB22">
-        <v>19</v>
-      </c>
       <c r="AC22">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AD22">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="AE22">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AF22">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG22">
         <v>67</v>
@@ -3084,100 +3072,100 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H23">
+        <v>1.8</v>
+      </c>
+      <c r="I23">
+        <v>3.4</v>
+      </c>
+      <c r="J23">
         <v>4.5</v>
       </c>
-      <c r="I23">
-        <v>3.5</v>
-      </c>
-      <c r="J23">
-        <v>1.8</v>
-      </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="L23">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="M23">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O23">
+        <v>1.18</v>
+      </c>
+      <c r="P23">
+        <v>1.3</v>
+      </c>
+      <c r="Q23">
         <v>1.95</v>
       </c>
-      <c r="P23">
-        <v>1.29</v>
-      </c>
-      <c r="Q23">
-        <v>1.18</v>
-      </c>
       <c r="R23">
+        <v>7.5</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23">
+        <v>51</v>
+      </c>
+      <c r="V23">
+        <v>5.5</v>
+      </c>
+      <c r="W23">
+        <v>6.5</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+      <c r="Y23">
+        <v>41</v>
+      </c>
+      <c r="Z23">
+        <v>7.5</v>
+      </c>
+      <c r="AA23">
         <v>9</v>
       </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <v>8.5</v>
-      </c>
-      <c r="U23">
-        <v>15</v>
-      </c>
-      <c r="V23">
-        <v>12</v>
-      </c>
-      <c r="W23">
-        <v>7</v>
-      </c>
-      <c r="X23">
-        <v>9</v>
-      </c>
-      <c r="Y23">
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23">
+        <v>51</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
         <v>17</v>
       </c>
-      <c r="Z23">
-        <v>23</v>
-      </c>
-      <c r="AA23">
-        <v>17</v>
-      </c>
-      <c r="AB23">
-        <v>17</v>
-      </c>
-      <c r="AC23">
-        <v>29</v>
-      </c>
-      <c r="AD23">
-        <v>51</v>
-      </c>
-      <c r="AE23">
-        <v>41</v>
-      </c>
       <c r="AF23">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG23">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -3185,100 +3173,100 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H24">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="I24">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J24">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="K24">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="M24">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="N24">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O24">
+        <v>1.14</v>
+      </c>
+      <c r="P24">
+        <v>1.25</v>
+      </c>
+      <c r="Q24">
         <v>2.3</v>
       </c>
-      <c r="P24">
-        <v>1.22</v>
-      </c>
-      <c r="Q24">
-        <v>1.17</v>
-      </c>
       <c r="R24">
+        <v>8.5</v>
+      </c>
+      <c r="S24">
         <v>12</v>
       </c>
-      <c r="S24">
+      <c r="T24">
+        <v>29</v>
+      </c>
+      <c r="U24">
+        <v>67</v>
+      </c>
+      <c r="V24">
+        <v>5.5</v>
+      </c>
+      <c r="W24">
         <v>7.5</v>
       </c>
-      <c r="T24">
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <v>12</v>
-      </c>
-      <c r="V24">
+      <c r="X24">
+        <v>19</v>
+      </c>
+      <c r="Y24">
+        <v>51</v>
+      </c>
+      <c r="Z24">
+        <v>6.5</v>
+      </c>
+      <c r="AA24">
+        <v>9</v>
+      </c>
+      <c r="AB24">
+        <v>21</v>
+      </c>
+      <c r="AC24">
+        <v>51</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
         <v>15</v>
       </c>
-      <c r="W24">
-        <v>8</v>
-      </c>
-      <c r="X24">
-        <v>8.5</v>
-      </c>
-      <c r="Y24">
-        <v>13</v>
-      </c>
-      <c r="Z24">
-        <v>29</v>
-      </c>
-      <c r="AA24">
-        <v>17</v>
-      </c>
-      <c r="AB24">
-        <v>17</v>
-      </c>
-      <c r="AC24">
-        <v>26</v>
-      </c>
-      <c r="AD24">
-        <v>51</v>
-      </c>
-      <c r="AE24">
-        <v>41</v>
-      </c>
       <c r="AF24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG24">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3286,100 +3274,100 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25">
-        <v>1.48</v>
+        <v>2.88</v>
       </c>
       <c r="I25">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>2.35</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="L25">
+        <v>1.95</v>
+      </c>
+      <c r="M25">
+        <v>1.73</v>
+      </c>
+      <c r="N25">
         <v>2</v>
       </c>
-      <c r="M25">
-        <v>1.91</v>
-      </c>
-      <c r="N25">
-        <v>1.8</v>
-      </c>
       <c r="O25">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="P25">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="Q25">
-        <v>2.63</v>
+        <v>1.4</v>
       </c>
       <c r="R25">
         <v>11</v>
       </c>
       <c r="S25">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="T25">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U25">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="V25">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
         <v>21</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
+        <v>15</v>
+      </c>
+      <c r="AA25">
+        <v>11</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+      <c r="AC25">
+        <v>29</v>
+      </c>
+      <c r="AD25">
+        <v>34</v>
+      </c>
+      <c r="AE25">
+        <v>23</v>
+      </c>
+      <c r="AF25">
+        <v>34</v>
+      </c>
+      <c r="AG25">
         <v>51</v>
-      </c>
-      <c r="Z25">
-        <v>7</v>
-      </c>
-      <c r="AA25">
-        <v>9</v>
-      </c>
-      <c r="AB25">
-        <v>19</v>
-      </c>
-      <c r="AC25">
-        <v>51</v>
-      </c>
-      <c r="AD25">
-        <v>11</v>
-      </c>
-      <c r="AE25">
-        <v>13</v>
-      </c>
-      <c r="AF25">
-        <v>29</v>
-      </c>
-      <c r="AG25">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3387,100 +3375,100 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H26">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="I26">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J26">
-        <v>4.5</v>
+        <v>1.67</v>
       </c>
       <c r="K26">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N26">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O26">
+        <v>2.15</v>
+      </c>
+      <c r="P26">
+        <v>1.22</v>
+      </c>
+      <c r="Q26">
         <v>1.18</v>
       </c>
-      <c r="P26">
-        <v>1.3</v>
-      </c>
-      <c r="Q26">
-        <v>1.95</v>
-      </c>
       <c r="R26">
+        <v>12</v>
+      </c>
+      <c r="S26">
         <v>7.5</v>
       </c>
-      <c r="S26">
-        <v>10</v>
-      </c>
       <c r="T26">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="U26">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>13</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>15</v>
+      </c>
+      <c r="Z26">
+        <v>26</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26">
+        <v>19</v>
+      </c>
+      <c r="AC26">
+        <v>29</v>
+      </c>
+      <c r="AD26">
         <v>51</v>
       </c>
-      <c r="V26">
-        <v>5.5</v>
-      </c>
-      <c r="W26">
-        <v>6.5</v>
-      </c>
-      <c r="X26">
-        <v>15</v>
-      </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>41</v>
       </c>
-      <c r="Z26">
-        <v>7.5</v>
-      </c>
-      <c r="AA26">
-        <v>9</v>
-      </c>
-      <c r="AB26">
-        <v>21</v>
-      </c>
-      <c r="AC26">
+      <c r="AF26">
+        <v>41</v>
+      </c>
+      <c r="AG26">
         <v>51</v>
-      </c>
-      <c r="AD26">
-        <v>13</v>
-      </c>
-      <c r="AE26">
-        <v>17</v>
-      </c>
-      <c r="AF26">
-        <v>34</v>
-      </c>
-      <c r="AG26">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3488,100 +3476,100 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
         <v>153</v>
       </c>
-      <c r="G27" t="s">
-        <v>157</v>
-      </c>
       <c r="H27">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I27">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="J27">
-        <v>5.75</v>
+        <v>19</v>
       </c>
       <c r="K27">
+        <v>1.67</v>
+      </c>
+      <c r="L27">
         <v>2.15</v>
       </c>
-      <c r="L27">
-        <v>1.67</v>
-      </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
+        <v>1.02</v>
+      </c>
+      <c r="P27">
         <v>1.14</v>
       </c>
-      <c r="P27">
-        <v>1.25</v>
-      </c>
       <c r="Q27">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="R27">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="S27">
+        <v>29</v>
+      </c>
+      <c r="T27">
+        <v>67</v>
+      </c>
+      <c r="U27">
+        <v>251</v>
+      </c>
+      <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
+        <v>11</v>
+      </c>
+      <c r="X27">
+        <v>41</v>
+      </c>
+      <c r="Y27">
+        <v>126</v>
+      </c>
+      <c r="Z27">
+        <v>5.5</v>
+      </c>
+      <c r="AA27">
+        <v>11</v>
+      </c>
+      <c r="AB27">
+        <v>29</v>
+      </c>
+      <c r="AC27">
+        <v>101</v>
+      </c>
+      <c r="AD27">
+        <v>6.5</v>
+      </c>
+      <c r="AE27">
         <v>12</v>
       </c>
-      <c r="T27">
-        <v>29</v>
-      </c>
-      <c r="U27">
-        <v>67</v>
-      </c>
-      <c r="V27">
-        <v>5.5</v>
-      </c>
-      <c r="W27">
-        <v>7.5</v>
-      </c>
-      <c r="X27">
-        <v>19</v>
-      </c>
-      <c r="Y27">
-        <v>51</v>
-      </c>
-      <c r="Z27">
-        <v>6.5</v>
-      </c>
-      <c r="AA27">
-        <v>9</v>
-      </c>
-      <c r="AB27">
-        <v>21</v>
-      </c>
-      <c r="AC27">
-        <v>51</v>
-      </c>
-      <c r="AD27">
-        <v>11</v>
-      </c>
-      <c r="AE27">
-        <v>15</v>
-      </c>
       <c r="AF27">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG27">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3589,100 +3577,100 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H28">
-        <v>2.75</v>
+        <v>1.33</v>
       </c>
       <c r="I28">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="J28">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O28">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="P28">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="Q28">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>21</v>
+      </c>
+      <c r="T28">
+        <v>41</v>
+      </c>
+      <c r="U28">
+        <v>126</v>
+      </c>
+      <c r="V28">
+        <v>6.5</v>
+      </c>
+      <c r="W28">
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>67</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
         <v>9.5</v>
       </c>
-      <c r="S28">
+      <c r="AB28">
+        <v>23</v>
+      </c>
+      <c r="AC28">
+        <v>67</v>
+      </c>
+      <c r="AD28">
         <v>8</v>
       </c>
-      <c r="T28">
+      <c r="AE28">
         <v>12</v>
-      </c>
-      <c r="U28">
-        <v>26</v>
-      </c>
-      <c r="V28">
-        <v>9</v>
-      </c>
-      <c r="W28">
-        <v>7</v>
-      </c>
-      <c r="X28">
-        <v>10</v>
-      </c>
-      <c r="Y28">
-        <v>21</v>
-      </c>
-      <c r="Z28">
-        <v>15</v>
-      </c>
-      <c r="AA28">
-        <v>11</v>
-      </c>
-      <c r="AB28">
-        <v>17</v>
-      </c>
-      <c r="AC28">
-        <v>34</v>
-      </c>
-      <c r="AD28">
-        <v>29</v>
-      </c>
-      <c r="AE28">
-        <v>23</v>
       </c>
       <c r="AF28">
         <v>34</v>
       </c>
       <c r="AG28">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3690,100 +3678,100 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H29">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="J29">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="K29">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="L29">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="M29">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="O29">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Q29">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="R29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
         <v>7.5</v>
       </c>
-      <c r="T29">
-        <v>8.5</v>
-      </c>
-      <c r="U29">
-        <v>15</v>
-      </c>
       <c r="V29">
+        <v>26</v>
+      </c>
+      <c r="W29">
+        <v>11</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
         <v>13</v>
       </c>
-      <c r="W29">
-        <v>8</v>
-      </c>
-      <c r="X29">
-        <v>9</v>
-      </c>
-      <c r="Y29">
-        <v>15</v>
-      </c>
       <c r="Z29">
+        <v>51</v>
+      </c>
+      <c r="AA29">
+        <v>34</v>
+      </c>
+      <c r="AB29">
         <v>26</v>
       </c>
-      <c r="AA29">
-        <v>15</v>
-      </c>
-      <c r="AB29">
-        <v>17</v>
-      </c>
       <c r="AC29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD29">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AE29">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AF29">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG29">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3791,100 +3779,100 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H30">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="I30">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
+        <v>2.25</v>
+      </c>
+      <c r="K30">
+        <v>2.1</v>
+      </c>
+      <c r="L30">
+        <v>1.73</v>
+      </c>
+      <c r="M30">
+        <v>1.8</v>
+      </c>
+      <c r="N30">
+        <v>1.91</v>
+      </c>
+      <c r="O30">
+        <v>1.62</v>
+      </c>
+      <c r="P30">
+        <v>1.33</v>
+      </c>
+      <c r="Q30">
+        <v>1.33</v>
+      </c>
+      <c r="R30">
+        <v>9.5</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>11</v>
+      </c>
+      <c r="U30">
+        <v>21</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>6.5</v>
+      </c>
+      <c r="X30">
+        <v>9.5</v>
+      </c>
+      <c r="Y30">
+        <v>19</v>
+      </c>
+      <c r="Z30">
         <v>17</v>
       </c>
-      <c r="K30">
-        <v>1.67</v>
-      </c>
-      <c r="L30">
-        <v>2.15</v>
-      </c>
-      <c r="M30">
-        <v>2.5</v>
-      </c>
-      <c r="N30">
-        <v>1.5</v>
-      </c>
-      <c r="O30">
-        <v>1.03</v>
-      </c>
-      <c r="P30">
-        <v>1.14</v>
-      </c>
-      <c r="Q30">
-        <v>4.33</v>
-      </c>
-      <c r="R30">
-        <v>11</v>
-      </c>
-      <c r="S30">
+      <c r="AA30">
+        <v>13</v>
+      </c>
+      <c r="AB30">
+        <v>15</v>
+      </c>
+      <c r="AC30">
         <v>29</v>
       </c>
-      <c r="T30">
-        <v>67</v>
-      </c>
-      <c r="U30">
-        <v>251</v>
-      </c>
-      <c r="V30">
-        <v>7</v>
-      </c>
-      <c r="W30">
-        <v>11</v>
-      </c>
-      <c r="X30">
+      <c r="AD30">
         <v>41</v>
       </c>
-      <c r="Y30">
-        <v>126</v>
-      </c>
-      <c r="Z30">
-        <v>5.5</v>
-      </c>
-      <c r="AA30">
-        <v>11</v>
-      </c>
-      <c r="AB30">
+      <c r="AE30">
         <v>29</v>
-      </c>
-      <c r="AC30">
-        <v>101</v>
-      </c>
-      <c r="AD30">
-        <v>6.5</v>
-      </c>
-      <c r="AE30">
-        <v>12</v>
       </c>
       <c r="AF30">
         <v>41</v>
       </c>
       <c r="AG30">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3892,100 +3880,100 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H31">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="I31">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="K31">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N31">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O31">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="P31">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="Q31">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R31">
+        <v>7.5</v>
+      </c>
+      <c r="S31">
         <v>11</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>51</v>
+      </c>
+      <c r="V31">
+        <v>5.5</v>
+      </c>
+      <c r="W31">
+        <v>6.5</v>
+      </c>
+      <c r="X31">
+        <v>17</v>
+      </c>
+      <c r="Y31">
+        <v>41</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AA31">
+        <v>9</v>
+      </c>
+      <c r="AB31">
         <v>21</v>
       </c>
-      <c r="T31">
-        <v>41</v>
-      </c>
-      <c r="U31">
-        <v>126</v>
-      </c>
-      <c r="V31">
-        <v>6.5</v>
-      </c>
-      <c r="W31">
-        <v>9</v>
-      </c>
-      <c r="X31">
-        <v>26</v>
-      </c>
-      <c r="Y31">
-        <v>67</v>
-      </c>
-      <c r="Z31">
-        <v>6</v>
-      </c>
-      <c r="AA31">
-        <v>9.5</v>
-      </c>
-      <c r="AB31">
-        <v>23</v>
-      </c>
       <c r="AC31">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF31">
         <v>34</v>
       </c>
       <c r="AG31">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -3993,100 +3981,100 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H32">
+        <v>1.14</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>1.5</v>
+      </c>
+      <c r="L32">
+        <v>2.5</v>
+      </c>
+      <c r="M32">
+        <v>2.38</v>
+      </c>
+      <c r="N32">
+        <v>1.53</v>
+      </c>
+      <c r="O32">
+        <v>1.03</v>
+      </c>
+      <c r="P32">
+        <v>1.1</v>
+      </c>
+      <c r="Q32">
+        <v>5.5</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>34</v>
+      </c>
+      <c r="T32">
+        <v>67</v>
+      </c>
+      <c r="U32">
+        <v>251</v>
+      </c>
+      <c r="V32">
+        <v>8.5</v>
+      </c>
+      <c r="W32">
+        <v>13</v>
+      </c>
+      <c r="X32">
+        <v>41</v>
+      </c>
+      <c r="Y32">
+        <v>126</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>11</v>
+      </c>
+      <c r="AB32">
+        <v>34</v>
+      </c>
+      <c r="AC32">
+        <v>81</v>
+      </c>
+      <c r="AD32">
+        <v>6.5</v>
+      </c>
+      <c r="AE32">
         <v>12</v>
       </c>
-      <c r="I32">
-        <v>5.25</v>
-      </c>
-      <c r="J32">
-        <v>1.29</v>
-      </c>
-      <c r="K32">
-        <v>1.73</v>
-      </c>
-      <c r="L32">
-        <v>2.1</v>
-      </c>
-      <c r="M32">
-        <v>2.2</v>
-      </c>
-      <c r="N32">
-        <v>1.62</v>
-      </c>
-      <c r="O32">
-        <v>3.4</v>
-      </c>
-      <c r="P32">
-        <v>1.17</v>
-      </c>
-      <c r="Q32">
-        <v>1.05</v>
-      </c>
-      <c r="R32">
-        <v>12</v>
-      </c>
-      <c r="S32">
-        <v>7</v>
-      </c>
-      <c r="T32">
-        <v>6.5</v>
-      </c>
-      <c r="U32">
-        <v>8</v>
-      </c>
-      <c r="V32">
-        <v>23</v>
-      </c>
-      <c r="W32">
-        <v>10</v>
-      </c>
-      <c r="X32">
-        <v>10</v>
-      </c>
-      <c r="Y32">
-        <v>12</v>
-      </c>
-      <c r="Z32">
-        <v>51</v>
-      </c>
-      <c r="AA32">
+      <c r="AF32">
         <v>34</v>
       </c>
-      <c r="AB32">
-        <v>26</v>
-      </c>
-      <c r="AC32">
-        <v>34</v>
-      </c>
-      <c r="AD32">
-        <v>151</v>
-      </c>
-      <c r="AE32">
-        <v>81</v>
-      </c>
-      <c r="AF32">
-        <v>81</v>
-      </c>
       <c r="AG32">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4094,100 +4082,100 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H33">
-        <v>3.3</v>
+        <v>1.33</v>
       </c>
       <c r="I33">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>1.67</v>
+      </c>
+      <c r="L33">
         <v>2.2</v>
       </c>
-      <c r="K33">
-        <v>2.03</v>
-      </c>
-      <c r="L33">
-        <v>1.83</v>
-      </c>
       <c r="M33">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="O33">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="P33">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="Q33">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="R33">
+        <v>13</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+      <c r="T33">
+        <v>41</v>
+      </c>
+      <c r="U33">
+        <v>101</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="W33">
         <v>10</v>
       </c>
-      <c r="S33">
-        <v>8</v>
-      </c>
-      <c r="T33">
-        <v>11</v>
-      </c>
-      <c r="U33">
-        <v>21</v>
-      </c>
-      <c r="V33">
-        <v>10</v>
-      </c>
-      <c r="W33">
-        <v>6.5</v>
-      </c>
       <c r="X33">
+        <v>23</v>
+      </c>
+      <c r="Y33">
+        <v>67</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
         <v>9.5</v>
       </c>
-      <c r="Y33">
-        <v>19</v>
-      </c>
-      <c r="Z33">
-        <v>17</v>
-      </c>
-      <c r="AA33">
+      <c r="AB33">
+        <v>23</v>
+      </c>
+      <c r="AC33">
+        <v>51</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
         <v>12</v>
       </c>
-      <c r="AB33">
-        <v>15</v>
-      </c>
-      <c r="AC33">
+      <c r="AF33">
         <v>29</v>
       </c>
-      <c r="AD33">
-        <v>41</v>
-      </c>
-      <c r="AE33">
-        <v>29</v>
-      </c>
-      <c r="AF33">
-        <v>34</v>
-      </c>
       <c r="AG33">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4195,100 +4183,100 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H34">
+        <v>2.05</v>
+      </c>
+      <c r="I34">
+        <v>3.6</v>
+      </c>
+      <c r="J34">
+        <v>3.4</v>
+      </c>
+      <c r="K34">
+        <v>1.8</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1.62</v>
+      </c>
+      <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
+        <v>1.3</v>
+      </c>
+      <c r="P34">
+        <v>1.29</v>
+      </c>
+      <c r="Q34">
         <v>1.73</v>
       </c>
-      <c r="I34">
-        <v>3.4</v>
-      </c>
-      <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <v>2.3</v>
-      </c>
-      <c r="L34">
-        <v>1.6</v>
-      </c>
-      <c r="M34">
-        <v>2.1</v>
-      </c>
-      <c r="N34">
-        <v>1.67</v>
-      </c>
-      <c r="O34">
-        <v>1.17</v>
-      </c>
-      <c r="P34">
-        <v>1.3</v>
-      </c>
-      <c r="Q34">
-        <v>2.05</v>
-      </c>
       <c r="R34">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="S34">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <v>21</v>
+      </c>
+      <c r="U34">
+        <v>41</v>
+      </c>
+      <c r="V34">
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <v>7</v>
+      </c>
+      <c r="X34">
+        <v>13</v>
+      </c>
+      <c r="Y34">
+        <v>29</v>
+      </c>
+      <c r="Z34">
         <v>11</v>
-      </c>
-      <c r="T34">
-        <v>23</v>
-      </c>
-      <c r="U34">
-        <v>51</v>
-      </c>
-      <c r="V34">
-        <v>5.5</v>
-      </c>
-      <c r="W34">
-        <v>6.5</v>
-      </c>
-      <c r="X34">
-        <v>17</v>
-      </c>
-      <c r="Y34">
-        <v>41</v>
-      </c>
-      <c r="Z34">
-        <v>7</v>
       </c>
       <c r="AA34">
         <v>9</v>
       </c>
       <c r="AB34">
+        <v>13</v>
+      </c>
+      <c r="AC34">
+        <v>34</v>
+      </c>
+      <c r="AD34">
         <v>19</v>
-      </c>
-      <c r="AC34">
-        <v>51</v>
-      </c>
-      <c r="AD34">
-        <v>13</v>
       </c>
       <c r="AE34">
         <v>17</v>
       </c>
       <c r="AF34">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AG34">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4296,100 +4284,100 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>155</v>
       </c>
-      <c r="G35" t="s">
-        <v>157</v>
-      </c>
       <c r="H35">
-        <v>1.17</v>
+        <v>2.45</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="J35">
+        <v>2.9</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1.85</v>
+      </c>
+      <c r="M35">
+        <v>1.73</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1.4</v>
+      </c>
+      <c r="P35">
+        <v>1.33</v>
+      </c>
+      <c r="Q35">
+        <v>1.53</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
         <v>15</v>
       </c>
-      <c r="K35">
-        <v>1.48</v>
-      </c>
-      <c r="L35">
-        <v>2.6</v>
-      </c>
-      <c r="M35">
-        <v>2.25</v>
-      </c>
-      <c r="N35">
-        <v>1.57</v>
-      </c>
-      <c r="O35">
-        <v>1.03</v>
-      </c>
-      <c r="P35">
-        <v>1.1</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-      <c r="R35">
+      <c r="U35">
+        <v>34</v>
+      </c>
+      <c r="V35">
+        <v>9</v>
+      </c>
+      <c r="W35">
+        <v>6.5</v>
+      </c>
+      <c r="X35">
+        <v>11</v>
+      </c>
+      <c r="Y35">
+        <v>23</v>
+      </c>
+      <c r="Z35">
+        <v>13</v>
+      </c>
+      <c r="AA35">
+        <v>10</v>
+      </c>
+      <c r="AB35">
         <v>15</v>
       </c>
-      <c r="S35">
+      <c r="AC35">
+        <v>34</v>
+      </c>
+      <c r="AD35">
+        <v>26</v>
+      </c>
+      <c r="AE35">
+        <v>21</v>
+      </c>
+      <c r="AF35">
         <v>29</v>
       </c>
-      <c r="T35">
-        <v>67</v>
-      </c>
-      <c r="U35">
-        <v>251</v>
-      </c>
-      <c r="V35">
-        <v>8</v>
-      </c>
-      <c r="W35">
-        <v>13</v>
-      </c>
-      <c r="X35">
-        <v>41</v>
-      </c>
-      <c r="Y35">
-        <v>101</v>
-      </c>
-      <c r="Z35">
-        <v>6</v>
-      </c>
-      <c r="AA35">
-        <v>11</v>
-      </c>
-      <c r="AB35">
-        <v>29</v>
-      </c>
-      <c r="AC35">
-        <v>81</v>
-      </c>
-      <c r="AD35">
-        <v>6.5</v>
-      </c>
-      <c r="AE35">
-        <v>11</v>
-      </c>
-      <c r="AF35">
-        <v>34</v>
-      </c>
       <c r="AG35">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4397,100 +4385,100 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="I36">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K36">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="L36">
+        <v>2.1</v>
+      </c>
+      <c r="M36">
         <v>2.2</v>
       </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
       <c r="N36">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O36">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P36">
         <v>1.17</v>
       </c>
       <c r="Q36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S36">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T36">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="U36">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="V36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W36">
         <v>10</v>
       </c>
       <c r="X36">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y36">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA36">
         <v>9.5</v>
       </c>
       <c r="AB36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC36">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG36">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4498,100 +4486,100 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H37">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="I37">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J37">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="K37">
+        <v>2.2</v>
+      </c>
+      <c r="L37">
+        <v>1.67</v>
+      </c>
+      <c r="M37">
+        <v>1.95</v>
+      </c>
+      <c r="N37">
         <v>1.8</v>
       </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>1.62</v>
-      </c>
-      <c r="N37">
-        <v>2.2</v>
-      </c>
       <c r="O37">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="P37">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q37">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>11</v>
+      </c>
+      <c r="U37">
+        <v>23</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>6.5</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>21</v>
+      </c>
+      <c r="Z37">
         <v>13</v>
       </c>
-      <c r="S37">
-        <v>13</v>
-      </c>
-      <c r="T37">
-        <v>21</v>
-      </c>
-      <c r="U37">
-        <v>41</v>
-      </c>
-      <c r="V37">
-        <v>9</v>
-      </c>
-      <c r="W37">
-        <v>7</v>
-      </c>
-      <c r="X37">
-        <v>13</v>
-      </c>
-      <c r="Y37">
-        <v>29</v>
-      </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>11</v>
       </c>
-      <c r="AA37">
-        <v>9</v>
-      </c>
       <c r="AB37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC37">
         <v>34</v>
       </c>
       <c r="AD37">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AE37">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF37">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG37">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4599,100 +4587,100 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H38">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J38">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="M38">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O38">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="P38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q38">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="T38">
+        <v>6.5</v>
+      </c>
+      <c r="U38">
+        <v>11</v>
+      </c>
+      <c r="V38">
+        <v>13</v>
+      </c>
+      <c r="W38">
+        <v>7.5</v>
+      </c>
+      <c r="X38">
+        <v>9</v>
+      </c>
+      <c r="Y38">
         <v>15</v>
       </c>
-      <c r="U38">
+      <c r="Z38">
         <v>29</v>
       </c>
-      <c r="V38">
-        <v>9</v>
-      </c>
-      <c r="W38">
-        <v>6.5</v>
-      </c>
-      <c r="X38">
-        <v>11</v>
-      </c>
-      <c r="Y38">
-        <v>23</v>
-      </c>
-      <c r="Z38">
-        <v>13</v>
-      </c>
       <c r="AA38">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AB38">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC38">
         <v>34</v>
       </c>
       <c r="AD38">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AE38">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AF38">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG38">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4700,100 +4688,100 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
         <v>115</v>
       </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
-      </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H39">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J39">
+        <v>2.88</v>
+      </c>
+      <c r="K39">
+        <v>2.2</v>
+      </c>
+      <c r="L39">
+        <v>1.67</v>
+      </c>
+      <c r="M39">
+        <v>1.83</v>
+      </c>
+      <c r="N39">
+        <v>1.83</v>
+      </c>
+      <c r="O39">
+        <v>1.4</v>
+      </c>
+      <c r="P39">
+        <v>1.36</v>
+      </c>
+      <c r="Q39">
+        <v>1.5</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>8.5</v>
+      </c>
+      <c r="T39">
+        <v>15</v>
+      </c>
+      <c r="U39">
+        <v>29</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>6</v>
+      </c>
+      <c r="X39">
+        <v>12</v>
+      </c>
+      <c r="Y39">
+        <v>26</v>
+      </c>
+      <c r="Z39">
+        <v>13</v>
+      </c>
+      <c r="AA39">
         <v>11</v>
       </c>
-      <c r="K39">
-        <v>1.8</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <v>2.2</v>
-      </c>
-      <c r="N39">
-        <v>1.62</v>
-      </c>
-      <c r="O39">
-        <v>1.05</v>
-      </c>
-      <c r="P39">
-        <v>1.18</v>
-      </c>
-      <c r="Q39">
-        <v>3.4</v>
-      </c>
-      <c r="R39">
-        <v>11</v>
-      </c>
-      <c r="S39">
+      <c r="AB39">
+        <v>15</v>
+      </c>
+      <c r="AC39">
+        <v>41</v>
+      </c>
+      <c r="AD39">
+        <v>26</v>
+      </c>
+      <c r="AE39">
         <v>23</v>
-      </c>
-      <c r="T39">
-        <v>51</v>
-      </c>
-      <c r="U39">
-        <v>151</v>
-      </c>
-      <c r="V39">
-        <v>7</v>
-      </c>
-      <c r="W39">
-        <v>10</v>
-      </c>
-      <c r="X39">
-        <v>29</v>
-      </c>
-      <c r="Y39">
-        <v>81</v>
-      </c>
-      <c r="Z39">
-        <v>6.5</v>
-      </c>
-      <c r="AA39">
-        <v>9.5</v>
-      </c>
-      <c r="AB39">
-        <v>23</v>
-      </c>
-      <c r="AC39">
-        <v>67</v>
-      </c>
-      <c r="AD39">
-        <v>8.5</v>
-      </c>
-      <c r="AE39">
-        <v>13</v>
       </c>
       <c r="AF39">
         <v>34</v>
       </c>
       <c r="AG39">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4801,94 +4789,94 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" t="s">
         <v>116</v>
       </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" t="s">
-        <v>152</v>
-      </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H40">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="I40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J40">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="L40">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="M40">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="P40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q40">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="R40">
+        <v>12</v>
+      </c>
+      <c r="S40">
         <v>8</v>
       </c>
-      <c r="S40">
-        <v>7</v>
-      </c>
       <c r="T40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W40">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y40">
+        <v>17</v>
+      </c>
+      <c r="Z40">
         <v>21</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>13</v>
       </c>
-      <c r="AA40">
-        <v>11</v>
-      </c>
       <c r="AB40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC40">
+        <v>26</v>
+      </c>
+      <c r="AD40">
+        <v>41</v>
+      </c>
+      <c r="AE40">
         <v>34</v>
-      </c>
-      <c r="AD40">
-        <v>34</v>
-      </c>
-      <c r="AE40">
-        <v>26</v>
       </c>
       <c r="AF40">
         <v>41</v>
@@ -4902,100 +4890,100 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H41">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="I41">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J41">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L41">
+        <v>1.88</v>
+      </c>
+      <c r="M41">
         <v>1.73</v>
       </c>
-      <c r="M41">
-        <v>2.1</v>
-      </c>
       <c r="N41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="P41">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q41">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="R41">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U41">
+        <v>26</v>
+      </c>
+      <c r="V41">
+        <v>10</v>
+      </c>
+      <c r="W41">
+        <v>6.5</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>21</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+      <c r="AA41">
         <v>11</v>
       </c>
-      <c r="V41">
-        <v>12</v>
-      </c>
-      <c r="W41">
-        <v>7</v>
-      </c>
-      <c r="X41">
-        <v>9</v>
-      </c>
-      <c r="Y41">
-        <v>15</v>
-      </c>
-      <c r="Z41">
+      <c r="AB41">
+        <v>13</v>
+      </c>
+      <c r="AC41">
         <v>29</v>
       </c>
-      <c r="AA41">
-        <v>19</v>
-      </c>
-      <c r="AB41">
-        <v>21</v>
-      </c>
-      <c r="AC41">
+      <c r="AD41">
+        <v>29</v>
+      </c>
+      <c r="AE41">
+        <v>23</v>
+      </c>
+      <c r="AF41">
         <v>34</v>
       </c>
-      <c r="AD41">
-        <v>67</v>
-      </c>
-      <c r="AE41">
+      <c r="AG41">
         <v>51</v>
-      </c>
-      <c r="AF41">
-        <v>51</v>
-      </c>
-      <c r="AG41">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -5003,100 +4991,100 @@
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H42">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="J42">
-        <v>2.88</v>
+        <v>1.27</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="L42">
+        <v>2.38</v>
+      </c>
+      <c r="M42">
+        <v>2.1</v>
+      </c>
+      <c r="N42">
         <v>1.67</v>
       </c>
-      <c r="M42">
-        <v>1.83</v>
-      </c>
-      <c r="N42">
-        <v>1.83</v>
-      </c>
       <c r="O42">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="R42">
+        <v>15</v>
+      </c>
+      <c r="S42">
         <v>8</v>
       </c>
-      <c r="S42">
-        <v>8.5</v>
-      </c>
       <c r="T42">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="U42">
+        <v>8</v>
+      </c>
+      <c r="V42">
+        <v>23</v>
+      </c>
+      <c r="W42">
+        <v>12</v>
+      </c>
+      <c r="X42">
+        <v>9.5</v>
+      </c>
+      <c r="Y42">
+        <v>12</v>
+      </c>
+      <c r="Z42">
+        <v>51</v>
+      </c>
+      <c r="AA42">
         <v>29</v>
       </c>
-      <c r="V42">
-        <v>8</v>
-      </c>
-      <c r="W42">
-        <v>6</v>
-      </c>
-      <c r="X42">
-        <v>12</v>
-      </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>26</v>
       </c>
-      <c r="Z42">
-        <v>13</v>
-      </c>
-      <c r="AA42">
-        <v>11</v>
-      </c>
-      <c r="AB42">
-        <v>15</v>
-      </c>
       <c r="AC42">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD42">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="AE42">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AF42">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG42">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -5104,100 +5092,100 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H43">
-        <v>3.8</v>
+        <v>1.67</v>
       </c>
       <c r="I43">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J43">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="K43">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="M43">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O43">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="P43">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q43">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="R43">
+        <v>8</v>
+      </c>
+      <c r="S43">
         <v>12</v>
       </c>
-      <c r="S43">
-        <v>8</v>
-      </c>
       <c r="T43">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U43">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>7</v>
+      </c>
+      <c r="X43">
+        <v>19</v>
+      </c>
+      <c r="Y43">
+        <v>51</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>9</v>
+      </c>
+      <c r="AB43">
+        <v>19</v>
+      </c>
+      <c r="AC43">
+        <v>51</v>
+      </c>
+      <c r="AD43">
         <v>12</v>
       </c>
-      <c r="W43">
-        <v>7.5</v>
-      </c>
-      <c r="X43">
-        <v>9</v>
-      </c>
-      <c r="Y43">
-        <v>17</v>
-      </c>
-      <c r="Z43">
-        <v>21</v>
-      </c>
-      <c r="AA43">
-        <v>13</v>
-      </c>
-      <c r="AB43">
+      <c r="AE43">
         <v>15</v>
       </c>
-      <c r="AC43">
-        <v>26</v>
-      </c>
-      <c r="AD43">
-        <v>41</v>
-      </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>34</v>
       </c>
-      <c r="AF43">
-        <v>41</v>
-      </c>
       <c r="AG43">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -5205,97 +5193,97 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H44">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I44">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J44">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="M44">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O44">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P44">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q44">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="R44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S44">
+        <v>6.5</v>
+      </c>
+      <c r="T44">
+        <v>8.5</v>
+      </c>
+      <c r="U44">
+        <v>17</v>
+      </c>
+      <c r="V44">
         <v>9.5</v>
-      </c>
-      <c r="T44">
-        <v>13</v>
-      </c>
-      <c r="U44">
-        <v>26</v>
-      </c>
-      <c r="V44">
-        <v>10</v>
       </c>
       <c r="W44">
         <v>6.5</v>
       </c>
       <c r="X44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z44">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC44">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD44">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE44">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AF44">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG44">
         <v>51</v>
@@ -5306,100 +5294,100 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H45">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J45">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="K45">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="L45">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="P45">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Q45">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>9</v>
+      </c>
+      <c r="V45">
         <v>15</v>
       </c>
-      <c r="S45">
-        <v>8</v>
-      </c>
-      <c r="T45">
-        <v>7</v>
-      </c>
-      <c r="U45">
+      <c r="W45">
         <v>8.5</v>
       </c>
-      <c r="V45">
-        <v>23</v>
-      </c>
-      <c r="W45">
-        <v>11</v>
-      </c>
       <c r="X45">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z45">
+        <v>34</v>
+      </c>
+      <c r="AA45">
+        <v>21</v>
+      </c>
+      <c r="AB45">
+        <v>21</v>
+      </c>
+      <c r="AC45">
+        <v>34</v>
+      </c>
+      <c r="AD45">
+        <v>81</v>
+      </c>
+      <c r="AE45">
         <v>51</v>
-      </c>
-      <c r="AA45">
-        <v>26</v>
-      </c>
-      <c r="AB45">
-        <v>23</v>
-      </c>
-      <c r="AC45">
-        <v>29</v>
-      </c>
-      <c r="AD45">
-        <v>126</v>
-      </c>
-      <c r="AE45">
-        <v>67</v>
       </c>
       <c r="AF45">
         <v>51</v>
       </c>
       <c r="AG45">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -5407,100 +5395,100 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H46">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="I46">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="L46">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="N46">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="O46">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="P46">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="Q46">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="R46">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S46">
+        <v>26</v>
+      </c>
+      <c r="T46">
+        <v>51</v>
+      </c>
+      <c r="U46">
+        <v>201</v>
+      </c>
+      <c r="V46">
+        <v>7.5</v>
+      </c>
+      <c r="W46">
+        <v>13</v>
+      </c>
+      <c r="X46">
+        <v>34</v>
+      </c>
+      <c r="Y46">
+        <v>101</v>
+      </c>
+      <c r="Z46">
+        <v>6</v>
+      </c>
+      <c r="AA46">
+        <v>11</v>
+      </c>
+      <c r="AB46">
+        <v>34</v>
+      </c>
+      <c r="AC46">
+        <v>81</v>
+      </c>
+      <c r="AD46">
+        <v>6.5</v>
+      </c>
+      <c r="AE46">
         <v>12</v>
-      </c>
-      <c r="T46">
-        <v>26</v>
-      </c>
-      <c r="U46">
-        <v>67</v>
-      </c>
-      <c r="V46">
-        <v>6</v>
-      </c>
-      <c r="W46">
-        <v>7</v>
-      </c>
-      <c r="X46">
-        <v>19</v>
-      </c>
-      <c r="Y46">
-        <v>51</v>
-      </c>
-      <c r="Z46">
-        <v>7</v>
-      </c>
-      <c r="AA46">
-        <v>9</v>
-      </c>
-      <c r="AB46">
-        <v>19</v>
-      </c>
-      <c r="AC46">
-        <v>51</v>
-      </c>
-      <c r="AD46">
-        <v>12</v>
-      </c>
-      <c r="AE46">
-        <v>15</v>
       </c>
       <c r="AF46">
         <v>34</v>
       </c>
       <c r="AG46">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -5508,100 +5496,100 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H47">
+        <v>1.48</v>
+      </c>
+      <c r="I47">
         <v>3.9</v>
       </c>
-      <c r="I47">
-        <v>3.4</v>
-      </c>
       <c r="J47">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="K47">
+        <v>2.1</v>
+      </c>
+      <c r="L47">
+        <v>1.73</v>
+      </c>
+      <c r="M47">
         <v>2.2</v>
       </c>
-      <c r="L47">
-        <v>1.67</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O47">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P47">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="R47">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S47">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="T47">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="U47">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="V47">
+        <v>5.5</v>
+      </c>
+      <c r="W47">
+        <v>7.5</v>
+      </c>
+      <c r="X47">
+        <v>23</v>
+      </c>
+      <c r="Y47">
+        <v>51</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>9</v>
+      </c>
+      <c r="AB47">
+        <v>21</v>
+      </c>
+      <c r="AC47">
+        <v>67</v>
+      </c>
+      <c r="AD47">
         <v>9.5</v>
       </c>
-      <c r="W47">
-        <v>6.5</v>
-      </c>
-      <c r="X47">
-        <v>9</v>
-      </c>
-      <c r="Y47">
-        <v>17</v>
-      </c>
-      <c r="Z47">
-        <v>19</v>
-      </c>
-      <c r="AA47">
-        <v>13</v>
-      </c>
-      <c r="AB47">
-        <v>17</v>
-      </c>
-      <c r="AC47">
+      <c r="AE47">
+        <v>15</v>
+      </c>
+      <c r="AF47">
         <v>34</v>
       </c>
-      <c r="AD47">
-        <v>41</v>
-      </c>
-      <c r="AE47">
-        <v>34</v>
-      </c>
-      <c r="AF47">
-        <v>41</v>
-      </c>
       <c r="AG47">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -5609,52 +5597,52 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I48">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J48">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="K48">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="L48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O48">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q48">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="R48">
         <v>10</v>
@@ -5663,16 +5651,16 @@
         <v>6</v>
       </c>
       <c r="T48">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U48">
+        <v>8</v>
+      </c>
+      <c r="V48">
+        <v>17</v>
+      </c>
+      <c r="W48">
         <v>9.5</v>
-      </c>
-      <c r="V48">
-        <v>15</v>
-      </c>
-      <c r="W48">
-        <v>8.5</v>
       </c>
       <c r="X48">
         <v>9</v>
@@ -5681,28 +5669,28 @@
         <v>13</v>
       </c>
       <c r="Z48">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC48">
         <v>34</v>
       </c>
       <c r="AD48">
+        <v>101</v>
+      </c>
+      <c r="AE48">
+        <v>67</v>
+      </c>
+      <c r="AF48">
+        <v>67</v>
+      </c>
+      <c r="AG48">
         <v>81</v>
-      </c>
-      <c r="AE48">
-        <v>51</v>
-      </c>
-      <c r="AF48">
-        <v>51</v>
-      </c>
-      <c r="AG48">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -5710,100 +5698,100 @@
         <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H49">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -5811,100 +5799,100 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
         <v>155</v>
       </c>
-      <c r="G50" t="s">
-        <v>158</v>
-      </c>
       <c r="H50">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -5912,100 +5900,100 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -6013,22 +6001,22 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
         <v>112</v>
       </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
       <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
-        <v>134</v>
-      </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -6114,22 +6102,22 @@
         <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
         <v>112</v>
       </c>
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -6215,22 +6203,22 @@
         <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
         <v>112</v>
       </c>
-      <c r="D54" t="s">
-        <v>116</v>
-      </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -6316,22 +6304,22 @@
         <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
         <v>112</v>
       </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
       <c r="E55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" t="s">
         <v>137</v>
       </c>
-      <c r="F55" t="s">
-        <v>136</v>
-      </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6417,22 +6405,22 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6510,309 +6498,6 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G58" t="s">
-        <v>159</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>nm5LQwbd</t>
-  </si>
-  <si>
-    <t>GbRxZ1jG</t>
-  </si>
-  <si>
-    <t>bNWXZsyA</t>
-  </si>
-  <si>
     <t>2JRjtJcq</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-19</t>
-  </si>
-  <si>
     <t>2024-06-20</t>
   </si>
   <si>
@@ -325,124 +313,124 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
   </si>
   <si>
     <t>ROUND 2</t>
@@ -809,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,100 +909,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H2">
-        <v>1.44</v>
+        <v>5.25</v>
       </c>
       <c r="I2">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="J2">
+        <v>1.7</v>
+      </c>
+      <c r="K2">
+        <v>1.93</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1.83</v>
+      </c>
+      <c r="N2">
+        <v>1.83</v>
+      </c>
+      <c r="O2">
+        <v>2.1</v>
+      </c>
+      <c r="P2">
+        <v>1.29</v>
+      </c>
+      <c r="Q2">
+        <v>1.17</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
         <v>7.5</v>
       </c>
-      <c r="K2">
-        <v>2.03</v>
-      </c>
-      <c r="L2">
-        <v>1.9</v>
-      </c>
-      <c r="M2">
-        <v>2.1</v>
-      </c>
-      <c r="N2">
-        <v>1.67</v>
-      </c>
-      <c r="O2">
-        <v>1.1</v>
-      </c>
-      <c r="P2">
-        <v>1.2</v>
-      </c>
-      <c r="Q2">
-        <v>2.63</v>
-      </c>
-      <c r="R2">
-        <v>10</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>8.5</v>
+      </c>
+      <c r="U2">
+        <v>13</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="W2">
+        <v>7.5</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="Z2">
+        <v>26</v>
+      </c>
+      <c r="AA2">
         <v>17</v>
       </c>
-      <c r="T2">
+      <c r="AB2">
+        <v>17</v>
+      </c>
+      <c r="AC2">
+        <v>29</v>
+      </c>
+      <c r="AD2">
+        <v>51</v>
+      </c>
+      <c r="AE2">
         <v>41</v>
       </c>
-      <c r="U2">
-        <v>101</v>
-      </c>
-      <c r="V2">
-        <v>6.5</v>
-      </c>
-      <c r="W2">
-        <v>8.5</v>
-      </c>
-      <c r="X2">
-        <v>23</v>
-      </c>
-      <c r="Y2">
+      <c r="AF2">
+        <v>41</v>
+      </c>
+      <c r="AG2">
         <v>51</v>
-      </c>
-      <c r="Z2">
-        <v>6.5</v>
-      </c>
-      <c r="AA2">
-        <v>9</v>
-      </c>
-      <c r="AB2">
-        <v>23</v>
-      </c>
-      <c r="AC2">
-        <v>67</v>
-      </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2">
-        <v>13</v>
-      </c>
-      <c r="AF2">
-        <v>34</v>
-      </c>
-      <c r="AG2">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1022,100 +1010,100 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3">
+        <v>5.75</v>
+      </c>
+      <c r="I3">
+        <v>3.6</v>
+      </c>
+      <c r="J3">
+        <v>1.67</v>
+      </c>
+      <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
+        <v>1.67</v>
+      </c>
+      <c r="M3">
+        <v>2.1</v>
+      </c>
+      <c r="N3">
+        <v>1.67</v>
+      </c>
+      <c r="O3">
+        <v>2.15</v>
+      </c>
+      <c r="P3">
+        <v>1.29</v>
+      </c>
+      <c r="Q3">
+        <v>1.14</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>7.5</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>9.5</v>
+      </c>
+      <c r="Y3">
+        <v>17</v>
+      </c>
+      <c r="Z3">
+        <v>29</v>
+      </c>
+      <c r="AA3">
+        <v>19</v>
+      </c>
+      <c r="AB3">
+        <v>21</v>
+      </c>
+      <c r="AC3">
+        <v>34</v>
+      </c>
+      <c r="AD3">
+        <v>67</v>
+      </c>
+      <c r="AE3">
+        <v>51</v>
+      </c>
+      <c r="AF3">
+        <v>51</v>
+      </c>
+      <c r="AG3">
         <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3">
-        <v>1.22</v>
-      </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>1.53</v>
-      </c>
-      <c r="L3">
-        <v>2.5</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>1.73</v>
-      </c>
-      <c r="O3">
-        <v>1.05</v>
-      </c>
-      <c r="P3">
-        <v>1.11</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>26</v>
-      </c>
-      <c r="T3">
-        <v>51</v>
-      </c>
-      <c r="U3">
-        <v>151</v>
-      </c>
-      <c r="V3">
-        <v>8.5</v>
-      </c>
-      <c r="W3">
-        <v>13</v>
-      </c>
-      <c r="X3">
-        <v>29</v>
-      </c>
-      <c r="Y3">
-        <v>67</v>
-      </c>
-      <c r="Z3">
-        <v>7</v>
-      </c>
-      <c r="AA3">
-        <v>9.5</v>
-      </c>
-      <c r="AB3">
-        <v>26</v>
-      </c>
-      <c r="AC3">
-        <v>51</v>
-      </c>
-      <c r="AD3">
-        <v>8</v>
-      </c>
-      <c r="AE3">
-        <v>11</v>
-      </c>
-      <c r="AF3">
-        <v>29</v>
-      </c>
-      <c r="AG3">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1123,37 +1111,37 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="I4">
+        <v>3.2</v>
+      </c>
+      <c r="J4">
         <v>3.6</v>
       </c>
-      <c r="J4">
-        <v>1.8</v>
-      </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="M4">
         <v>1.91</v>
@@ -1162,61 +1150,61 @@
         <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="P4">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q4">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="R4">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S4">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="T4">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="V4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y4">
+        <v>34</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
         <v>17</v>
       </c>
-      <c r="Z4">
-        <v>23</v>
-      </c>
-      <c r="AA4">
-        <v>17</v>
-      </c>
-      <c r="AB4">
-        <v>19</v>
-      </c>
       <c r="AC4">
+        <v>41</v>
+      </c>
+      <c r="AD4">
+        <v>21</v>
+      </c>
+      <c r="AE4">
+        <v>21</v>
+      </c>
+      <c r="AF4">
         <v>34</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>51</v>
-      </c>
-      <c r="AE4">
-        <v>41</v>
-      </c>
-      <c r="AF4">
-        <v>41</v>
-      </c>
-      <c r="AG4">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1224,100 +1212,100 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5">
-        <v>4.75</v>
+        <v>1.29</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.83</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="L5">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="M5">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O5">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="P5">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="Q5">
-        <v>1.18</v>
+        <v>3.5</v>
       </c>
       <c r="R5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="T5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="U5">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="V5">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="W5">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y5">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="Z5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AA5">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AB5">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC5">
+        <v>67</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>12</v>
+      </c>
+      <c r="AF5">
         <v>29</v>
       </c>
-      <c r="AD5">
-        <v>51</v>
-      </c>
-      <c r="AE5">
-        <v>41</v>
-      </c>
-      <c r="AF5">
-        <v>41</v>
-      </c>
       <c r="AG5">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1325,100 +1313,100 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J6">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N6">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O6">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
+        <v>1.33</v>
+      </c>
+      <c r="Q6">
         <v>1.29</v>
       </c>
-      <c r="Q6">
-        <v>1.14</v>
-      </c>
       <c r="R6">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U6">
+        <v>19</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>6.5</v>
+      </c>
+      <c r="X6">
+        <v>9.5</v>
+      </c>
+      <c r="Y6">
+        <v>19</v>
+      </c>
+      <c r="Z6">
+        <v>19</v>
+      </c>
+      <c r="AA6">
         <v>13</v>
       </c>
-      <c r="V6">
-        <v>13</v>
-      </c>
-      <c r="W6">
-        <v>7</v>
-      </c>
-      <c r="X6">
-        <v>9</v>
-      </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>17</v>
-      </c>
-      <c r="Z6">
-        <v>29</v>
-      </c>
-      <c r="AA6">
-        <v>19</v>
-      </c>
-      <c r="AB6">
-        <v>21</v>
       </c>
       <c r="AC6">
         <v>34</v>
       </c>
       <c r="AD6">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AE6">
+        <v>34</v>
+      </c>
+      <c r="AF6">
+        <v>41</v>
+      </c>
+      <c r="AG6">
         <v>51</v>
-      </c>
-      <c r="AF6">
-        <v>51</v>
-      </c>
-      <c r="AG6">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1426,94 +1414,94 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
         <v>139</v>
       </c>
-      <c r="G7" t="s">
-        <v>143</v>
-      </c>
       <c r="H7">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J7">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="L7">
+        <v>1.91</v>
+      </c>
+      <c r="M7">
+        <v>1.73</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
         <v>1.67</v>
       </c>
-      <c r="M7">
-        <v>1.83</v>
-      </c>
-      <c r="N7">
-        <v>1.83</v>
-      </c>
-      <c r="O7">
-        <v>1.25</v>
-      </c>
       <c r="P7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q7">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
         <v>8.5</v>
       </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
       <c r="T7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="U7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W7">
         <v>6.5</v>
       </c>
       <c r="X7">
+        <v>9.5</v>
+      </c>
+      <c r="Y7">
+        <v>19</v>
+      </c>
+      <c r="Z7">
+        <v>19</v>
+      </c>
+      <c r="AA7">
+        <v>13</v>
+      </c>
+      <c r="AB7">
         <v>15</v>
       </c>
-      <c r="Y7">
-        <v>34</v>
-      </c>
-      <c r="Z7">
-        <v>10</v>
-      </c>
-      <c r="AA7">
-        <v>9.5</v>
-      </c>
-      <c r="AB7">
-        <v>17</v>
-      </c>
       <c r="AC7">
+        <v>29</v>
+      </c>
+      <c r="AD7">
         <v>41</v>
       </c>
-      <c r="AD7">
-        <v>19</v>
-      </c>
       <c r="AE7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF7">
         <v>34</v>
@@ -1527,100 +1515,100 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H8">
+        <v>3.25</v>
+      </c>
+      <c r="I8">
+        <v>3.4</v>
+      </c>
+      <c r="J8">
+        <v>2.2</v>
+      </c>
+      <c r="K8">
+        <v>2.03</v>
+      </c>
+      <c r="L8">
+        <v>1.87</v>
+      </c>
+      <c r="M8">
+        <v>1.73</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1.67</v>
+      </c>
+      <c r="P8">
         <v>1.3</v>
       </c>
-      <c r="I8">
-        <v>5.5</v>
-      </c>
-      <c r="J8">
+      <c r="Q8">
+        <v>1.33</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>8.5</v>
+      </c>
+      <c r="T8">
+        <v>11</v>
+      </c>
+      <c r="U8">
+        <v>21</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>6.5</v>
+      </c>
+      <c r="X8">
         <v>9.5</v>
       </c>
-      <c r="K8">
-        <v>1.73</v>
-      </c>
-      <c r="L8">
-        <v>2.08</v>
-      </c>
-      <c r="M8">
-        <v>2.1</v>
-      </c>
-      <c r="N8">
-        <v>1.67</v>
-      </c>
-      <c r="O8">
-        <v>1.07</v>
-      </c>
-      <c r="P8">
-        <v>1.14</v>
-      </c>
-      <c r="Q8">
-        <v>3.4</v>
-      </c>
-      <c r="R8">
-        <v>13</v>
-      </c>
-      <c r="S8">
+      <c r="Y8">
         <v>19</v>
       </c>
-      <c r="T8">
+      <c r="Z8">
+        <v>17</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>15</v>
+      </c>
+      <c r="AC8">
+        <v>29</v>
+      </c>
+      <c r="AD8">
         <v>41</v>
       </c>
-      <c r="U8">
-        <v>101</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8">
-        <v>23</v>
-      </c>
-      <c r="Y8">
-        <v>67</v>
-      </c>
-      <c r="Z8">
-        <v>6</v>
-      </c>
-      <c r="AA8">
-        <v>9</v>
-      </c>
-      <c r="AB8">
-        <v>23</v>
-      </c>
-      <c r="AC8">
+      <c r="AE8">
+        <v>29</v>
+      </c>
+      <c r="AF8">
+        <v>34</v>
+      </c>
+      <c r="AG8">
         <v>51</v>
-      </c>
-      <c r="AD8">
-        <v>8</v>
-      </c>
-      <c r="AE8">
-        <v>12</v>
-      </c>
-      <c r="AF8">
-        <v>29</v>
-      </c>
-      <c r="AG8">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1628,70 +1616,70 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H9">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
         <v>2.1</v>
       </c>
-      <c r="K9">
-        <v>2.2</v>
-      </c>
-      <c r="L9">
+      <c r="N9">
         <v>1.67</v>
       </c>
-      <c r="M9">
-        <v>1.83</v>
-      </c>
-      <c r="N9">
-        <v>1.83</v>
-      </c>
       <c r="O9">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R9">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W9">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>9.5</v>
@@ -1703,25 +1691,25 @@
         <v>19</v>
       </c>
       <c r="AA9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD9">
         <v>41</v>
       </c>
       <c r="AE9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF9">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1729,94 +1717,94 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J10">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="K10">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="L10">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N10">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P10">
         <v>1.29</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="R10">
         <v>10</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="T10">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W10">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10">
         <v>9</v>
       </c>
       <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>26</v>
+      </c>
+      <c r="AA10">
         <v>17</v>
       </c>
-      <c r="Z10">
-        <v>21</v>
-      </c>
-      <c r="AA10">
-        <v>13</v>
-      </c>
       <c r="AB10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC10">
         <v>29</v>
       </c>
       <c r="AD10">
+        <v>51</v>
+      </c>
+      <c r="AE10">
         <v>41</v>
-      </c>
-      <c r="AE10">
-        <v>34</v>
       </c>
       <c r="AF10">
         <v>41</v>
@@ -1830,97 +1818,97 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H11">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J11">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="K11">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="L11">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="M11">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O11">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="P11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
+      </c>
+      <c r="V11">
+        <v>17</v>
+      </c>
+      <c r="W11">
         <v>8.5</v>
       </c>
-      <c r="T11">
-        <v>12</v>
-      </c>
-      <c r="U11">
-        <v>23</v>
-      </c>
-      <c r="V11">
-        <v>11</v>
-      </c>
-      <c r="W11">
-        <v>7</v>
-      </c>
       <c r="X11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z11">
+        <v>29</v>
+      </c>
+      <c r="AA11">
         <v>17</v>
       </c>
-      <c r="AA11">
-        <v>12</v>
-      </c>
       <c r="AB11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AE11">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AF11">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG11">
         <v>51</v>
@@ -1931,97 +1919,97 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H12">
-        <v>4.33</v>
+        <v>1.45</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N12">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O12">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P12">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="Q12">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="R12">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="U12">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="V12">
+        <v>7.5</v>
+      </c>
+      <c r="W12">
         <v>9</v>
       </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
       <c r="X12">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y12">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="Z12">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AA12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AB12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC12">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD12">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AF12">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AG12">
         <v>67</v>
@@ -2032,100 +2020,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="K13">
+        <v>2.3</v>
+      </c>
+      <c r="L13">
+        <v>1.6</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>1.67</v>
+      </c>
+      <c r="O13">
+        <v>1.18</v>
+      </c>
+      <c r="P13">
+        <v>1.29</v>
+      </c>
+      <c r="Q13">
         <v>1.95</v>
       </c>
-      <c r="L13">
-        <v>1.95</v>
-      </c>
-      <c r="M13">
-        <v>1.83</v>
-      </c>
-      <c r="N13">
-        <v>1.83</v>
-      </c>
-      <c r="O13">
-        <v>2.1</v>
-      </c>
-      <c r="P13">
-        <v>1.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.17</v>
-      </c>
       <c r="R13">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>21</v>
+      </c>
+      <c r="U13">
+        <v>51</v>
+      </c>
+      <c r="V13">
+        <v>5.5</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>15</v>
+      </c>
+      <c r="Y13">
+        <v>41</v>
+      </c>
+      <c r="Z13">
         <v>7.5</v>
       </c>
-      <c r="T13">
-        <v>8.5</v>
-      </c>
-      <c r="U13">
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>21</v>
+      </c>
+      <c r="AC13">
+        <v>51</v>
+      </c>
+      <c r="AD13">
         <v>13</v>
       </c>
-      <c r="V13">
-        <v>15</v>
-      </c>
-      <c r="W13">
-        <v>7.5</v>
-      </c>
-      <c r="X13">
-        <v>9</v>
-      </c>
-      <c r="Y13">
-        <v>15</v>
-      </c>
-      <c r="Z13">
-        <v>26</v>
-      </c>
-      <c r="AA13">
+      <c r="AE13">
         <v>17</v>
       </c>
-      <c r="AB13">
-        <v>17</v>
-      </c>
-      <c r="AC13">
-        <v>29</v>
-      </c>
-      <c r="AD13">
-        <v>51</v>
-      </c>
-      <c r="AE13">
-        <v>41</v>
-      </c>
       <c r="AF13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG13">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2133,100 +2121,100 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H14">
-        <v>5.25</v>
+        <v>1.62</v>
       </c>
       <c r="I14">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J14">
-        <v>1.57</v>
+        <v>5.75</v>
       </c>
       <c r="K14">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
+        <v>1.67</v>
+      </c>
+      <c r="M14">
         <v>2.1</v>
       </c>
-      <c r="M14">
-        <v>1.8</v>
-      </c>
       <c r="N14">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="O14">
-        <v>2.3</v>
+        <v>1.14</v>
       </c>
       <c r="P14">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q14">
-        <v>1.17</v>
+        <v>2.25</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T14">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="U14">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="V14">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="W14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X14">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Y14">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="Z14">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="AA14">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AB14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC14">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AD14">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="AE14">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AF14">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2234,31 +2222,31 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H15">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="I15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="K15">
         <v>1.73</v>
@@ -2267,67 +2255,67 @@
         <v>2.1</v>
       </c>
       <c r="M15">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q15">
-        <v>2.63</v>
+        <v>1.5</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>26</v>
+      </c>
+      <c r="V15">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <v>8</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
         <v>19</v>
       </c>
-      <c r="T15">
-        <v>41</v>
-      </c>
-      <c r="U15">
-        <v>81</v>
-      </c>
-      <c r="V15">
-        <v>7.5</v>
-      </c>
-      <c r="W15">
-        <v>9</v>
-      </c>
-      <c r="X15">
+      <c r="Z15">
+        <v>15</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>15</v>
+      </c>
+      <c r="AC15">
+        <v>26</v>
+      </c>
+      <c r="AD15">
+        <v>29</v>
+      </c>
+      <c r="AE15">
         <v>21</v>
-      </c>
-      <c r="Y15">
-        <v>51</v>
-      </c>
-      <c r="Z15">
-        <v>7.5</v>
-      </c>
-      <c r="AA15">
-        <v>8.5</v>
-      </c>
-      <c r="AB15">
-        <v>19</v>
-      </c>
-      <c r="AC15">
-        <v>51</v>
-      </c>
-      <c r="AD15">
-        <v>11</v>
-      </c>
-      <c r="AE15">
-        <v>13</v>
       </c>
       <c r="AF15">
         <v>26</v>
       </c>
       <c r="AG15">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2335,100 +2323,100 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H16">
+        <v>4.75</v>
+      </c>
+      <c r="I16">
+        <v>3.75</v>
+      </c>
+      <c r="J16">
+        <v>1.7</v>
+      </c>
+      <c r="K16">
         <v>1.8</v>
       </c>
-      <c r="I16">
-        <v>3.6</v>
-      </c>
-      <c r="J16">
-        <v>4.5</v>
-      </c>
-      <c r="K16">
-        <v>2.3</v>
-      </c>
       <c r="L16">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="N16">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O16">
+        <v>2.1</v>
+      </c>
+      <c r="P16">
+        <v>1.25</v>
+      </c>
+      <c r="Q16">
         <v>1.18</v>
       </c>
-      <c r="P16">
-        <v>1.29</v>
-      </c>
-      <c r="Q16">
-        <v>1.95</v>
-      </c>
       <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
         <v>8</v>
       </c>
-      <c r="S16">
-        <v>9.5</v>
-      </c>
       <c r="T16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <v>7.5</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>26</v>
+      </c>
+      <c r="AA16">
+        <v>17</v>
+      </c>
+      <c r="AB16">
+        <v>15</v>
+      </c>
+      <c r="AC16">
+        <v>26</v>
+      </c>
+      <c r="AD16">
         <v>51</v>
       </c>
-      <c r="V16">
-        <v>5.5</v>
-      </c>
-      <c r="W16">
-        <v>7</v>
-      </c>
-      <c r="X16">
-        <v>15</v>
-      </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>41</v>
       </c>
-      <c r="Z16">
-        <v>7.5</v>
-      </c>
-      <c r="AA16">
-        <v>9</v>
-      </c>
-      <c r="AB16">
-        <v>21</v>
-      </c>
-      <c r="AC16">
+      <c r="AF16">
+        <v>41</v>
+      </c>
+      <c r="AG16">
         <v>51</v>
-      </c>
-      <c r="AD16">
-        <v>13</v>
-      </c>
-      <c r="AE16">
-        <v>17</v>
-      </c>
-      <c r="AF16">
-        <v>34</v>
-      </c>
-      <c r="AG16">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2436,100 +2424,100 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H17">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>6.25</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
         <v>1.62</v>
       </c>
-      <c r="I17">
-        <v>3.8</v>
-      </c>
-      <c r="J17">
-        <v>5.75</v>
-      </c>
-      <c r="K17">
-        <v>2.15</v>
-      </c>
       <c r="L17">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="Q17">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S17">
+        <v>29</v>
+      </c>
+      <c r="T17">
+        <v>67</v>
+      </c>
+      <c r="U17">
+        <v>251</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
         <v>12</v>
       </c>
-      <c r="T17">
-        <v>29</v>
-      </c>
-      <c r="U17">
-        <v>67</v>
-      </c>
-      <c r="V17">
-        <v>6</v>
-      </c>
-      <c r="W17">
-        <v>7</v>
-      </c>
       <c r="X17">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="Y17">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="Z17">
+        <v>5.5</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>34</v>
+      </c>
+      <c r="AC17">
+        <v>101</v>
+      </c>
+      <c r="AD17">
         <v>6.5</v>
       </c>
-      <c r="AA17">
-        <v>9</v>
-      </c>
-      <c r="AB17">
-        <v>21</v>
-      </c>
-      <c r="AC17">
-        <v>51</v>
-      </c>
-      <c r="AD17">
-        <v>11</v>
-      </c>
       <c r="AE17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF17">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2537,100 +2525,100 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H18">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="I18">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>2.35</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="L18">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="M18">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="O18">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="P18">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Q18">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="R18">
         <v>11</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="T18">
+        <v>41</v>
+      </c>
+      <c r="U18">
+        <v>126</v>
+      </c>
+      <c r="V18">
+        <v>6.5</v>
+      </c>
+      <c r="W18">
+        <v>9.5</v>
+      </c>
+      <c r="X18">
+        <v>26</v>
+      </c>
+      <c r="Y18">
+        <v>67</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>9.5</v>
+      </c>
+      <c r="AB18">
+        <v>23</v>
+      </c>
+      <c r="AC18">
+        <v>67</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
         <v>12</v>
-      </c>
-      <c r="U18">
-        <v>23</v>
-      </c>
-      <c r="V18">
-        <v>10</v>
-      </c>
-      <c r="W18">
-        <v>7</v>
-      </c>
-      <c r="X18">
-        <v>10</v>
-      </c>
-      <c r="Y18">
-        <v>21</v>
-      </c>
-      <c r="Z18">
-        <v>15</v>
-      </c>
-      <c r="AA18">
-        <v>11</v>
-      </c>
-      <c r="AB18">
-        <v>15</v>
-      </c>
-      <c r="AC18">
-        <v>29</v>
-      </c>
-      <c r="AD18">
-        <v>34</v>
-      </c>
-      <c r="AE18">
-        <v>23</v>
       </c>
       <c r="AF18">
         <v>34</v>
       </c>
       <c r="AG18">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2638,52 +2626,52 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
         <v>97</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H19">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J19">
+        <v>1.3</v>
+      </c>
+      <c r="K19">
         <v>1.67</v>
       </c>
-      <c r="K19">
-        <v>1.83</v>
-      </c>
       <c r="L19">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="M19">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N19">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O19">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Q19">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="R19">
         <v>12</v>
@@ -2692,46 +2680,46 @@
         <v>7.5</v>
       </c>
       <c r="T19">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="U19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X19">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z19">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AA19">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD19">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AE19">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF19">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG19">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2739,100 +2727,100 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20">
-        <v>1.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
-        <v>6.25</v>
+        <v>3.3</v>
       </c>
       <c r="J20">
+        <v>2.25</v>
+      </c>
+      <c r="K20">
+        <v>1.88</v>
+      </c>
+      <c r="L20">
+        <v>1.98</v>
+      </c>
+      <c r="M20">
+        <v>1.67</v>
+      </c>
+      <c r="N20">
+        <v>2.1</v>
+      </c>
+      <c r="O20">
+        <v>1.62</v>
+      </c>
+      <c r="P20">
+        <v>1.33</v>
+      </c>
+      <c r="Q20">
+        <v>1.33</v>
+      </c>
+      <c r="R20">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20">
+        <v>12</v>
+      </c>
+      <c r="U20">
+        <v>23</v>
+      </c>
+      <c r="V20">
+        <v>11</v>
+      </c>
+      <c r="W20">
+        <v>6.5</v>
+      </c>
+      <c r="X20">
+        <v>9.5</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+      <c r="Z20">
         <v>17</v>
       </c>
-      <c r="K20">
-        <v>1.62</v>
-      </c>
-      <c r="L20">
-        <v>2.25</v>
-      </c>
-      <c r="M20">
-        <v>2.5</v>
-      </c>
-      <c r="N20">
-        <v>1.5</v>
-      </c>
-      <c r="O20">
-        <v>1.03</v>
-      </c>
-      <c r="P20">
-        <v>1.13</v>
-      </c>
-      <c r="Q20">
-        <v>4.33</v>
-      </c>
-      <c r="R20">
+      <c r="AA20">
         <v>12</v>
       </c>
-      <c r="S20">
-        <v>29</v>
-      </c>
-      <c r="T20">
-        <v>67</v>
-      </c>
-      <c r="U20">
-        <v>251</v>
-      </c>
-      <c r="V20">
-        <v>7</v>
-      </c>
-      <c r="W20">
-        <v>12</v>
-      </c>
-      <c r="X20">
+      <c r="AB20">
+        <v>13</v>
+      </c>
+      <c r="AC20">
+        <v>26</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
+      </c>
+      <c r="AE20">
+        <v>26</v>
+      </c>
+      <c r="AF20">
+        <v>34</v>
+      </c>
+      <c r="AG20">
         <v>41</v>
-      </c>
-      <c r="Y20">
-        <v>126</v>
-      </c>
-      <c r="Z20">
-        <v>5.5</v>
-      </c>
-      <c r="AA20">
-        <v>10</v>
-      </c>
-      <c r="AB20">
-        <v>29</v>
-      </c>
-      <c r="AC20">
-        <v>101</v>
-      </c>
-      <c r="AD20">
-        <v>6.5</v>
-      </c>
-      <c r="AE20">
-        <v>12</v>
-      </c>
-      <c r="AF20">
-        <v>41</v>
-      </c>
-      <c r="AG20">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2840,100 +2828,100 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="K21">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>1.67</v>
+      </c>
+      <c r="O21">
+        <v>1.14</v>
+      </c>
+      <c r="P21">
+        <v>1.29</v>
+      </c>
+      <c r="Q21">
         <v>2.2</v>
       </c>
-      <c r="N21">
-        <v>1.62</v>
-      </c>
-      <c r="O21">
-        <v>1.06</v>
-      </c>
-      <c r="P21">
-        <v>1.17</v>
-      </c>
-      <c r="Q21">
-        <v>3.25</v>
-      </c>
       <c r="R21">
+        <v>7.5</v>
+      </c>
+      <c r="S21">
         <v>11</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>26</v>
+      </c>
+      <c r="U21">
+        <v>67</v>
+      </c>
+      <c r="V21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
+      </c>
+      <c r="X21">
+        <v>19</v>
+      </c>
+      <c r="Y21">
+        <v>51</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21">
+        <v>9</v>
+      </c>
+      <c r="AB21">
         <v>21</v>
       </c>
-      <c r="T21">
-        <v>41</v>
-      </c>
-      <c r="U21">
-        <v>126</v>
-      </c>
-      <c r="V21">
-        <v>6.5</v>
-      </c>
-      <c r="W21">
-        <v>9.5</v>
-      </c>
-      <c r="X21">
-        <v>26</v>
-      </c>
-      <c r="Y21">
-        <v>67</v>
-      </c>
-      <c r="Z21">
-        <v>6</v>
-      </c>
-      <c r="AA21">
-        <v>9.5</v>
-      </c>
-      <c r="AB21">
-        <v>23</v>
-      </c>
       <c r="AC21">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF21">
         <v>34</v>
       </c>
       <c r="AG21">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2941,37 +2929,37 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>1.14</v>
       </c>
       <c r="I22">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>1.25</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="L22">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="M22">
         <v>2.25</v>
@@ -2980,58 +2968,58 @@
         <v>1.57</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="P22">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Q22">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="R22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="T22">
+        <v>67</v>
+      </c>
+      <c r="U22">
+        <v>251</v>
+      </c>
+      <c r="V22">
+        <v>8.5</v>
+      </c>
+      <c r="W22">
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <v>41</v>
+      </c>
+      <c r="Y22">
+        <v>101</v>
+      </c>
+      <c r="Z22">
         <v>6</v>
       </c>
-      <c r="U22">
-        <v>7.5</v>
-      </c>
-      <c r="V22">
-        <v>23</v>
-      </c>
-      <c r="W22">
-        <v>12</v>
-      </c>
-      <c r="X22">
-        <v>10</v>
-      </c>
-      <c r="Y22">
-        <v>13</v>
-      </c>
-      <c r="Z22">
-        <v>51</v>
-      </c>
       <c r="AA22">
+        <v>11</v>
+      </c>
+      <c r="AB22">
         <v>34</v>
       </c>
-      <c r="AB22">
-        <v>29</v>
-      </c>
       <c r="AC22">
+        <v>81</v>
+      </c>
+      <c r="AD22">
+        <v>6.5</v>
+      </c>
+      <c r="AE22">
+        <v>11</v>
+      </c>
+      <c r="AF22">
         <v>34</v>
-      </c>
-      <c r="AD22">
-        <v>151</v>
-      </c>
-      <c r="AE22">
-        <v>81</v>
-      </c>
-      <c r="AF22">
-        <v>81</v>
       </c>
       <c r="AG22">
         <v>101</v>
@@ -3042,100 +3030,100 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23">
+        <v>1.42</v>
+      </c>
+      <c r="I23">
+        <v>4.5</v>
+      </c>
+      <c r="J23">
+        <v>7.5</v>
+      </c>
+      <c r="K23">
+        <v>1.73</v>
+      </c>
+      <c r="L23">
+        <v>2.1</v>
+      </c>
+      <c r="M23">
+        <v>1.91</v>
+      </c>
+      <c r="N23">
+        <v>1.8</v>
+      </c>
+      <c r="O23">
+        <v>1.1</v>
+      </c>
+      <c r="P23">
+        <v>1.18</v>
+      </c>
+      <c r="Q23">
+        <v>2.75</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>41</v>
+      </c>
+      <c r="U23">
         <v>101</v>
       </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23">
-        <v>3.2</v>
-      </c>
-      <c r="I23">
-        <v>3.3</v>
-      </c>
-      <c r="J23">
-        <v>2.3</v>
-      </c>
-      <c r="K23">
-        <v>2.1</v>
-      </c>
-      <c r="L23">
-        <v>1.73</v>
-      </c>
-      <c r="M23">
-        <v>1.8</v>
-      </c>
-      <c r="N23">
-        <v>1.91</v>
-      </c>
-      <c r="O23">
-        <v>1.57</v>
-      </c>
-      <c r="P23">
-        <v>1.33</v>
-      </c>
-      <c r="Q23">
-        <v>1.36</v>
-      </c>
-      <c r="R23">
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="W23">
         <v>9</v>
       </c>
-      <c r="S23">
-        <v>8</v>
-      </c>
-      <c r="T23">
-        <v>11</v>
-      </c>
-      <c r="U23">
+      <c r="X23">
         <v>23</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
+        <v>51</v>
+      </c>
+      <c r="Z23">
+        <v>7</v>
+      </c>
+      <c r="AA23">
+        <v>8.5</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23">
+        <v>51</v>
+      </c>
+      <c r="AD23">
         <v>10</v>
       </c>
-      <c r="W23">
-        <v>6.5</v>
-      </c>
-      <c r="X23">
-        <v>10</v>
-      </c>
-      <c r="Y23">
-        <v>21</v>
-      </c>
-      <c r="Z23">
-        <v>17</v>
-      </c>
-      <c r="AA23">
-        <v>12</v>
-      </c>
-      <c r="AB23">
-        <v>15</v>
-      </c>
-      <c r="AC23">
-        <v>34</v>
-      </c>
-      <c r="AD23">
-        <v>34</v>
-      </c>
       <c r="AE23">
+        <v>13</v>
+      </c>
+      <c r="AF23">
         <v>29</v>
       </c>
-      <c r="AF23">
-        <v>41</v>
-      </c>
       <c r="AG23">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -3143,100 +3131,100 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H24">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="I24">
         <v>3.5</v>
       </c>
       <c r="J24">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L24">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="M24">
+        <v>1.67</v>
+      </c>
+      <c r="N24">
         <v>2.1</v>
       </c>
-      <c r="N24">
-        <v>1.67</v>
-      </c>
       <c r="O24">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P24">
         <v>1.29</v>
       </c>
       <c r="Q24">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R24">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="S24">
         <v>12</v>
       </c>
       <c r="T24">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="U24">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="V24">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <v>7</v>
       </c>
       <c r="X24">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y24">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Z24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA24">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB24">
+        <v>13</v>
+      </c>
+      <c r="AC24">
+        <v>34</v>
+      </c>
+      <c r="AD24">
         <v>21</v>
       </c>
-      <c r="AC24">
-        <v>51</v>
-      </c>
-      <c r="AD24">
-        <v>12</v>
-      </c>
       <c r="AE24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG24">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3244,100 +3232,100 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H25">
-        <v>1.14</v>
+        <v>2.4</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="J25">
-        <v>19</v>
+        <v>2.88</v>
       </c>
       <c r="K25">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="M25">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1.4</v>
+      </c>
+      <c r="P25">
+        <v>1.3</v>
+      </c>
+      <c r="Q25">
         <v>1.53</v>
       </c>
-      <c r="O25">
-        <v>1.02</v>
-      </c>
-      <c r="P25">
-        <v>1.08</v>
-      </c>
-      <c r="Q25">
-        <v>5.5</v>
-      </c>
       <c r="R25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S25">
+        <v>9.5</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>29</v>
+      </c>
+      <c r="V25">
+        <v>9</v>
+      </c>
+      <c r="W25">
+        <v>6.5</v>
+      </c>
+      <c r="X25">
+        <v>11</v>
+      </c>
+      <c r="Y25">
+        <v>23</v>
+      </c>
+      <c r="Z25">
+        <v>13</v>
+      </c>
+      <c r="AA25">
+        <v>10</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+      <c r="AC25">
         <v>34</v>
       </c>
-      <c r="T25">
-        <v>67</v>
-      </c>
-      <c r="U25">
-        <v>251</v>
-      </c>
-      <c r="V25">
-        <v>8.5</v>
-      </c>
-      <c r="W25">
-        <v>15</v>
-      </c>
-      <c r="X25">
-        <v>41</v>
-      </c>
-      <c r="Y25">
-        <v>101</v>
-      </c>
-      <c r="Z25">
-        <v>6</v>
-      </c>
-      <c r="AA25">
-        <v>11</v>
-      </c>
-      <c r="AB25">
-        <v>34</v>
-      </c>
-      <c r="AC25">
-        <v>81</v>
-      </c>
       <c r="AD25">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AE25">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF25">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG25">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3345,31 +3333,31 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H26">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J26">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>1.73</v>
@@ -3378,67 +3366,67 @@
         <v>2.1</v>
       </c>
       <c r="M26">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O26">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="P26">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Q26">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T26">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="U26">
+        <v>151</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26">
         <v>81</v>
       </c>
-      <c r="V26">
-        <v>7.5</v>
-      </c>
-      <c r="W26">
-        <v>9</v>
-      </c>
-      <c r="X26">
-        <v>23</v>
-      </c>
-      <c r="Y26">
-        <v>51</v>
-      </c>
       <c r="Z26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB26">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC26">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26">
         <v>13</v>
       </c>
       <c r="AF26">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG26">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3446,100 +3434,100 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H27">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="M27">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="O27">
+        <v>1.57</v>
+      </c>
+      <c r="P27">
         <v>1.33</v>
       </c>
-      <c r="P27">
-        <v>1.29</v>
-      </c>
       <c r="Q27">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="R27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T27">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>6.5</v>
+      </c>
+      <c r="X27">
         <v>9.5</v>
       </c>
-      <c r="W27">
-        <v>7</v>
-      </c>
-      <c r="X27">
-        <v>12</v>
-      </c>
       <c r="Y27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA27">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC27">
         <v>34</v>
       </c>
       <c r="AD27">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AE27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF27">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG27">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3547,100 +3535,100 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H28">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="M28">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="O28">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="P28">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Q28">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="R28">
+        <v>8.5</v>
+      </c>
+      <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
         <v>10</v>
       </c>
-      <c r="S28">
-        <v>10</v>
-      </c>
-      <c r="T28">
+      <c r="V28">
+        <v>13</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
         <v>15</v>
       </c>
-      <c r="U28">
+      <c r="Z28">
         <v>34</v>
       </c>
-      <c r="V28">
-        <v>9</v>
-      </c>
-      <c r="W28">
-        <v>6.5</v>
-      </c>
-      <c r="X28">
-        <v>11</v>
-      </c>
-      <c r="Y28">
+      <c r="AA28">
+        <v>21</v>
+      </c>
+      <c r="AB28">
         <v>23</v>
-      </c>
-      <c r="Z28">
-        <v>13</v>
-      </c>
-      <c r="AA28">
-        <v>10</v>
-      </c>
-      <c r="AB28">
-        <v>15</v>
       </c>
       <c r="AC28">
         <v>34</v>
       </c>
       <c r="AD28">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AE28">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AF28">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG28">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3648,100 +3636,100 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H29">
-        <v>1.29</v>
+        <v>2.7</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="K29">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="M29">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="N29">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="P29">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="Q29">
-        <v>3.5</v>
+        <v>1.44</v>
       </c>
       <c r="R29">
+        <v>7.5</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>13</v>
+      </c>
+      <c r="U29">
+        <v>29</v>
+      </c>
+      <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
         <v>12</v>
       </c>
-      <c r="S29">
-        <v>21</v>
-      </c>
-      <c r="T29">
+      <c r="Y29">
+        <v>26</v>
+      </c>
+      <c r="Z29">
+        <v>13</v>
+      </c>
+      <c r="AA29">
+        <v>11</v>
+      </c>
+      <c r="AB29">
+        <v>17</v>
+      </c>
+      <c r="AC29">
+        <v>41</v>
+      </c>
+      <c r="AD29">
+        <v>29</v>
+      </c>
+      <c r="AE29">
+        <v>26</v>
+      </c>
+      <c r="AF29">
+        <v>41</v>
+      </c>
+      <c r="AG29">
         <v>51</v>
-      </c>
-      <c r="U29">
-        <v>151</v>
-      </c>
-      <c r="V29">
-        <v>7</v>
-      </c>
-      <c r="W29">
-        <v>11</v>
-      </c>
-      <c r="X29">
-        <v>29</v>
-      </c>
-      <c r="Y29">
-        <v>81</v>
-      </c>
-      <c r="Z29">
-        <v>6</v>
-      </c>
-      <c r="AA29">
-        <v>10</v>
-      </c>
-      <c r="AB29">
-        <v>29</v>
-      </c>
-      <c r="AC29">
-        <v>67</v>
-      </c>
-      <c r="AD29">
-        <v>8</v>
-      </c>
-      <c r="AE29">
-        <v>13</v>
-      </c>
-      <c r="AF29">
-        <v>34</v>
-      </c>
-      <c r="AG29">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3749,94 +3737,94 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I30">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="J30">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="P30">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Q30">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="R30">
+        <v>13</v>
+      </c>
+      <c r="S30">
         <v>8</v>
       </c>
-      <c r="S30">
-        <v>7</v>
-      </c>
       <c r="T30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U30">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="V30">
+        <v>13</v>
+      </c>
+      <c r="W30">
         <v>8</v>
       </c>
-      <c r="W30">
-        <v>6.5</v>
-      </c>
       <c r="X30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z30">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB30">
         <v>17</v>
       </c>
       <c r="AC30">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD30">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AE30">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AF30">
         <v>41</v>
@@ -3850,100 +3838,100 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J31">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="N31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="P31">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q31">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
         <v>8.5</v>
       </c>
-      <c r="S31">
-        <v>5.5</v>
-      </c>
       <c r="T31">
+        <v>12</v>
+      </c>
+      <c r="U31">
+        <v>23</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
         <v>6.5</v>
       </c>
-      <c r="U31">
-        <v>11</v>
-      </c>
-      <c r="V31">
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>21</v>
+      </c>
+      <c r="Z31">
+        <v>17</v>
+      </c>
+      <c r="AA31">
         <v>12</v>
       </c>
-      <c r="W31">
-        <v>7.5</v>
-      </c>
-      <c r="X31">
-        <v>9</v>
-      </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>15</v>
       </c>
-      <c r="Z31">
+      <c r="AC31">
         <v>29</v>
       </c>
-      <c r="AA31">
-        <v>19</v>
-      </c>
-      <c r="AB31">
-        <v>21</v>
-      </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>34</v>
       </c>
-      <c r="AD31">
-        <v>67</v>
-      </c>
       <c r="AE31">
+        <v>26</v>
+      </c>
+      <c r="AF31">
+        <v>34</v>
+      </c>
+      <c r="AG31">
         <v>51</v>
-      </c>
-      <c r="AF31">
-        <v>51</v>
-      </c>
-      <c r="AG31">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -3951,100 +3939,100 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H32">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J32">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="K32">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="M32">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O32">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="P32">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="Q32">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="R32">
+        <v>17</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+      <c r="T32">
+        <v>7</v>
+      </c>
+      <c r="U32">
         <v>7.5</v>
       </c>
-      <c r="S32">
-        <v>8</v>
-      </c>
-      <c r="T32">
+      <c r="V32">
+        <v>29</v>
+      </c>
+      <c r="W32">
         <v>13</v>
       </c>
-      <c r="U32">
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>11</v>
+      </c>
+      <c r="Z32">
+        <v>51</v>
+      </c>
+      <c r="AA32">
+        <v>34</v>
+      </c>
+      <c r="AB32">
         <v>29</v>
       </c>
-      <c r="V32">
-        <v>8</v>
-      </c>
-      <c r="W32">
-        <v>6</v>
-      </c>
-      <c r="X32">
-        <v>12</v>
-      </c>
-      <c r="Y32">
-        <v>26</v>
-      </c>
-      <c r="Z32">
-        <v>13</v>
-      </c>
-      <c r="AA32">
-        <v>11</v>
-      </c>
-      <c r="AB32">
-        <v>17</v>
-      </c>
       <c r="AC32">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD32">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AE32">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AF32">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG32">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4052,100 +4040,100 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H33">
-        <v>4.33</v>
+        <v>1.67</v>
       </c>
       <c r="I33">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J33">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="K33">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="M33">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="P33">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q33">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33">
         <v>12</v>
       </c>
-      <c r="S33">
-        <v>8</v>
-      </c>
       <c r="T33">
+        <v>26</v>
+      </c>
+      <c r="U33">
+        <v>67</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>19</v>
+      </c>
+      <c r="Y33">
+        <v>51</v>
+      </c>
+      <c r="Z33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
         <v>9</v>
       </c>
-      <c r="U33">
+      <c r="AB33">
+        <v>19</v>
+      </c>
+      <c r="AC33">
+        <v>51</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33">
         <v>15</v>
       </c>
-      <c r="V33">
-        <v>13</v>
-      </c>
-      <c r="W33">
-        <v>7.5</v>
-      </c>
-      <c r="X33">
-        <v>9</v>
-      </c>
-      <c r="Y33">
-        <v>15</v>
-      </c>
-      <c r="Z33">
-        <v>23</v>
-      </c>
-      <c r="AA33">
-        <v>15</v>
-      </c>
-      <c r="AB33">
-        <v>17</v>
-      </c>
-      <c r="AC33">
-        <v>26</v>
-      </c>
-      <c r="AD33">
-        <v>51</v>
-      </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>34</v>
       </c>
-      <c r="AF33">
-        <v>41</v>
-      </c>
       <c r="AG33">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4153,97 +4141,97 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H34">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
         <v>2.3</v>
       </c>
-      <c r="K34">
-        <v>2.03</v>
-      </c>
       <c r="L34">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="M34">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O34">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="P34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q34">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S34">
+        <v>6.5</v>
+      </c>
+      <c r="T34">
         <v>8.5</v>
       </c>
-      <c r="T34">
-        <v>12</v>
-      </c>
       <c r="U34">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V34">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W34">
         <v>6.5</v>
       </c>
       <c r="X34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y34">
+        <v>17</v>
+      </c>
+      <c r="Z34">
         <v>19</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
+        <v>13</v>
+      </c>
+      <c r="AB34">
         <v>17</v>
       </c>
-      <c r="AA34">
-        <v>12</v>
-      </c>
-      <c r="AB34">
-        <v>15</v>
-      </c>
       <c r="AC34">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD34">
+        <v>41</v>
+      </c>
+      <c r="AE34">
         <v>34</v>
       </c>
-      <c r="AE34">
-        <v>26</v>
-      </c>
       <c r="AF34">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG34">
         <v>51</v>
@@ -4254,37 +4242,37 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
         <v>114</v>
       </c>
-      <c r="F35" t="s">
-        <v>141</v>
-      </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I35">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J35">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="L35">
-        <v>2.63</v>
+        <v>1.89</v>
       </c>
       <c r="M35">
         <v>2.1</v>
@@ -4293,58 +4281,58 @@
         <v>1.67</v>
       </c>
       <c r="O35">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="P35">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Q35">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="R35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
         <v>9</v>
       </c>
-      <c r="T35">
-        <v>7</v>
-      </c>
-      <c r="U35">
-        <v>7.5</v>
-      </c>
       <c r="V35">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W35">
+        <v>8.5</v>
+      </c>
+      <c r="X35">
+        <v>9</v>
+      </c>
+      <c r="Y35">
         <v>13</v>
       </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-      <c r="Y35">
-        <v>11</v>
-      </c>
       <c r="Z35">
+        <v>34</v>
+      </c>
+      <c r="AA35">
+        <v>21</v>
+      </c>
+      <c r="AB35">
+        <v>21</v>
+      </c>
+      <c r="AC35">
+        <v>34</v>
+      </c>
+      <c r="AD35">
+        <v>81</v>
+      </c>
+      <c r="AE35">
         <v>51</v>
       </c>
-      <c r="AA35">
-        <v>34</v>
-      </c>
-      <c r="AB35">
-        <v>29</v>
-      </c>
-      <c r="AC35">
-        <v>29</v>
-      </c>
-      <c r="AD35">
-        <v>201</v>
-      </c>
-      <c r="AE35">
-        <v>81</v>
-      </c>
       <c r="AF35">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG35">
         <v>81</v>
@@ -4355,100 +4343,100 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H36">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="I36">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J36">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="L36">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="N36">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="O36">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="P36">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="Q36">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="R36">
+        <v>15</v>
+      </c>
+      <c r="S36">
+        <v>26</v>
+      </c>
+      <c r="T36">
+        <v>67</v>
+      </c>
+      <c r="U36">
+        <v>201</v>
+      </c>
+      <c r="V36">
         <v>8</v>
       </c>
-      <c r="S36">
+      <c r="W36">
+        <v>15</v>
+      </c>
+      <c r="X36">
+        <v>34</v>
+      </c>
+      <c r="Y36">
+        <v>101</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+      <c r="AA36">
+        <v>11</v>
+      </c>
+      <c r="AB36">
+        <v>34</v>
+      </c>
+      <c r="AC36">
+        <v>81</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
         <v>12</v>
-      </c>
-      <c r="T36">
-        <v>26</v>
-      </c>
-      <c r="U36">
-        <v>67</v>
-      </c>
-      <c r="V36">
-        <v>6</v>
-      </c>
-      <c r="W36">
-        <v>7</v>
-      </c>
-      <c r="X36">
-        <v>19</v>
-      </c>
-      <c r="Y36">
-        <v>51</v>
-      </c>
-      <c r="Z36">
-        <v>7</v>
-      </c>
-      <c r="AA36">
-        <v>9</v>
-      </c>
-      <c r="AB36">
-        <v>19</v>
-      </c>
-      <c r="AC36">
-        <v>51</v>
-      </c>
-      <c r="AD36">
-        <v>12</v>
-      </c>
-      <c r="AE36">
-        <v>15</v>
       </c>
       <c r="AF36">
         <v>34</v>
       </c>
       <c r="AG36">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4456,100 +4444,100 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H37">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="I37">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J37">
+        <v>7.5</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>2.3</v>
-      </c>
       <c r="L37">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O37">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P37">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q37">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="R37">
+        <v>8.5</v>
+      </c>
+      <c r="S37">
+        <v>15</v>
+      </c>
+      <c r="T37">
+        <v>34</v>
+      </c>
+      <c r="U37">
+        <v>81</v>
+      </c>
+      <c r="V37">
+        <v>5.5</v>
+      </c>
+      <c r="W37">
         <v>8</v>
       </c>
-      <c r="S37">
-        <v>6.5</v>
-      </c>
-      <c r="T37">
-        <v>8.5</v>
-      </c>
-      <c r="U37">
-        <v>17</v>
-      </c>
-      <c r="V37">
+      <c r="X37">
+        <v>21</v>
+      </c>
+      <c r="Y37">
+        <v>51</v>
+      </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>9</v>
+      </c>
+      <c r="AB37">
+        <v>23</v>
+      </c>
+      <c r="AC37">
+        <v>67</v>
+      </c>
+      <c r="AD37">
         <v>9.5</v>
       </c>
-      <c r="W37">
-        <v>6.5</v>
-      </c>
-      <c r="X37">
-        <v>9</v>
-      </c>
-      <c r="Y37">
-        <v>17</v>
-      </c>
-      <c r="Z37">
-        <v>19</v>
-      </c>
-      <c r="AA37">
+      <c r="AE37">
         <v>13</v>
       </c>
-      <c r="AB37">
-        <v>17</v>
-      </c>
-      <c r="AC37">
+      <c r="AF37">
         <v>34</v>
       </c>
-      <c r="AD37">
-        <v>41</v>
-      </c>
-      <c r="AE37">
-        <v>34</v>
-      </c>
-      <c r="AF37">
-        <v>41</v>
-      </c>
       <c r="AG37">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4557,52 +4545,52 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J38">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="K38">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="L38">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O38">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q38">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="R38">
         <v>10</v>
@@ -4614,40 +4602,40 @@
         <v>6</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W38">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X38">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y38">
         <v>13</v>
       </c>
       <c r="Z38">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB38">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC38">
         <v>34</v>
       </c>
       <c r="AD38">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE38">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF38">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG38">
         <v>81</v>
@@ -4658,58 +4646,58 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="E39" t="s">
-        <v>121</v>
-      </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>4.83</v>
       </c>
       <c r="J39">
-        <v>13</v>
+        <v>9.85</v>
       </c>
       <c r="K39">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="L39">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M39">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O39">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P39">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>3.19</v>
       </c>
       <c r="R39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S39">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="T39">
         <v>51</v>
@@ -4718,40 +4706,40 @@
         <v>201</v>
       </c>
       <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>9</v>
+      </c>
+      <c r="X39">
+        <v>26</v>
+      </c>
+      <c r="Y39">
+        <v>126</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
         <v>8</v>
       </c>
-      <c r="W39">
-        <v>13</v>
-      </c>
-      <c r="X39">
-        <v>34</v>
-      </c>
-      <c r="Y39">
-        <v>101</v>
-      </c>
-      <c r="Z39">
-        <v>6</v>
-      </c>
-      <c r="AA39">
-        <v>11</v>
-      </c>
       <c r="AB39">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC39">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AD39">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE39">
         <v>12</v>
       </c>
       <c r="AF39">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AG39">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4759,100 +4747,100 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H40">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -4860,100 +4848,100 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>3.13</v>
       </c>
       <c r="I41">
-        <v>4.75</v>
+        <v>3.27</v>
       </c>
       <c r="J41">
-        <v>1.33</v>
+        <v>2.43</v>
       </c>
       <c r="K41">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="L41">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M41">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="N41">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="P41">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="Q41">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>7.5</v>
+      </c>
+      <c r="T41">
+        <v>11</v>
+      </c>
+      <c r="U41">
+        <v>26</v>
+      </c>
+      <c r="V41">
+        <v>7.5</v>
+      </c>
+      <c r="W41">
+        <v>5.5</v>
+      </c>
+      <c r="X41">
         <v>10</v>
       </c>
-      <c r="S41">
-        <v>6</v>
-      </c>
-      <c r="T41">
-        <v>6</v>
-      </c>
-      <c r="U41">
-        <v>8</v>
-      </c>
-      <c r="V41">
-        <v>17</v>
-      </c>
-      <c r="W41">
-        <v>9.5</v>
-      </c>
-      <c r="X41">
-        <v>9.5</v>
-      </c>
       <c r="Y41">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z41">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA41">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AB41">
+        <v>14</v>
+      </c>
+      <c r="AC41">
+        <v>36</v>
+      </c>
+      <c r="AD41">
+        <v>31</v>
+      </c>
+      <c r="AE41">
         <v>23</v>
       </c>
-      <c r="AC41">
-        <v>34</v>
-      </c>
-      <c r="AD41">
-        <v>101</v>
-      </c>
-      <c r="AE41">
-        <v>67</v>
-      </c>
       <c r="AF41">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AG41">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -4961,100 +4949,100 @@
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H42">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>9.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -5062,22 +5050,22 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -5163,100 +5151,100 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
         <v>98</v>
       </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H44">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -5264,22 +5252,22 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
         <v>98</v>
       </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
       <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
         <v>118</v>
       </c>
-      <c r="F45" t="s">
-        <v>117</v>
-      </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -5365,403 +5353,100 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AG46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" t="s">
-        <v>145</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49">
-        <v>3.54</v>
-      </c>
-      <c r="I49">
-        <v>3.32</v>
-      </c>
-      <c r="J49">
-        <v>2.21</v>
-      </c>
-      <c r="K49">
-        <v>2.38</v>
-      </c>
-      <c r="L49">
-        <v>1.62</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-      <c r="N49">
-        <v>1.77</v>
-      </c>
-      <c r="O49">
-        <v>1.7</v>
-      </c>
-      <c r="P49">
-        <v>1.35</v>
-      </c>
-      <c r="Q49">
-        <v>1.32</v>
-      </c>
-      <c r="R49">
-        <v>7</v>
-      </c>
-      <c r="S49">
-        <v>7</v>
-      </c>
-      <c r="T49">
-        <v>10</v>
-      </c>
-      <c r="U49">
-        <v>23</v>
-      </c>
-      <c r="V49">
-        <v>8</v>
-      </c>
-      <c r="W49">
-        <v>5.5</v>
-      </c>
-      <c r="X49">
-        <v>9.5</v>
-      </c>
-      <c r="Y49">
-        <v>20</v>
-      </c>
-      <c r="Z49">
-        <v>14</v>
-      </c>
-      <c r="AA49">
-        <v>11</v>
-      </c>
-      <c r="AB49">
-        <v>15</v>
-      </c>
-      <c r="AC49">
-        <v>34</v>
-      </c>
-      <c r="AD49">
-        <v>36</v>
-      </c>
-      <c r="AE49">
-        <v>26</v>
-      </c>
-      <c r="AF49">
-        <v>41</v>
-      </c>
-      <c r="AG49">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -115,18 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>2JRjtJcq</t>
-  </si>
-  <si>
-    <t>MPqOpakS</t>
-  </si>
-  <si>
-    <t>Egg3kNzc</t>
-  </si>
-  <si>
-    <t>2wIPXvcB</t>
-  </si>
-  <si>
     <t>hrTmblCs</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
@@ -313,124 +298,124 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
     <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Germany</t>
   </si>
   <si>
     <t>ROUND 2</t>
@@ -797,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,94 +894,94 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J2">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="M2">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="O2">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="P2">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q2">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
         <v>11</v>
       </c>
-      <c r="S2">
-        <v>7.5</v>
-      </c>
-      <c r="T2">
-        <v>8.5</v>
-      </c>
       <c r="U2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>6.5</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <v>17</v>
+      </c>
+      <c r="AA2">
+        <v>12</v>
+      </c>
+      <c r="AB2">
         <v>15</v>
       </c>
-      <c r="W2">
-        <v>7.5</v>
-      </c>
-      <c r="X2">
-        <v>9</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-      <c r="AA2">
-        <v>17</v>
-      </c>
-      <c r="AB2">
-        <v>17</v>
-      </c>
       <c r="AC2">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>34</v>
+      </c>
+      <c r="AE2">
         <v>29</v>
-      </c>
-      <c r="AD2">
-        <v>51</v>
-      </c>
-      <c r="AE2">
-        <v>41</v>
       </c>
       <c r="AF2">
         <v>41</v>
@@ -1010,70 +995,70 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H3">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N3">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O3">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q3">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="T3">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3">
         <v>9.5</v>
@@ -1082,28 +1067,28 @@
         <v>17</v>
       </c>
       <c r="Z3">
+        <v>21</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>17</v>
+      </c>
+      <c r="AC3">
         <v>29</v>
       </c>
-      <c r="AA3">
-        <v>19</v>
-      </c>
-      <c r="AB3">
-        <v>21</v>
-      </c>
-      <c r="AC3">
+      <c r="AD3">
+        <v>41</v>
+      </c>
+      <c r="AE3">
         <v>34</v>
       </c>
-      <c r="AD3">
-        <v>67</v>
-      </c>
-      <c r="AE3">
+      <c r="AF3">
+        <v>41</v>
+      </c>
+      <c r="AG3">
         <v>51</v>
-      </c>
-      <c r="AF3">
-        <v>51</v>
-      </c>
-      <c r="AG3">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1111,97 +1096,97 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H4">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
         <v>3.2</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="M4">
+        <v>1.8</v>
+      </c>
+      <c r="N4">
         <v>1.91</v>
       </c>
-      <c r="N4">
-        <v>1.8</v>
-      </c>
       <c r="O4">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
         <v>1.36</v>
       </c>
       <c r="Q4">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="R4">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>6.5</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>21</v>
+      </c>
+      <c r="Z4">
         <v>17</v>
       </c>
-      <c r="U4">
+      <c r="AA4">
+        <v>13</v>
+      </c>
+      <c r="AB4">
+        <v>15</v>
+      </c>
+      <c r="AC4">
+        <v>29</v>
+      </c>
+      <c r="AD4">
+        <v>34</v>
+      </c>
+      <c r="AE4">
+        <v>29</v>
+      </c>
+      <c r="AF4">
         <v>41</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>6</v>
-      </c>
-      <c r="X4">
-        <v>13</v>
-      </c>
-      <c r="Y4">
-        <v>34</v>
-      </c>
-      <c r="Z4">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
-      <c r="AB4">
-        <v>17</v>
-      </c>
-      <c r="AC4">
-        <v>41</v>
-      </c>
-      <c r="AD4">
-        <v>21</v>
-      </c>
-      <c r="AE4">
-        <v>21</v>
-      </c>
-      <c r="AF4">
-        <v>34</v>
       </c>
       <c r="AG4">
         <v>51</v>
@@ -1212,37 +1197,37 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H5">
-        <v>1.29</v>
+        <v>3.8</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="K5">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="L5">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="M5">
         <v>2.2</v>
@@ -1251,58 +1236,58 @@
         <v>1.62</v>
       </c>
       <c r="O5">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="P5">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="Q5">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="R5">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="S5">
+        <v>5.5</v>
+      </c>
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5">
         <v>21</v>
       </c>
-      <c r="T5">
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>5.5</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>23</v>
+      </c>
+      <c r="Z5">
+        <v>17</v>
+      </c>
+      <c r="AA5">
+        <v>15</v>
+      </c>
+      <c r="AB5">
+        <v>19</v>
+      </c>
+      <c r="AC5">
         <v>41</v>
       </c>
-      <c r="U5">
-        <v>126</v>
-      </c>
-      <c r="V5">
-        <v>6.5</v>
-      </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="X5">
-        <v>26</v>
-      </c>
-      <c r="Y5">
-        <v>67</v>
-      </c>
-      <c r="Z5">
-        <v>6</v>
-      </c>
-      <c r="AA5">
-        <v>8.5</v>
-      </c>
-      <c r="AB5">
-        <v>26</v>
-      </c>
-      <c r="AC5">
-        <v>67</v>
-      </c>
       <c r="AD5">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AF5">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG5">
         <v>81</v>
@@ -1313,37 +1298,37 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>3.7</v>
       </c>
-      <c r="I6">
-        <v>3.3</v>
-      </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L6">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="M6">
         <v>1.83</v>
@@ -1352,55 +1337,55 @@
         <v>1.83</v>
       </c>
       <c r="O6">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="P6">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q6">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>7.5</v>
+      </c>
+      <c r="T6">
         <v>8.5</v>
       </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
       <c r="U6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W6">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB6">
         <v>17</v>
       </c>
       <c r="AC6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD6">
+        <v>51</v>
+      </c>
+      <c r="AE6">
         <v>41</v>
-      </c>
-      <c r="AE6">
-        <v>34</v>
       </c>
       <c r="AF6">
         <v>41</v>
@@ -1414,97 +1399,97 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
         <v>134</v>
       </c>
-      <c r="G7" t="s">
-        <v>139</v>
-      </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I7">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J7">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="K7">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="L7">
+        <v>2.1</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
         <v>1.91</v>
       </c>
-      <c r="M7">
-        <v>1.73</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
       <c r="O7">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="P7">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q7">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>12</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
         <v>8.5</v>
       </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
-      <c r="U7">
-        <v>21</v>
-      </c>
-      <c r="V7">
-        <v>11</v>
-      </c>
-      <c r="W7">
-        <v>6.5</v>
-      </c>
       <c r="X7">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD7">
+        <v>67</v>
+      </c>
+      <c r="AE7">
         <v>41</v>
       </c>
-      <c r="AE7">
-        <v>29</v>
-      </c>
       <c r="AF7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG7">
         <v>51</v>
@@ -1515,100 +1500,100 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="I8">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J8">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="L8">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O8">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Q8">
-        <v>1.33</v>
+        <v>2.63</v>
       </c>
       <c r="R8">
+        <v>13</v>
+      </c>
+      <c r="S8">
+        <v>19</v>
+      </c>
+      <c r="T8">
+        <v>41</v>
+      </c>
+      <c r="U8">
+        <v>81</v>
+      </c>
+      <c r="V8">
+        <v>7.5</v>
+      </c>
+      <c r="W8">
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <v>21</v>
+      </c>
+      <c r="Y8">
+        <v>51</v>
+      </c>
+      <c r="Z8">
+        <v>7.5</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>21</v>
+      </c>
+      <c r="AC8">
+        <v>51</v>
+      </c>
+      <c r="AD8">
         <v>10</v>
       </c>
-      <c r="S8">
-        <v>8.5</v>
-      </c>
-      <c r="T8">
-        <v>11</v>
-      </c>
-      <c r="U8">
-        <v>21</v>
-      </c>
-      <c r="V8">
-        <v>11</v>
-      </c>
-      <c r="W8">
-        <v>6.5</v>
-      </c>
-      <c r="X8">
-        <v>9.5</v>
-      </c>
-      <c r="Y8">
-        <v>19</v>
-      </c>
-      <c r="Z8">
-        <v>17</v>
-      </c>
-      <c r="AA8">
-        <v>12</v>
-      </c>
-      <c r="AB8">
-        <v>15</v>
-      </c>
-      <c r="AC8">
-        <v>29</v>
-      </c>
-      <c r="AD8">
-        <v>41</v>
-      </c>
       <c r="AE8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AF8">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG8">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1616,100 +1601,100 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H9">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="P9">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q9">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="S9">
+        <v>9.5</v>
+      </c>
+      <c r="T9">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <v>51</v>
+      </c>
+      <c r="V9">
         <v>5.5</v>
       </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+      <c r="Y9">
+        <v>41</v>
+      </c>
+      <c r="Z9">
+        <v>7.5</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>21</v>
+      </c>
+      <c r="AC9">
+        <v>51</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+      <c r="AE9">
         <v>17</v>
       </c>
-      <c r="V9">
-        <v>9</v>
-      </c>
-      <c r="W9">
-        <v>6</v>
-      </c>
-      <c r="X9">
-        <v>9.5</v>
-      </c>
-      <c r="Y9">
-        <v>19</v>
-      </c>
-      <c r="Z9">
-        <v>19</v>
-      </c>
-      <c r="AA9">
-        <v>15</v>
-      </c>
-      <c r="AB9">
-        <v>19</v>
-      </c>
-      <c r="AC9">
-        <v>41</v>
-      </c>
-      <c r="AD9">
-        <v>41</v>
-      </c>
-      <c r="AE9">
-        <v>41</v>
-      </c>
       <c r="AF9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG9">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1717,100 +1702,100 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="I10">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J10">
-        <v>1.73</v>
+        <v>5.75</v>
       </c>
       <c r="K10">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M10">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O10">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="P10">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q10">
-        <v>1.17</v>
+        <v>2.3</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="S10">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="T10">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="U10">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="V10">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="W10">
         <v>7.5</v>
       </c>
       <c r="X10">
+        <v>17</v>
+      </c>
+      <c r="Y10">
+        <v>51</v>
+      </c>
+      <c r="Z10">
+        <v>6.5</v>
+      </c>
+      <c r="AA10">
         <v>9</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
+        <v>21</v>
+      </c>
+      <c r="AC10">
+        <v>51</v>
+      </c>
+      <c r="AD10">
+        <v>11</v>
+      </c>
+      <c r="AE10">
         <v>15</v>
       </c>
-      <c r="Z10">
-        <v>26</v>
-      </c>
-      <c r="AA10">
-        <v>17</v>
-      </c>
-      <c r="AB10">
-        <v>17</v>
-      </c>
-      <c r="AC10">
-        <v>29</v>
-      </c>
-      <c r="AD10">
-        <v>51</v>
-      </c>
-      <c r="AE10">
-        <v>41</v>
-      </c>
       <c r="AF10">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG10">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1818,31 +1803,31 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J11">
-        <v>1.57</v>
+        <v>2.45</v>
       </c>
       <c r="K11">
         <v>1.73</v>
@@ -1851,67 +1836,67 @@
         <v>2.1</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="N11">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q11">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
+        <v>15</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>26</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>7.5</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>19</v>
+      </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
+      <c r="AA11">
+        <v>11</v>
+      </c>
+      <c r="AB11">
         <v>13</v>
-      </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <v>12</v>
-      </c>
-      <c r="V11">
-        <v>17</v>
-      </c>
-      <c r="W11">
-        <v>8.5</v>
-      </c>
-      <c r="X11">
-        <v>8.5</v>
-      </c>
-      <c r="Y11">
-        <v>13</v>
-      </c>
-      <c r="Z11">
-        <v>29</v>
-      </c>
-      <c r="AA11">
-        <v>17</v>
-      </c>
-      <c r="AB11">
-        <v>17</v>
       </c>
       <c r="AC11">
         <v>26</v>
       </c>
       <c r="AD11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AE11">
+        <v>21</v>
+      </c>
+      <c r="AF11">
+        <v>26</v>
+      </c>
+      <c r="AG11">
         <v>41</v>
-      </c>
-      <c r="AF11">
-        <v>41</v>
-      </c>
-      <c r="AG11">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1919,100 +1904,100 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
-        <v>139</v>
-      </c>
       <c r="H12">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="K12">
+        <v>1.8</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <v>1.73</v>
       </c>
-      <c r="L12">
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>2.1</v>
       </c>
-      <c r="M12">
-        <v>1.83</v>
-      </c>
-      <c r="N12">
-        <v>1.83</v>
-      </c>
-      <c r="O12">
-        <v>1.1</v>
-      </c>
       <c r="P12">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q12">
-        <v>2.63</v>
+        <v>1.17</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>7.5</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>15</v>
+      </c>
+      <c r="Z12">
+        <v>29</v>
+      </c>
+      <c r="AA12">
+        <v>17</v>
+      </c>
+      <c r="AB12">
+        <v>15</v>
+      </c>
+      <c r="AC12">
+        <v>26</v>
+      </c>
+      <c r="AD12">
+        <v>51</v>
+      </c>
+      <c r="AE12">
         <v>41</v>
       </c>
-      <c r="U12">
-        <v>81</v>
-      </c>
-      <c r="V12">
-        <v>7.5</v>
-      </c>
-      <c r="W12">
-        <v>9</v>
-      </c>
-      <c r="X12">
-        <v>21</v>
-      </c>
-      <c r="Y12">
+      <c r="AF12">
+        <v>41</v>
+      </c>
+      <c r="AG12">
         <v>51</v>
-      </c>
-      <c r="Z12">
-        <v>7.5</v>
-      </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>21</v>
-      </c>
-      <c r="AC12">
-        <v>51</v>
-      </c>
-      <c r="AD12">
-        <v>10</v>
-      </c>
-      <c r="AE12">
-        <v>13</v>
-      </c>
-      <c r="AF12">
-        <v>26</v>
-      </c>
-      <c r="AG12">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2020,100 +2005,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H13">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="J13">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="K13">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="L13">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="Q13">
-        <v>1.95</v>
+        <v>4.33</v>
       </c>
       <c r="R13">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="S13">
+        <v>29</v>
+      </c>
+      <c r="T13">
+        <v>67</v>
+      </c>
+      <c r="U13">
+        <v>251</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="Y13">
+        <v>126</v>
+      </c>
+      <c r="Z13">
+        <v>5.5</v>
+      </c>
+      <c r="AA13">
         <v>10</v>
       </c>
-      <c r="T13">
-        <v>21</v>
-      </c>
-      <c r="U13">
-        <v>51</v>
-      </c>
-      <c r="V13">
-        <v>5.5</v>
-      </c>
-      <c r="W13">
-        <v>7</v>
-      </c>
-      <c r="X13">
-        <v>15</v>
-      </c>
-      <c r="Y13">
+      <c r="AB13">
+        <v>34</v>
+      </c>
+      <c r="AC13">
+        <v>101</v>
+      </c>
+      <c r="AD13">
+        <v>6.5</v>
+      </c>
+      <c r="AE13">
+        <v>12</v>
+      </c>
+      <c r="AF13">
         <v>41</v>
       </c>
-      <c r="Z13">
-        <v>7.5</v>
-      </c>
-      <c r="AA13">
-        <v>9</v>
-      </c>
-      <c r="AB13">
-        <v>21</v>
-      </c>
-      <c r="AC13">
-        <v>51</v>
-      </c>
-      <c r="AD13">
-        <v>13</v>
-      </c>
-      <c r="AE13">
-        <v>17</v>
-      </c>
-      <c r="AF13">
-        <v>34</v>
-      </c>
       <c r="AG13">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2121,94 +2106,94 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H14">
+        <v>1.33</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1.75</v>
+      </c>
+      <c r="L14">
+        <v>2.05</v>
+      </c>
+      <c r="M14">
+        <v>2.2</v>
+      </c>
+      <c r="N14">
         <v>1.62</v>
       </c>
-      <c r="I14">
-        <v>3.8</v>
-      </c>
-      <c r="J14">
-        <v>5.75</v>
-      </c>
-      <c r="K14">
-        <v>2.15</v>
-      </c>
-      <c r="L14">
-        <v>1.67</v>
-      </c>
-      <c r="M14">
-        <v>2.1</v>
-      </c>
-      <c r="N14">
-        <v>1.67</v>
-      </c>
       <c r="O14">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Q14">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="S14">
+        <v>21</v>
+      </c>
+      <c r="T14">
+        <v>41</v>
+      </c>
+      <c r="U14">
+        <v>126</v>
+      </c>
+      <c r="V14">
+        <v>6.5</v>
+      </c>
+      <c r="W14">
+        <v>9.5</v>
+      </c>
+      <c r="X14">
+        <v>26</v>
+      </c>
+      <c r="Y14">
+        <v>67</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>9.5</v>
+      </c>
+      <c r="AB14">
+        <v>23</v>
+      </c>
+      <c r="AC14">
+        <v>67</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
         <v>12</v>
-      </c>
-      <c r="T14">
-        <v>29</v>
-      </c>
-      <c r="U14">
-        <v>67</v>
-      </c>
-      <c r="V14">
-        <v>5.5</v>
-      </c>
-      <c r="W14">
-        <v>7.5</v>
-      </c>
-      <c r="X14">
-        <v>19</v>
-      </c>
-      <c r="Y14">
-        <v>51</v>
-      </c>
-      <c r="Z14">
-        <v>6.5</v>
-      </c>
-      <c r="AA14">
-        <v>9</v>
-      </c>
-      <c r="AB14">
-        <v>21</v>
-      </c>
-      <c r="AC14">
-        <v>51</v>
-      </c>
-      <c r="AD14">
-        <v>11</v>
-      </c>
-      <c r="AE14">
-        <v>15</v>
       </c>
       <c r="AF14">
         <v>34</v>
@@ -2222,31 +2207,31 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H15">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="I15">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J15">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="K15">
         <v>1.73</v>
@@ -2255,67 +2240,67 @@
         <v>2.1</v>
       </c>
       <c r="M15">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="P15">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Q15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="R15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S15">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="T15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AB15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD15">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AE15">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AF15">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG15">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2323,100 +2308,100 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H16">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J16">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="M16">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q16">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
         <v>12</v>
       </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-      <c r="T16">
-        <v>9</v>
-      </c>
       <c r="U16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W16">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z16">
+        <v>17</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>29</v>
+      </c>
+      <c r="AD16">
+        <v>34</v>
+      </c>
+      <c r="AE16">
         <v>26</v>
       </c>
-      <c r="AA16">
-        <v>17</v>
-      </c>
-      <c r="AB16">
-        <v>15</v>
-      </c>
-      <c r="AC16">
-        <v>26</v>
-      </c>
-      <c r="AD16">
-        <v>51</v>
-      </c>
-      <c r="AE16">
+      <c r="AF16">
+        <v>34</v>
+      </c>
+      <c r="AG16">
         <v>41</v>
-      </c>
-      <c r="AF16">
-        <v>41</v>
-      </c>
-      <c r="AG16">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2424,100 +2409,100 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17">
+        <v>1.65</v>
+      </c>
+      <c r="I17">
+        <v>3.6</v>
+      </c>
+      <c r="J17">
+        <v>5.75</v>
+      </c>
+      <c r="K17">
+        <v>2.25</v>
+      </c>
+      <c r="L17">
+        <v>1.62</v>
+      </c>
+      <c r="M17">
+        <v>2.2</v>
+      </c>
+      <c r="N17">
+        <v>1.62</v>
+      </c>
+      <c r="O17">
+        <v>1.14</v>
+      </c>
+      <c r="P17">
+        <v>1.29</v>
+      </c>
+      <c r="Q17">
+        <v>2.2</v>
+      </c>
+      <c r="R17">
+        <v>7.5</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>26</v>
+      </c>
+      <c r="U17">
+        <v>67</v>
+      </c>
+      <c r="V17">
+        <v>5.5</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>19</v>
+      </c>
+      <c r="Y17">
+        <v>51</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>9</v>
+      </c>
+      <c r="AB17">
+        <v>21</v>
+      </c>
+      <c r="AC17">
+        <v>51</v>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17">
+        <v>34</v>
+      </c>
+      <c r="AG17">
         <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17">
-        <v>1.2</v>
-      </c>
-      <c r="I17">
-        <v>6.25</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>1.62</v>
-      </c>
-      <c r="L17">
-        <v>2.25</v>
-      </c>
-      <c r="M17">
-        <v>2.5</v>
-      </c>
-      <c r="N17">
-        <v>1.5</v>
-      </c>
-      <c r="O17">
-        <v>1.03</v>
-      </c>
-      <c r="P17">
-        <v>1.13</v>
-      </c>
-      <c r="Q17">
-        <v>4.33</v>
-      </c>
-      <c r="R17">
-        <v>12</v>
-      </c>
-      <c r="S17">
-        <v>29</v>
-      </c>
-      <c r="T17">
-        <v>67</v>
-      </c>
-      <c r="U17">
-        <v>251</v>
-      </c>
-      <c r="V17">
-        <v>7</v>
-      </c>
-      <c r="W17">
-        <v>12</v>
-      </c>
-      <c r="X17">
-        <v>41</v>
-      </c>
-      <c r="Y17">
-        <v>126</v>
-      </c>
-      <c r="Z17">
-        <v>5.5</v>
-      </c>
-      <c r="AA17">
-        <v>10</v>
-      </c>
-      <c r="AB17">
-        <v>34</v>
-      </c>
-      <c r="AC17">
-        <v>101</v>
-      </c>
-      <c r="AD17">
-        <v>6.5</v>
-      </c>
-      <c r="AE17">
-        <v>12</v>
-      </c>
-      <c r="AF17">
-        <v>41</v>
-      </c>
-      <c r="AG17">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2525,100 +2510,100 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K18">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="L18">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P18">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="Q18">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="R18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S18">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T18">
+        <v>67</v>
+      </c>
+      <c r="U18">
+        <v>251</v>
+      </c>
+      <c r="V18">
+        <v>8.5</v>
+      </c>
+      <c r="W18">
+        <v>15</v>
+      </c>
+      <c r="X18">
         <v>41</v>
       </c>
-      <c r="U18">
-        <v>126</v>
-      </c>
-      <c r="V18">
-        <v>6.5</v>
-      </c>
-      <c r="W18">
-        <v>9.5</v>
-      </c>
-      <c r="X18">
-        <v>26</v>
-      </c>
       <c r="Y18">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="Z18">
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB18">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC18">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD18">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18">
         <v>34</v>
       </c>
       <c r="AG18">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2626,100 +2611,100 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>1.42</v>
       </c>
       <c r="I19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="K19">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="L19">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="P19">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Q19">
-        <v>1.05</v>
+        <v>2.75</v>
       </c>
       <c r="R19">
         <v>12</v>
       </c>
       <c r="S19">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="T19">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="U19">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="V19">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>51</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>8.5</v>
+      </c>
+      <c r="AB19">
+        <v>21</v>
+      </c>
+      <c r="AC19">
+        <v>51</v>
+      </c>
+      <c r="AD19">
         <v>10</v>
       </c>
-      <c r="X19">
-        <v>9.5</v>
-      </c>
-      <c r="Y19">
-        <v>12</v>
-      </c>
-      <c r="Z19">
-        <v>51</v>
-      </c>
-      <c r="AA19">
-        <v>34</v>
-      </c>
-      <c r="AB19">
-        <v>23</v>
-      </c>
-      <c r="AC19">
-        <v>34</v>
-      </c>
-      <c r="AD19">
-        <v>151</v>
-      </c>
       <c r="AE19">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="AF19">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AG19">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2727,37 +2712,37 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H20">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="I20">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J20">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K20">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>1.67</v>
@@ -2766,58 +2751,58 @@
         <v>2.1</v>
       </c>
       <c r="O20">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="P20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q20">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="R20">
+        <v>12</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>41</v>
+      </c>
+      <c r="V20">
+        <v>9</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>12</v>
+      </c>
+      <c r="Y20">
+        <v>26</v>
+      </c>
+      <c r="Z20">
         <v>11</v>
       </c>
-      <c r="S20">
-        <v>9</v>
-      </c>
-      <c r="T20">
-        <v>12</v>
-      </c>
-      <c r="U20">
-        <v>23</v>
-      </c>
-      <c r="V20">
-        <v>11</v>
-      </c>
-      <c r="W20">
-        <v>6.5</v>
-      </c>
-      <c r="X20">
+      <c r="AA20">
         <v>9.5</v>
-      </c>
-      <c r="Y20">
-        <v>19</v>
-      </c>
-      <c r="Z20">
-        <v>17</v>
-      </c>
-      <c r="AA20">
-        <v>12</v>
       </c>
       <c r="AB20">
         <v>13</v>
       </c>
       <c r="AC20">
+        <v>34</v>
+      </c>
+      <c r="AD20">
+        <v>21</v>
+      </c>
+      <c r="AE20">
+        <v>17</v>
+      </c>
+      <c r="AF20">
         <v>26</v>
-      </c>
-      <c r="AD20">
-        <v>34</v>
-      </c>
-      <c r="AE20">
-        <v>26</v>
-      </c>
-      <c r="AF20">
-        <v>34</v>
       </c>
       <c r="AG20">
         <v>41</v>
@@ -2828,100 +2813,100 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H21">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="I21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J21">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L21">
+        <v>2.05</v>
+      </c>
+      <c r="M21">
         <v>1.62</v>
       </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
       <c r="N21">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="O21">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="P21">
         <v>1.29</v>
       </c>
       <c r="Q21">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="R21">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T21">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U21">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="V21">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="W21">
         <v>7</v>
       </c>
       <c r="X21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y21">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Z21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA21">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21">
+        <v>13</v>
+      </c>
+      <c r="AC21">
+        <v>29</v>
+      </c>
+      <c r="AD21">
         <v>21</v>
       </c>
-      <c r="AC21">
-        <v>51</v>
-      </c>
-      <c r="AD21">
-        <v>12</v>
-      </c>
       <c r="AE21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG21">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2929,100 +2914,100 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H22">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="J22">
+        <v>9.5</v>
+      </c>
+      <c r="K22">
+        <v>1.85</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2.2</v>
+      </c>
+      <c r="N22">
+        <v>1.62</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>1.18</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>11</v>
+      </c>
+      <c r="S22">
         <v>19</v>
       </c>
-      <c r="K22">
-        <v>1.48</v>
-      </c>
-      <c r="L22">
-        <v>2.6</v>
-      </c>
-      <c r="M22">
-        <v>2.25</v>
-      </c>
-      <c r="N22">
-        <v>1.57</v>
-      </c>
-      <c r="O22">
-        <v>1.02</v>
-      </c>
-      <c r="P22">
-        <v>1.08</v>
-      </c>
-      <c r="Q22">
-        <v>5.5</v>
-      </c>
-      <c r="R22">
-        <v>17</v>
-      </c>
-      <c r="S22">
-        <v>34</v>
-      </c>
       <c r="T22">
+        <v>41</v>
+      </c>
+      <c r="U22">
+        <v>101</v>
+      </c>
+      <c r="V22">
+        <v>6.5</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>26</v>
+      </c>
+      <c r="Y22">
         <v>67</v>
       </c>
-      <c r="U22">
-        <v>251</v>
-      </c>
-      <c r="V22">
-        <v>8.5</v>
-      </c>
-      <c r="W22">
-        <v>15</v>
-      </c>
-      <c r="X22">
-        <v>41</v>
-      </c>
-      <c r="Y22">
-        <v>101</v>
-      </c>
       <c r="Z22">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA22">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB22">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC22">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD22">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF22">
         <v>34</v>
       </c>
       <c r="AG22">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3030,100 +3015,100 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H23">
-        <v>1.42</v>
+        <v>2.9</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J23">
-        <v>7.5</v>
+        <v>2.38</v>
       </c>
       <c r="K23">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="M23">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
         <v>1.8</v>
       </c>
       <c r="O23">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="P23">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="Q23">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="R23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <v>8</v>
+      </c>
+      <c r="W23">
+        <v>6.5</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
         <v>21</v>
       </c>
-      <c r="T23">
+      <c r="Z23">
+        <v>13</v>
+      </c>
+      <c r="AA23">
+        <v>11</v>
+      </c>
+      <c r="AB23">
+        <v>17</v>
+      </c>
+      <c r="AC23">
+        <v>34</v>
+      </c>
+      <c r="AD23">
+        <v>34</v>
+      </c>
+      <c r="AE23">
+        <v>26</v>
+      </c>
+      <c r="AF23">
         <v>41</v>
       </c>
-      <c r="U23">
-        <v>101</v>
-      </c>
-      <c r="V23">
-        <v>7</v>
-      </c>
-      <c r="W23">
-        <v>9</v>
-      </c>
-      <c r="X23">
-        <v>23</v>
-      </c>
-      <c r="Y23">
+      <c r="AG23">
         <v>51</v>
-      </c>
-      <c r="Z23">
-        <v>7</v>
-      </c>
-      <c r="AA23">
-        <v>8.5</v>
-      </c>
-      <c r="AB23">
-        <v>21</v>
-      </c>
-      <c r="AC23">
-        <v>51</v>
-      </c>
-      <c r="AD23">
-        <v>10</v>
-      </c>
-      <c r="AE23">
-        <v>13</v>
-      </c>
-      <c r="AF23">
-        <v>29</v>
-      </c>
-      <c r="AG23">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -3131,100 +3116,100 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
         <v>134</v>
       </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
       <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>1.5</v>
+      </c>
+      <c r="K24">
         <v>2.1</v>
       </c>
-      <c r="I24">
-        <v>3.5</v>
-      </c>
-      <c r="J24">
-        <v>3.4</v>
-      </c>
-      <c r="K24">
-        <v>1.8</v>
-      </c>
       <c r="L24">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="M24">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="O24">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="P24">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Q24">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="R24">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="S24">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="T24">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="V24">
+        <v>13</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
         <v>9</v>
       </c>
-      <c r="W24">
-        <v>7</v>
-      </c>
-      <c r="X24">
-        <v>12</v>
-      </c>
       <c r="Y24">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z24">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AA24">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AB24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC24">
         <v>34</v>
       </c>
       <c r="AD24">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AE24">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AF24">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG24">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3232,97 +3217,97 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="I25">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J25">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="M25">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O25">
         <v>1.4</v>
       </c>
       <c r="P25">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q25">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="S25">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="T25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U25">
         <v>29</v>
       </c>
       <c r="V25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W25">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z25">
         <v>13</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD25">
+        <v>29</v>
+      </c>
+      <c r="AE25">
         <v>26</v>
       </c>
-      <c r="AE25">
-        <v>21</v>
-      </c>
       <c r="AF25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG25">
         <v>51</v>
@@ -3333,100 +3318,100 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H26">
-        <v>1.29</v>
+        <v>4.33</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="K26">
+        <v>1.8</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
         <v>1.73</v>
       </c>
-      <c r="L26">
-        <v>2.1</v>
-      </c>
-      <c r="M26">
-        <v>2.2</v>
-      </c>
       <c r="N26">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Q26">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="R26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S26">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="T26">
+        <v>9</v>
+      </c>
+      <c r="U26">
+        <v>15</v>
+      </c>
+      <c r="V26">
+        <v>13</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>15</v>
+      </c>
+      <c r="Z26">
+        <v>23</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26">
+        <v>17</v>
+      </c>
+      <c r="AC26">
+        <v>26</v>
+      </c>
+      <c r="AD26">
         <v>51</v>
       </c>
-      <c r="U26">
-        <v>151</v>
-      </c>
-      <c r="V26">
-        <v>7</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
-      </c>
-      <c r="X26">
-        <v>29</v>
-      </c>
-      <c r="Y26">
-        <v>81</v>
-      </c>
-      <c r="Z26">
-        <v>6</v>
-      </c>
-      <c r="AA26">
-        <v>10</v>
-      </c>
-      <c r="AB26">
-        <v>29</v>
-      </c>
-      <c r="AC26">
-        <v>67</v>
-      </c>
-      <c r="AD26">
-        <v>8</v>
-      </c>
       <c r="AE26">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AF26">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG26">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3434,22 +3419,22 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3458,22 +3443,22 @@
         <v>3.3</v>
       </c>
       <c r="J27">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="M27">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="N27">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P27">
         <v>1.33</v>
@@ -3482,40 +3467,40 @@
         <v>1.36</v>
       </c>
       <c r="R27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="T27">
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <v>23</v>
+      </c>
+      <c r="V27">
         <v>10</v>
-      </c>
-      <c r="U27">
-        <v>21</v>
-      </c>
-      <c r="V27">
-        <v>8</v>
       </c>
       <c r="W27">
         <v>6.5</v>
       </c>
       <c r="X27">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>21</v>
       </c>
       <c r="Z27">
+        <v>17</v>
+      </c>
+      <c r="AA27">
+        <v>12</v>
+      </c>
+      <c r="AB27">
         <v>15</v>
       </c>
-      <c r="AA27">
-        <v>11</v>
-      </c>
-      <c r="AB27">
-        <v>17</v>
-      </c>
       <c r="AC27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD27">
         <v>34</v>
@@ -3524,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="AF27">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG27">
         <v>51</v>
@@ -3535,97 +3520,97 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>6.5</v>
+      </c>
+      <c r="J28">
+        <v>1.22</v>
+      </c>
+      <c r="K28">
+        <v>1.5</v>
+      </c>
+      <c r="L28">
+        <v>2.63</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1.73</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>1.11</v>
+      </c>
+      <c r="Q28">
+        <v>1.04</v>
+      </c>
+      <c r="R28">
+        <v>17</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28">
         <v>7</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>1.5</v>
-      </c>
-      <c r="K28">
-        <v>2.1</v>
-      </c>
-      <c r="L28">
-        <v>1.73</v>
-      </c>
-      <c r="M28">
-        <v>2.2</v>
-      </c>
-      <c r="N28">
-        <v>1.58</v>
-      </c>
-      <c r="O28">
-        <v>2.5</v>
-      </c>
-      <c r="P28">
-        <v>1.22</v>
-      </c>
-      <c r="Q28">
-        <v>1.1</v>
-      </c>
-      <c r="R28">
-        <v>8.5</v>
-      </c>
-      <c r="S28">
-        <v>5.5</v>
-      </c>
-      <c r="T28">
-        <v>6</v>
-      </c>
       <c r="U28">
+        <v>8</v>
+      </c>
+      <c r="V28">
+        <v>29</v>
+      </c>
+      <c r="W28">
+        <v>13</v>
+      </c>
+      <c r="X28">
         <v>10</v>
       </c>
-      <c r="V28">
-        <v>13</v>
-      </c>
-      <c r="W28">
-        <v>8</v>
-      </c>
-      <c r="X28">
-        <v>9</v>
-      </c>
       <c r="Y28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z28">
+        <v>51</v>
+      </c>
+      <c r="AA28">
         <v>34</v>
       </c>
-      <c r="AA28">
-        <v>21</v>
-      </c>
       <c r="AB28">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD28">
+        <v>151</v>
+      </c>
+      <c r="AE28">
         <v>81</v>
       </c>
-      <c r="AE28">
-        <v>51</v>
-      </c>
       <c r="AF28">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28">
         <v>81</v>
@@ -3636,100 +3621,100 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H29">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="J29">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="K29">
+        <v>2.2</v>
+      </c>
+      <c r="L29">
+        <v>1.67</v>
+      </c>
+      <c r="M29">
+        <v>2.1</v>
+      </c>
+      <c r="N29">
+        <v>1.67</v>
+      </c>
+      <c r="O29">
+        <v>1.13</v>
+      </c>
+      <c r="P29">
+        <v>1.29</v>
+      </c>
+      <c r="Q29">
         <v>2.3</v>
       </c>
-      <c r="L29">
-        <v>1.62</v>
-      </c>
-      <c r="M29">
-        <v>1.91</v>
-      </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>1.4</v>
-      </c>
-      <c r="P29">
-        <v>1.36</v>
-      </c>
-      <c r="Q29">
-        <v>1.44</v>
-      </c>
       <c r="R29">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T29">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="V29">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="W29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y29">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="Z29">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <v>21</v>
+      </c>
+      <c r="AC29">
+        <v>51</v>
+      </c>
+      <c r="AD29">
         <v>11</v>
       </c>
-      <c r="AB29">
-        <v>17</v>
-      </c>
-      <c r="AC29">
-        <v>41</v>
-      </c>
-      <c r="AD29">
-        <v>29</v>
-      </c>
       <c r="AE29">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF29">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG29">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3737,94 +3722,94 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H30">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I30">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
+        <v>2.1</v>
+      </c>
+      <c r="K30">
+        <v>2.3</v>
+      </c>
+      <c r="L30">
+        <v>1.62</v>
+      </c>
+      <c r="M30">
+        <v>1.95</v>
+      </c>
+      <c r="N30">
+        <v>1.8</v>
+      </c>
+      <c r="O30">
         <v>1.7</v>
       </c>
-      <c r="K30">
-        <v>1.8</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>1.73</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>2.1</v>
-      </c>
       <c r="P30">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="Q30">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="R30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S30">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="T30">
         <v>9</v>
       </c>
       <c r="U30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V30">
+        <v>9</v>
+      </c>
+      <c r="W30">
+        <v>6.5</v>
+      </c>
+      <c r="X30">
+        <v>9.5</v>
+      </c>
+      <c r="Y30">
+        <v>19</v>
+      </c>
+      <c r="Z30">
+        <v>17</v>
+      </c>
+      <c r="AA30">
         <v>13</v>
-      </c>
-      <c r="W30">
-        <v>8</v>
-      </c>
-      <c r="X30">
-        <v>9</v>
-      </c>
-      <c r="Y30">
-        <v>15</v>
-      </c>
-      <c r="Z30">
-        <v>26</v>
-      </c>
-      <c r="AA30">
-        <v>15</v>
       </c>
       <c r="AB30">
         <v>17</v>
       </c>
       <c r="AC30">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD30">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE30">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF30">
         <v>41</v>
@@ -3838,100 +3823,100 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J31">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="L31">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="M31">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="O31">
-        <v>1.53</v>
+        <v>2.63</v>
       </c>
       <c r="P31">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="Q31">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="R31">
         <v>10</v>
       </c>
       <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>9</v>
+      </c>
+      <c r="V31">
+        <v>15</v>
+      </c>
+      <c r="W31">
         <v>8.5</v>
       </c>
-      <c r="T31">
-        <v>12</v>
-      </c>
-      <c r="U31">
-        <v>23</v>
-      </c>
-      <c r="V31">
-        <v>10</v>
-      </c>
-      <c r="W31">
-        <v>6.5</v>
-      </c>
       <c r="X31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y31">
+        <v>13</v>
+      </c>
+      <c r="Z31">
+        <v>34</v>
+      </c>
+      <c r="AA31">
         <v>21</v>
       </c>
-      <c r="Z31">
-        <v>17</v>
-      </c>
-      <c r="AA31">
-        <v>12</v>
-      </c>
       <c r="AB31">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD31">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AE31">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AF31">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG31">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -3939,100 +3924,100 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>1.17</v>
       </c>
       <c r="I32">
+        <v>7.5</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>1.53</v>
+      </c>
+      <c r="L32">
+        <v>2.5</v>
+      </c>
+      <c r="M32">
+        <v>2.38</v>
+      </c>
+      <c r="N32">
+        <v>1.53</v>
+      </c>
+      <c r="O32">
+        <v>1.03</v>
+      </c>
+      <c r="P32">
+        <v>1.1</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>26</v>
+      </c>
+      <c r="T32">
+        <v>67</v>
+      </c>
+      <c r="U32">
+        <v>201</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+      <c r="W32">
+        <v>15</v>
+      </c>
+      <c r="X32">
+        <v>34</v>
+      </c>
+      <c r="Y32">
+        <v>101</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>11</v>
+      </c>
+      <c r="AB32">
+        <v>34</v>
+      </c>
+      <c r="AC32">
+        <v>81</v>
+      </c>
+      <c r="AD32">
         <v>6.5</v>
       </c>
-      <c r="J32">
-        <v>1.2</v>
-      </c>
-      <c r="K32">
-        <v>1.5</v>
-      </c>
-      <c r="L32">
-        <v>2.63</v>
-      </c>
-      <c r="M32">
-        <v>2.1</v>
-      </c>
-      <c r="N32">
-        <v>1.67</v>
-      </c>
-      <c r="O32">
-        <v>4.33</v>
-      </c>
-      <c r="P32">
-        <v>1.11</v>
-      </c>
-      <c r="Q32">
-        <v>1.04</v>
-      </c>
-      <c r="R32">
-        <v>17</v>
-      </c>
-      <c r="S32">
-        <v>9</v>
-      </c>
-      <c r="T32">
-        <v>7</v>
-      </c>
-      <c r="U32">
-        <v>7.5</v>
-      </c>
-      <c r="V32">
-        <v>29</v>
-      </c>
-      <c r="W32">
-        <v>13</v>
-      </c>
-      <c r="X32">
-        <v>10</v>
-      </c>
-      <c r="Y32">
-        <v>11</v>
-      </c>
-      <c r="Z32">
-        <v>51</v>
-      </c>
-      <c r="AA32">
+      <c r="AE32">
+        <v>12</v>
+      </c>
+      <c r="AF32">
         <v>34</v>
       </c>
-      <c r="AB32">
-        <v>29</v>
-      </c>
-      <c r="AC32">
-        <v>29</v>
-      </c>
-      <c r="AD32">
-        <v>151</v>
-      </c>
-      <c r="AE32">
-        <v>81</v>
-      </c>
-      <c r="AF32">
-        <v>67</v>
-      </c>
       <c r="AG32">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4040,100 +4025,100 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H33">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="I33">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J33">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="K33">
+        <v>2.08</v>
+      </c>
+      <c r="L33">
+        <v>1.82</v>
+      </c>
+      <c r="M33">
         <v>2.2</v>
       </c>
-      <c r="L33">
-        <v>1.67</v>
-      </c>
-      <c r="M33">
-        <v>2.1</v>
-      </c>
       <c r="N33">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O33">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P33">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Q33">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T33">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U33">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="V33">
         <v>6</v>
       </c>
       <c r="W33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y33">
         <v>51</v>
       </c>
       <c r="Z33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA33">
         <v>9</v>
       </c>
       <c r="AB33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC33">
         <v>51</v>
       </c>
       <c r="AD33">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33">
         <v>34</v>
       </c>
       <c r="AG33">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4141,100 +4126,100 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H34">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="L34">
+        <v>2.06</v>
+      </c>
+      <c r="M34">
+        <v>2.2</v>
+      </c>
+      <c r="N34">
         <v>1.62</v>
       </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>1.75</v>
-      </c>
       <c r="O34">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S34">
         <v>6.5</v>
       </c>
       <c r="T34">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="U34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="V34">
+        <v>19</v>
+      </c>
+      <c r="W34">
         <v>9.5</v>
-      </c>
-      <c r="W34">
-        <v>6.5</v>
       </c>
       <c r="X34">
         <v>9</v>
       </c>
       <c r="Y34">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z34">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB34">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC34">
         <v>34</v>
       </c>
       <c r="AD34">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AE34">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AF34">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG34">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4242,100 +4227,100 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>1.37</v>
       </c>
       <c r="I35">
-        <v>4.33</v>
+        <v>4.83</v>
       </c>
       <c r="J35">
-        <v>1.44</v>
+        <v>9.85</v>
       </c>
       <c r="K35">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="L35">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="M35">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N35">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="O35">
-        <v>2.63</v>
+        <v>1.06</v>
       </c>
       <c r="P35">
         <v>1.2</v>
       </c>
       <c r="Q35">
-        <v>1.1</v>
+        <v>3.19</v>
       </c>
       <c r="R35">
         <v>10</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="U35">
+        <v>201</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
         <v>9</v>
       </c>
-      <c r="V35">
-        <v>15</v>
-      </c>
-      <c r="W35">
-        <v>8.5</v>
-      </c>
       <c r="X35">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y35">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="Z35">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA35">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AB35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC35">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AD35">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="AE35">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AF35">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="AG35">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4343,100 +4328,100 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H36">
-        <v>1.17</v>
+        <v>3.44</v>
       </c>
       <c r="I36">
+        <v>3.3</v>
+      </c>
+      <c r="J36">
+        <v>2.26</v>
+      </c>
+      <c r="K36">
+        <v>2.43</v>
+      </c>
+      <c r="L36">
+        <v>1.6</v>
+      </c>
+      <c r="M36">
+        <v>2.02</v>
+      </c>
+      <c r="N36">
+        <v>1.75</v>
+      </c>
+      <c r="O36">
+        <v>1.67</v>
+      </c>
+      <c r="P36">
+        <v>1.35</v>
+      </c>
+      <c r="Q36">
+        <v>1.33</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>7</v>
+      </c>
+      <c r="T36">
+        <v>11</v>
+      </c>
+      <c r="U36">
+        <v>23</v>
+      </c>
+      <c r="V36">
         <v>7.5</v>
       </c>
-      <c r="J36">
-        <v>15</v>
-      </c>
-      <c r="K36">
-        <v>1.53</v>
-      </c>
-      <c r="L36">
-        <v>2.5</v>
-      </c>
-      <c r="M36">
-        <v>2.38</v>
-      </c>
-      <c r="N36">
-        <v>1.53</v>
-      </c>
-      <c r="O36">
-        <v>1.03</v>
-      </c>
-      <c r="P36">
-        <v>1.1</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>15</v>
-      </c>
-      <c r="S36">
-        <v>26</v>
-      </c>
-      <c r="T36">
-        <v>67</v>
-      </c>
-      <c r="U36">
-        <v>201</v>
-      </c>
-      <c r="V36">
-        <v>8</v>
-      </c>
       <c r="W36">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="X36">
+        <v>9.5</v>
+      </c>
+      <c r="Y36">
+        <v>21</v>
+      </c>
+      <c r="Z36">
+        <v>13</v>
+      </c>
+      <c r="AA36">
+        <v>10</v>
+      </c>
+      <c r="AB36">
+        <v>14</v>
+      </c>
+      <c r="AC36">
+        <v>36</v>
+      </c>
+      <c r="AD36">
         <v>34</v>
       </c>
-      <c r="Y36">
-        <v>101</v>
-      </c>
-      <c r="Z36">
-        <v>6</v>
-      </c>
-      <c r="AA36">
-        <v>11</v>
-      </c>
-      <c r="AB36">
-        <v>34</v>
-      </c>
-      <c r="AC36">
-        <v>81</v>
-      </c>
-      <c r="AD36">
-        <v>6.5</v>
-      </c>
       <c r="AE36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF36">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG36">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4444,97 +4429,97 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H37">
-        <v>1.45</v>
+        <v>3.56</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="J37">
-        <v>7.5</v>
+        <v>2.21</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="L37">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="M37">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="N37">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="O37">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="P37">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="Q37">
-        <v>2.63</v>
+        <v>1.31</v>
       </c>
       <c r="R37">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>23</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>5.5</v>
+      </c>
+      <c r="X37">
+        <v>9.5</v>
+      </c>
+      <c r="Y37">
+        <v>20</v>
+      </c>
+      <c r="Z37">
+        <v>14</v>
+      </c>
+      <c r="AA37">
+        <v>11</v>
+      </c>
+      <c r="AB37">
         <v>15</v>
       </c>
-      <c r="T37">
+      <c r="AC37">
         <v>34</v>
       </c>
-      <c r="U37">
-        <v>81</v>
-      </c>
-      <c r="V37">
-        <v>5.5</v>
-      </c>
-      <c r="W37">
-        <v>8</v>
-      </c>
-      <c r="X37">
-        <v>21</v>
-      </c>
-      <c r="Y37">
-        <v>51</v>
-      </c>
-      <c r="Z37">
-        <v>6</v>
-      </c>
-      <c r="AA37">
-        <v>9</v>
-      </c>
-      <c r="AB37">
-        <v>23</v>
-      </c>
-      <c r="AC37">
-        <v>67</v>
-      </c>
       <c r="AD37">
-        <v>9.5</v>
+        <v>36</v>
       </c>
       <c r="AE37">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF37">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG37">
         <v>81</v>
@@ -4545,97 +4530,97 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>2.63</v>
       </c>
       <c r="I38">
-        <v>4.75</v>
+        <v>3.23</v>
       </c>
       <c r="J38">
-        <v>1.33</v>
+        <v>2.88</v>
       </c>
       <c r="K38">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="L38">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="P38">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="Q38">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>13</v>
+      </c>
+      <c r="U38">
+        <v>34</v>
+      </c>
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>5.5</v>
+      </c>
+      <c r="X38">
         <v>10</v>
       </c>
-      <c r="S38">
-        <v>6</v>
-      </c>
-      <c r="T38">
-        <v>6</v>
-      </c>
-      <c r="U38">
-        <v>8</v>
-      </c>
-      <c r="V38">
-        <v>17</v>
-      </c>
-      <c r="W38">
-        <v>9.5</v>
-      </c>
-      <c r="X38">
-        <v>9.5</v>
-      </c>
       <c r="Y38">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z38">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AA38">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AB38">
+        <v>14</v>
+      </c>
+      <c r="AC38">
+        <v>36</v>
+      </c>
+      <c r="AD38">
         <v>23</v>
       </c>
-      <c r="AC38">
-        <v>34</v>
-      </c>
-      <c r="AD38">
-        <v>101</v>
-      </c>
       <c r="AE38">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AF38">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AG38">
         <v>81</v>
@@ -4646,100 +4631,100 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H39">
-        <v>1.37</v>
+        <v>3.26</v>
       </c>
       <c r="I39">
-        <v>4.83</v>
+        <v>3.28</v>
       </c>
       <c r="J39">
-        <v>9.85</v>
+        <v>2.36</v>
       </c>
       <c r="K39">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="L39">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="N39">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="O39">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="P39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Q39">
-        <v>3.19</v>
+        <v>1.36</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="S39">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="U39">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W39">
+        <v>5.5</v>
+      </c>
+      <c r="X39">
         <v>9</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
+        <v>20</v>
+      </c>
+      <c r="Z39">
+        <v>13</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+      <c r="AB39">
+        <v>14</v>
+      </c>
+      <c r="AC39">
+        <v>34</v>
+      </c>
+      <c r="AD39">
+        <v>34</v>
+      </c>
+      <c r="AE39">
         <v>26</v>
       </c>
-      <c r="Y39">
-        <v>126</v>
-      </c>
-      <c r="Z39">
-        <v>5</v>
-      </c>
-      <c r="AA39">
-        <v>8</v>
-      </c>
-      <c r="AB39">
-        <v>23</v>
-      </c>
-      <c r="AC39">
-        <v>126</v>
-      </c>
-      <c r="AD39">
-        <v>8</v>
-      </c>
-      <c r="AE39">
-        <v>12</v>
-      </c>
       <c r="AF39">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AG39">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4747,100 +4732,100 @@
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -4848,100 +4833,100 @@
         <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H41">
-        <v>3.13</v>
+        <v>1.72</v>
       </c>
       <c r="I41">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="J41">
-        <v>2.43</v>
+        <v>5.39</v>
       </c>
       <c r="K41">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M41">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="N41">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O41">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="P41">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q41">
-        <v>1.38</v>
+        <v>2.17</v>
       </c>
       <c r="R41">
+        <v>7.5</v>
+      </c>
+      <c r="S41">
+        <v>12</v>
+      </c>
+      <c r="T41">
+        <v>26</v>
+      </c>
+      <c r="U41">
+        <v>101</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
         <v>7</v>
       </c>
-      <c r="S41">
-        <v>7.5</v>
-      </c>
-      <c r="T41">
+      <c r="X41">
+        <v>18</v>
+      </c>
+      <c r="Y41">
+        <v>61</v>
+      </c>
+      <c r="Z41">
+        <v>7</v>
+      </c>
+      <c r="AA41">
+        <v>8</v>
+      </c>
+      <c r="AB41">
+        <v>19</v>
+      </c>
+      <c r="AC41">
+        <v>81</v>
+      </c>
+      <c r="AD41">
         <v>11</v>
       </c>
-      <c r="U41">
-        <v>26</v>
-      </c>
-      <c r="V41">
-        <v>7.5</v>
-      </c>
-      <c r="W41">
-        <v>5.5</v>
-      </c>
-      <c r="X41">
-        <v>10</v>
-      </c>
-      <c r="Y41">
-        <v>23</v>
-      </c>
-      <c r="Z41">
-        <v>12</v>
-      </c>
-      <c r="AA41">
-        <v>10</v>
-      </c>
-      <c r="AB41">
+      <c r="AE41">
         <v>14</v>
       </c>
-      <c r="AC41">
-        <v>36</v>
-      </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>31</v>
       </c>
-      <c r="AE41">
-        <v>23</v>
-      </c>
-      <c r="AF41">
-        <v>36</v>
-      </c>
       <c r="AG41">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -4949,503 +4934,99 @@
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AG42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46">
-        <v>3.29</v>
-      </c>
-      <c r="I46">
-        <v>3.29</v>
-      </c>
-      <c r="J46">
-        <v>2.34</v>
-      </c>
-      <c r="K46">
-        <v>2.38</v>
-      </c>
-      <c r="L46">
-        <v>1.62</v>
-      </c>
-      <c r="M46">
-        <v>1.98</v>
-      </c>
-      <c r="N46">
-        <v>1.79</v>
-      </c>
-      <c r="O46">
-        <v>1.63</v>
-      </c>
-      <c r="P46">
-        <v>1.36</v>
-      </c>
-      <c r="Q46">
-        <v>1.36</v>
-      </c>
-      <c r="R46">
-        <v>7</v>
-      </c>
-      <c r="S46">
-        <v>7</v>
-      </c>
-      <c r="T46">
-        <v>11</v>
-      </c>
-      <c r="U46">
-        <v>23</v>
-      </c>
-      <c r="V46">
-        <v>7.5</v>
-      </c>
-      <c r="W46">
-        <v>5.5</v>
-      </c>
-      <c r="X46">
-        <v>9.5</v>
-      </c>
-      <c r="Y46">
-        <v>21</v>
-      </c>
-      <c r="Z46">
-        <v>13</v>
-      </c>
-      <c r="AA46">
-        <v>10</v>
-      </c>
-      <c r="AB46">
-        <v>15</v>
-      </c>
-      <c r="AC46">
-        <v>36</v>
-      </c>
-      <c r="AD46">
-        <v>31</v>
-      </c>
-      <c r="AE46">
-        <v>26</v>
-      </c>
-      <c r="AF46">
-        <v>41</v>
-      </c>
-      <c r="AG46">
         <v>91</v>
       </c>
     </row>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -115,27 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>hrTmblCs</t>
-  </si>
-  <si>
-    <t>YaubR1rD</t>
-  </si>
-  <si>
-    <t>lC7o20K2</t>
-  </si>
-  <si>
-    <t>WUXOw7KC</t>
-  </si>
-  <si>
-    <t>MBh2Gybp</t>
-  </si>
-  <si>
-    <t>lzjYhdsk</t>
-  </si>
-  <si>
-    <t>zT9cab4L</t>
-  </si>
-  <si>
     <t>Gh6sdlzs</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
     <t>2024-06-22</t>
   </si>
   <si>
@@ -274,157 +250,154 @@
     <t>2024-07-02</t>
   </si>
   <si>
-    <t>10:00</t>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
     <t>21:00</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
+    <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
     <t>EUROPE - EURO</t>
   </si>
   <si>
-    <t>SOUTH AMERICA - COPA AMÉRICA</t>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>Slovakia</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Georgia</t>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
+    <t>ROUND 1</t>
+  </si>
+  <si>
+    <t>ROUND 3</t>
   </si>
   <si>
     <t>ROUND 2</t>
-  </si>
-  <si>
-    <t>ROUND 1</t>
-  </si>
-  <si>
-    <t>ROUND 3</t>
   </si>
 </sst>
 </file>
@@ -782,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,100 +867,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L2">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="M2">
+        <v>2.25</v>
+      </c>
+      <c r="N2">
+        <v>1.57</v>
+      </c>
+      <c r="O2">
+        <v>1.18</v>
+      </c>
+      <c r="P2">
+        <v>1.36</v>
+      </c>
+      <c r="Q2">
         <v>1.8</v>
       </c>
-      <c r="N2">
-        <v>1.91</v>
-      </c>
-      <c r="O2">
-        <v>1.57</v>
-      </c>
-      <c r="P2">
-        <v>1.33</v>
-      </c>
-      <c r="Q2">
-        <v>1.33</v>
-      </c>
       <c r="R2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S2">
+        <v>8.5</v>
+      </c>
+      <c r="T2">
+        <v>21</v>
+      </c>
+      <c r="U2">
+        <v>51</v>
+      </c>
+      <c r="V2">
+        <v>5.5</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>17</v>
+      </c>
+      <c r="Y2">
+        <v>41</v>
+      </c>
+      <c r="Z2">
         <v>8</v>
       </c>
-      <c r="T2">
-        <v>11</v>
-      </c>
-      <c r="U2">
-        <v>23</v>
-      </c>
-      <c r="V2">
+      <c r="AA2">
         <v>10</v>
       </c>
-      <c r="W2">
-        <v>6.5</v>
-      </c>
-      <c r="X2">
-        <v>10</v>
-      </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>21</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
+        <v>51</v>
+      </c>
+      <c r="AD2">
         <v>17</v>
       </c>
-      <c r="AA2">
-        <v>12</v>
-      </c>
-      <c r="AB2">
-        <v>15</v>
-      </c>
-      <c r="AC2">
-        <v>34</v>
-      </c>
-      <c r="AD2">
-        <v>34</v>
-      </c>
       <c r="AE2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF2">
         <v>41</v>
       </c>
       <c r="AG2">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -995,97 +968,97 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
       <c r="H3">
-        <v>3.9</v>
+        <v>1.48</v>
       </c>
       <c r="I3">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L3">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="M3">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="S3">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="T3">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="U3">
+        <v>81</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>8.5</v>
+      </c>
+      <c r="X3">
+        <v>21</v>
+      </c>
+      <c r="Y3">
+        <v>51</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
+      </c>
+      <c r="AA3">
+        <v>8.5</v>
+      </c>
+      <c r="AB3">
         <v>19</v>
       </c>
-      <c r="V3">
-        <v>11</v>
-      </c>
-      <c r="W3">
-        <v>6.5</v>
-      </c>
-      <c r="X3">
-        <v>9.5</v>
-      </c>
-      <c r="Y3">
-        <v>17</v>
-      </c>
-      <c r="Z3">
-        <v>21</v>
-      </c>
-      <c r="AA3">
-        <v>15</v>
-      </c>
-      <c r="AB3">
-        <v>17</v>
-      </c>
       <c r="AC3">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AD3">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AF3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AG3">
         <v>51</v>
@@ -1096,70 +1069,70 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="J4">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
+        <v>1.73</v>
+      </c>
+      <c r="L4">
         <v>2.1</v>
       </c>
-      <c r="L4">
-        <v>1.73</v>
-      </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="N4">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P4">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T4">
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <v>26</v>
+      </c>
+      <c r="V4">
         <v>11</v>
       </c>
-      <c r="U4">
-        <v>23</v>
-      </c>
-      <c r="V4">
-        <v>10</v>
-      </c>
       <c r="W4">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -1168,28 +1141,28 @@
         <v>21</v>
       </c>
       <c r="Z4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB4">
         <v>15</v>
       </c>
       <c r="AC4">
+        <v>26</v>
+      </c>
+      <c r="AD4">
         <v>29</v>
       </c>
-      <c r="AD4">
-        <v>34</v>
-      </c>
       <c r="AE4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF4">
+        <v>26</v>
+      </c>
+      <c r="AG4">
         <v>41</v>
-      </c>
-      <c r="AG4">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1197,100 +1170,100 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H5">
+        <v>5.25</v>
+      </c>
+      <c r="I5">
         <v>3.8</v>
       </c>
-      <c r="I5">
-        <v>2.9</v>
-      </c>
       <c r="J5">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="K5">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="R5">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="S5">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="T5">
+        <v>8.5</v>
+      </c>
+      <c r="U5">
+        <v>13</v>
+      </c>
+      <c r="V5">
+        <v>17</v>
+      </c>
+      <c r="W5">
+        <v>7.5</v>
+      </c>
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="U5">
-        <v>21</v>
-      </c>
-      <c r="V5">
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <v>5.5</v>
-      </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
       <c r="Y5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z5">
+        <v>29</v>
+      </c>
+      <c r="AA5">
         <v>17</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>15</v>
       </c>
-      <c r="AB5">
-        <v>19</v>
-      </c>
       <c r="AC5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AD5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE5">
         <v>41</v>
       </c>
       <c r="AF5">
+        <v>41</v>
+      </c>
+      <c r="AG5">
         <v>51</v>
-      </c>
-      <c r="AG5">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1298,100 +1271,100 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H6">
+        <v>1.17</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>1.57</v>
+      </c>
+      <c r="L6">
+        <v>2.35</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>1.02</v>
+      </c>
+      <c r="P6">
+        <v>1.1</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>3.7</v>
-      </c>
-      <c r="J6">
-        <v>1.73</v>
-      </c>
-      <c r="K6">
-        <v>1.98</v>
-      </c>
-      <c r="L6">
-        <v>1.92</v>
-      </c>
-      <c r="M6">
-        <v>1.83</v>
-      </c>
-      <c r="N6">
-        <v>1.83</v>
-      </c>
-      <c r="O6">
-        <v>2.05</v>
-      </c>
-      <c r="P6">
-        <v>1.29</v>
-      </c>
-      <c r="Q6">
-        <v>1.17</v>
-      </c>
       <c r="R6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S6">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="T6">
-        <v>8.5</v>
+        <v>81</v>
       </c>
       <c r="U6">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
         <v>13</v>
       </c>
-      <c r="W6">
-        <v>7.5</v>
-      </c>
       <c r="X6">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Z6">
-        <v>26</v>
+        <v>5.5</v>
       </c>
       <c r="AA6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AD6">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AE6">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF6">
         <v>41</v>
       </c>
       <c r="AG6">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1399,100 +1372,100 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H7">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="I7">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J7">
-        <v>1.57</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
         <v>2.1</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="O7">
-        <v>2.3</v>
+        <v>1.06</v>
       </c>
       <c r="P7">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Q7">
-        <v>1.14</v>
+        <v>3.4</v>
       </c>
       <c r="R7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="U7">
+        <v>126</v>
+      </c>
+      <c r="V7">
+        <v>6.5</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>26</v>
+      </c>
+      <c r="Y7">
+        <v>67</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>26</v>
+      </c>
+      <c r="AC7">
+        <v>67</v>
+      </c>
+      <c r="AD7">
+        <v>7.5</v>
+      </c>
+      <c r="AE7">
         <v>12</v>
       </c>
-      <c r="V7">
-        <v>15</v>
-      </c>
-      <c r="W7">
-        <v>8.5</v>
-      </c>
-      <c r="X7">
-        <v>8.5</v>
-      </c>
-      <c r="Y7">
-        <v>13</v>
-      </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>29</v>
       </c>
-      <c r="AA7">
-        <v>17</v>
-      </c>
-      <c r="AB7">
-        <v>17</v>
-      </c>
-      <c r="AC7">
-        <v>26</v>
-      </c>
-      <c r="AD7">
-        <v>67</v>
-      </c>
-      <c r="AE7">
-        <v>41</v>
-      </c>
-      <c r="AF7">
-        <v>41</v>
-      </c>
       <c r="AG7">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1500,97 +1473,97 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H8">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>1.42</v>
       </c>
       <c r="K8">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N8">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
         <v>1.18</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>1.1</v>
       </c>
       <c r="R8">
         <v>13</v>
       </c>
       <c r="S8">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="T8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="W8">
+        <v>9.5</v>
+      </c>
+      <c r="X8">
         <v>9</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>13</v>
+      </c>
+      <c r="Z8">
+        <v>34</v>
+      </c>
+      <c r="AA8">
         <v>21</v>
-      </c>
-      <c r="Y8">
-        <v>51</v>
-      </c>
-      <c r="Z8">
-        <v>7.5</v>
-      </c>
-      <c r="AA8">
-        <v>9</v>
       </c>
       <c r="AB8">
         <v>21</v>
       </c>
       <c r="AC8">
+        <v>29</v>
+      </c>
+      <c r="AD8">
+        <v>81</v>
+      </c>
+      <c r="AE8">
         <v>51</v>
       </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8">
-        <v>13</v>
-      </c>
       <c r="AF8">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG8">
         <v>67</v>
@@ -1601,100 +1574,100 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H9">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="L9">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="N9">
+        <v>2.1</v>
+      </c>
+      <c r="O9">
         <v>1.62</v>
       </c>
-      <c r="O9">
-        <v>1.17</v>
-      </c>
       <c r="P9">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+      <c r="U9">
+        <v>23</v>
+      </c>
+      <c r="V9">
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <v>6.5</v>
+      </c>
+      <c r="X9">
         <v>9.5</v>
       </c>
-      <c r="T9">
-        <v>21</v>
-      </c>
-      <c r="U9">
-        <v>51</v>
-      </c>
-      <c r="V9">
-        <v>5.5</v>
-      </c>
-      <c r="W9">
-        <v>7</v>
-      </c>
-      <c r="X9">
-        <v>15</v>
-      </c>
       <c r="Y9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Z9">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AA9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AD9">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AE9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF9">
         <v>34</v>
       </c>
       <c r="AG9">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1702,37 +1675,37 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H10">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="I10">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J10">
         <v>5.75</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M10">
         <v>2.2</v>
@@ -1744,13 +1717,13 @@
         <v>1.14</v>
       </c>
       <c r="P10">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R10">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>11</v>
@@ -1765,10 +1738,10 @@
         <v>5.5</v>
       </c>
       <c r="W10">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10">
         <v>51</v>
@@ -1786,7 +1759,7 @@
         <v>51</v>
       </c>
       <c r="AD10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10">
         <v>15</v>
@@ -1803,100 +1776,100 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H11">
+        <v>1.14</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>1.48</v>
+      </c>
+      <c r="L11">
         <v>2.6</v>
       </c>
-      <c r="I11">
-        <v>3.8</v>
-      </c>
-      <c r="J11">
-        <v>2.45</v>
-      </c>
-      <c r="K11">
-        <v>1.73</v>
-      </c>
-      <c r="L11">
-        <v>2.1</v>
-      </c>
       <c r="M11">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="O11">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="P11">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Q11">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="R11">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>67</v>
+      </c>
+      <c r="U11">
+        <v>251</v>
+      </c>
+      <c r="V11">
+        <v>8.5</v>
+      </c>
+      <c r="W11">
         <v>15</v>
       </c>
-      <c r="S11">
-        <v>11</v>
-      </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
-        <v>26</v>
-      </c>
-      <c r="V11">
-        <v>11</v>
-      </c>
-      <c r="W11">
-        <v>7.5</v>
-      </c>
       <c r="X11">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y11">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>11</v>
       </c>
       <c r="AB11">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AC11">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AD11">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="AE11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG11">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1904,100 +1877,100 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1.29</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="J12">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="L12">
+        <v>2.2</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.73</v>
       </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
       <c r="O12">
-        <v>2.1</v>
+        <v>1.06</v>
       </c>
       <c r="P12">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Q12">
-        <v>1.17</v>
+        <v>3.5</v>
       </c>
       <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>51</v>
+      </c>
+      <c r="U12">
+        <v>126</v>
+      </c>
+      <c r="V12">
+        <v>7.5</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>29</v>
+      </c>
+      <c r="Y12">
+        <v>67</v>
+      </c>
+      <c r="Z12">
+        <v>6.5</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <v>23</v>
+      </c>
+      <c r="AC12">
+        <v>67</v>
+      </c>
+      <c r="AD12">
+        <v>8.5</v>
+      </c>
+      <c r="AE12">
         <v>12</v>
       </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <v>9</v>
-      </c>
-      <c r="U12">
-        <v>15</v>
-      </c>
-      <c r="V12">
-        <v>15</v>
-      </c>
-      <c r="W12">
-        <v>7.5</v>
-      </c>
-      <c r="X12">
-        <v>9</v>
-      </c>
-      <c r="Y12">
-        <v>15</v>
-      </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>29</v>
       </c>
-      <c r="AA12">
-        <v>17</v>
-      </c>
-      <c r="AB12">
-        <v>15</v>
-      </c>
-      <c r="AC12">
-        <v>26</v>
-      </c>
-      <c r="AD12">
-        <v>51</v>
-      </c>
-      <c r="AE12">
-        <v>41</v>
-      </c>
-      <c r="AF12">
-        <v>41</v>
-      </c>
       <c r="AG12">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2005,100 +1978,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H13">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="I13">
-        <v>6.25</v>
+        <v>3.1</v>
       </c>
       <c r="J13">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="K13">
+        <v>1.85</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <v>1.62</v>
       </c>
-      <c r="L13">
-        <v>2.25</v>
-      </c>
-      <c r="M13">
-        <v>2.5</v>
-      </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="P13">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="Q13">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <v>41</v>
+      </c>
+      <c r="V13">
+        <v>9.5</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>26</v>
+      </c>
+      <c r="Z13">
         <v>12</v>
-      </c>
-      <c r="S13">
-        <v>29</v>
-      </c>
-      <c r="T13">
-        <v>67</v>
-      </c>
-      <c r="U13">
-        <v>251</v>
-      </c>
-      <c r="V13">
-        <v>7</v>
-      </c>
-      <c r="W13">
-        <v>12</v>
-      </c>
-      <c r="X13">
-        <v>41</v>
-      </c>
-      <c r="Y13">
-        <v>126</v>
-      </c>
-      <c r="Z13">
-        <v>5.5</v>
       </c>
       <c r="AA13">
         <v>10</v>
       </c>
       <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13">
         <v>34</v>
       </c>
-      <c r="AC13">
-        <v>101</v>
-      </c>
       <c r="AD13">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AE13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF13">
+        <v>26</v>
+      </c>
+      <c r="AG13">
         <v>41</v>
-      </c>
-      <c r="AG13">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2106,100 +2079,100 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H14">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="K14">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L14">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M14">
+        <v>1.62</v>
+      </c>
+      <c r="N14">
         <v>2.2</v>
       </c>
-      <c r="N14">
-        <v>1.62</v>
-      </c>
       <c r="O14">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="P14">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="R14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="T14">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="U14">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="V14">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="W14">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14">
         <v>26</v>
       </c>
-      <c r="Y14">
-        <v>67</v>
-      </c>
       <c r="Z14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA14">
         <v>9.5</v>
       </c>
       <c r="AB14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC14">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AD14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF14">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG14">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2207,100 +2180,100 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H15">
-        <v>7.5</v>
+        <v>1.36</v>
       </c>
       <c r="I15">
         <v>4.75</v>
       </c>
       <c r="J15">
-        <v>1.42</v>
+        <v>9.5</v>
       </c>
       <c r="K15">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="L15">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="M15">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="O15">
-        <v>2.75</v>
+        <v>1.07</v>
       </c>
       <c r="P15">
         <v>1.18</v>
       </c>
       <c r="Q15">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S15">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="U15">
+        <v>126</v>
+      </c>
+      <c r="V15">
+        <v>6.5</v>
+      </c>
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="V15">
-        <v>19</v>
-      </c>
-      <c r="W15">
-        <v>9</v>
-      </c>
       <c r="X15">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y15">
+        <v>67</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>9.5</v>
+      </c>
+      <c r="AB15">
+        <v>26</v>
+      </c>
+      <c r="AC15">
+        <v>67</v>
+      </c>
+      <c r="AD15">
+        <v>8.5</v>
+      </c>
+      <c r="AE15">
         <v>13</v>
       </c>
-      <c r="Z15">
-        <v>41</v>
-      </c>
-      <c r="AA15">
-        <v>21</v>
-      </c>
-      <c r="AB15">
-        <v>21</v>
-      </c>
-      <c r="AC15">
-        <v>29</v>
-      </c>
-      <c r="AD15">
+      <c r="AF15">
+        <v>34</v>
+      </c>
+      <c r="AG15">
         <v>81</v>
-      </c>
-      <c r="AE15">
-        <v>51</v>
-      </c>
-      <c r="AF15">
-        <v>51</v>
-      </c>
-      <c r="AG15">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2308,100 +2281,100 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="M16">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P16">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q16">
         <v>1.36</v>
       </c>
       <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
         <v>10</v>
       </c>
-      <c r="S16">
-        <v>9</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
       <c r="U16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W16">
         <v>6.5</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16">
         <v>12</v>
       </c>
       <c r="AB16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD16">
         <v>34</v>
       </c>
       <c r="AE16">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF16">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2409,97 +2382,97 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H17">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="I17">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J17">
-        <v>5.75</v>
+        <v>1.48</v>
       </c>
       <c r="K17">
+        <v>2.1</v>
+      </c>
+      <c r="L17">
+        <v>1.73</v>
+      </c>
+      <c r="M17">
         <v>2.25</v>
       </c>
-      <c r="L17">
-        <v>1.62</v>
-      </c>
-      <c r="M17">
-        <v>2.2</v>
-      </c>
       <c r="N17">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="P17">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Q17">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="R17">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="S17">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="T17">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="U17">
+        <v>9.5</v>
+      </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>15</v>
+      </c>
+      <c r="Z17">
+        <v>34</v>
+      </c>
+      <c r="AA17">
+        <v>23</v>
+      </c>
+      <c r="AB17">
+        <v>23</v>
+      </c>
+      <c r="AC17">
+        <v>34</v>
+      </c>
+      <c r="AD17">
+        <v>81</v>
+      </c>
+      <c r="AE17">
+        <v>51</v>
+      </c>
+      <c r="AF17">
         <v>67</v>
-      </c>
-      <c r="V17">
-        <v>5.5</v>
-      </c>
-      <c r="W17">
-        <v>7</v>
-      </c>
-      <c r="X17">
-        <v>19</v>
-      </c>
-      <c r="Y17">
-        <v>51</v>
-      </c>
-      <c r="Z17">
-        <v>7</v>
-      </c>
-      <c r="AA17">
-        <v>9</v>
-      </c>
-      <c r="AB17">
-        <v>21</v>
-      </c>
-      <c r="AC17">
-        <v>51</v>
-      </c>
-      <c r="AD17">
-        <v>12</v>
-      </c>
-      <c r="AE17">
-        <v>15</v>
-      </c>
-      <c r="AF17">
-        <v>34</v>
       </c>
       <c r="AG17">
         <v>81</v>
@@ -2510,100 +2483,100 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H18">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="I18">
+        <v>2.1</v>
+      </c>
+      <c r="J18">
+        <v>3.6</v>
+      </c>
+      <c r="K18">
+        <v>2.75</v>
+      </c>
+      <c r="L18">
+        <v>1.44</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1.73</v>
+      </c>
+      <c r="O18">
+        <v>1.29</v>
+      </c>
+      <c r="P18">
+        <v>1.7</v>
+      </c>
+      <c r="Q18">
+        <v>1.36</v>
+      </c>
+      <c r="R18">
+        <v>4.5</v>
+      </c>
+      <c r="S18">
+        <v>8.5</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>41</v>
+      </c>
+      <c r="V18">
         <v>8</v>
       </c>
-      <c r="J18">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <v>1.48</v>
-      </c>
-      <c r="L18">
-        <v>2.6</v>
-      </c>
-      <c r="M18">
-        <v>2.25</v>
-      </c>
-      <c r="N18">
-        <v>1.57</v>
-      </c>
-      <c r="O18">
-        <v>1.02</v>
-      </c>
-      <c r="P18">
-        <v>1.08</v>
-      </c>
-      <c r="Q18">
-        <v>5.5</v>
-      </c>
-      <c r="R18">
-        <v>17</v>
-      </c>
-      <c r="S18">
+      <c r="W18">
+        <v>4.75</v>
+      </c>
+      <c r="X18">
+        <v>15</v>
+      </c>
+      <c r="Y18">
         <v>34</v>
       </c>
-      <c r="T18">
+      <c r="Z18">
+        <v>13</v>
+      </c>
+      <c r="AA18">
+        <v>13</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+      <c r="AC18">
+        <v>51</v>
+      </c>
+      <c r="AD18">
+        <v>29</v>
+      </c>
+      <c r="AE18">
+        <v>29</v>
+      </c>
+      <c r="AF18">
+        <v>41</v>
+      </c>
+      <c r="AG18">
         <v>67</v>
-      </c>
-      <c r="U18">
-        <v>251</v>
-      </c>
-      <c r="V18">
-        <v>8.5</v>
-      </c>
-      <c r="W18">
-        <v>15</v>
-      </c>
-      <c r="X18">
-        <v>41</v>
-      </c>
-      <c r="Y18">
-        <v>101</v>
-      </c>
-      <c r="Z18">
-        <v>6</v>
-      </c>
-      <c r="AA18">
-        <v>11</v>
-      </c>
-      <c r="AB18">
-        <v>34</v>
-      </c>
-      <c r="AC18">
-        <v>81</v>
-      </c>
-      <c r="AD18">
-        <v>6.5</v>
-      </c>
-      <c r="AE18">
-        <v>11</v>
-      </c>
-      <c r="AF18">
-        <v>34</v>
-      </c>
-      <c r="AG18">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2611,31 +2584,31 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H19">
-        <v>1.42</v>
+        <v>4.33</v>
       </c>
       <c r="I19">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="K19">
         <v>1.73</v>
@@ -2644,67 +2617,67 @@
         <v>2.1</v>
       </c>
       <c r="M19">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q19">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="R19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S19">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>13</v>
+      </c>
+      <c r="W19">
+        <v>8.5</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
+      <c r="Z19">
+        <v>26</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+      <c r="AB19">
+        <v>17</v>
+      </c>
+      <c r="AC19">
+        <v>26</v>
+      </c>
+      <c r="AD19">
+        <v>51</v>
+      </c>
+      <c r="AE19">
+        <v>34</v>
+      </c>
+      <c r="AF19">
         <v>41</v>
       </c>
-      <c r="U19">
-        <v>101</v>
-      </c>
-      <c r="V19">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>9</v>
-      </c>
-      <c r="X19">
-        <v>23</v>
-      </c>
-      <c r="Y19">
+      <c r="AG19">
         <v>51</v>
-      </c>
-      <c r="Z19">
-        <v>7</v>
-      </c>
-      <c r="AA19">
-        <v>8.5</v>
-      </c>
-      <c r="AB19">
-        <v>21</v>
-      </c>
-      <c r="AC19">
-        <v>51</v>
-      </c>
-      <c r="AD19">
-        <v>10</v>
-      </c>
-      <c r="AE19">
-        <v>13</v>
-      </c>
-      <c r="AF19">
-        <v>29</v>
-      </c>
-      <c r="AG19">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2712,94 +2685,94 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H20">
+        <v>2.5</v>
+      </c>
+      <c r="I20">
+        <v>3.4</v>
+      </c>
+      <c r="J20">
+        <v>2.8</v>
+      </c>
+      <c r="K20">
+        <v>1.73</v>
+      </c>
+      <c r="L20">
         <v>2.1</v>
       </c>
-      <c r="I20">
-        <v>3.5</v>
-      </c>
-      <c r="J20">
-        <v>3.4</v>
-      </c>
-      <c r="K20">
-        <v>1.8</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
       <c r="M20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
+        <v>1.4</v>
+      </c>
+      <c r="P20">
         <v>1.3</v>
       </c>
-      <c r="P20">
-        <v>1.29</v>
-      </c>
       <c r="Q20">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S20">
         <v>12</v>
       </c>
       <c r="T20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U20">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W20">
         <v>7</v>
       </c>
       <c r="X20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA20">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB20">
         <v>13</v>
       </c>
       <c r="AC20">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20">
         <v>26</v>
@@ -2813,100 +2786,100 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H21">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="I21">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="K21">
+        <v>1.57</v>
+      </c>
+      <c r="L21">
+        <v>2.38</v>
+      </c>
+      <c r="M21">
         <v>1.8</v>
       </c>
-      <c r="L21">
-        <v>2.05</v>
-      </c>
-      <c r="M21">
-        <v>1.62</v>
-      </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="O21">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Q21">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="R21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S21">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="T21">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="U21">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="V21">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="W21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Z21">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA21">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AB21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AC21">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD21">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AE21">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AF21">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG21">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2914,100 +2887,100 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H22">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="I22">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J22">
-        <v>9.5</v>
+        <v>6.25</v>
       </c>
       <c r="K22">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O22">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="P22">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S22">
+        <v>13</v>
+      </c>
+      <c r="T22">
+        <v>29</v>
+      </c>
+      <c r="U22">
+        <v>67</v>
+      </c>
+      <c r="V22">
+        <v>5.5</v>
+      </c>
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
         <v>19</v>
       </c>
-      <c r="T22">
-        <v>41</v>
-      </c>
-      <c r="U22">
-        <v>101</v>
-      </c>
-      <c r="V22">
-        <v>6.5</v>
-      </c>
-      <c r="W22">
-        <v>10</v>
-      </c>
-      <c r="X22">
-        <v>26</v>
-      </c>
       <c r="Y22">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z22">
         <v>6.5</v>
       </c>
       <c r="AA22">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC22">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22">
         <v>34</v>
       </c>
       <c r="AG22">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3015,31 +2988,31 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H23">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I23">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="K23">
         <v>2.3</v>
@@ -3048,49 +3021,49 @@
         <v>1.62</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="P23">
         <v>1.33</v>
       </c>
       <c r="Q23">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
         <v>8</v>
       </c>
       <c r="S23">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U23">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <v>6.5</v>
       </c>
       <c r="X23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z23">
+        <v>17</v>
+      </c>
+      <c r="AA23">
         <v>13</v>
-      </c>
-      <c r="AA23">
-        <v>11</v>
       </c>
       <c r="AB23">
         <v>17</v>
@@ -3099,10 +3072,10 @@
         <v>34</v>
       </c>
       <c r="AD23">
+        <v>41</v>
+      </c>
+      <c r="AE23">
         <v>34</v>
-      </c>
-      <c r="AE23">
-        <v>26</v>
       </c>
       <c r="AF23">
         <v>41</v>
@@ -3116,76 +3089,76 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H24">
         <v>7</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K24">
+        <v>2.02</v>
+      </c>
+      <c r="L24">
+        <v>1.88</v>
+      </c>
+      <c r="M24">
         <v>2.1</v>
       </c>
-      <c r="L24">
-        <v>1.73</v>
-      </c>
-      <c r="M24">
-        <v>2.2</v>
-      </c>
       <c r="N24">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O24">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q24">
         <v>1.1</v>
       </c>
       <c r="R24">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="S24">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>6</v>
       </c>
       <c r="U24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W24">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X24">
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z24">
         <v>34</v>
@@ -3194,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="AB24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC24">
         <v>34</v>
@@ -3217,100 +3190,100 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
       <c r="H25">
-        <v>2.75</v>
+        <v>1.17</v>
       </c>
       <c r="I25">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="J25">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="L25">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="N25">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="O25">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Q25">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="T25">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="U25">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="V25">
         <v>8</v>
       </c>
       <c r="W25">
+        <v>15</v>
+      </c>
+      <c r="X25">
+        <v>34</v>
+      </c>
+      <c r="Y25">
+        <v>101</v>
+      </c>
+      <c r="Z25">
         <v>6</v>
-      </c>
-      <c r="X25">
-        <v>12</v>
-      </c>
-      <c r="Y25">
-        <v>26</v>
-      </c>
-      <c r="Z25">
-        <v>13</v>
       </c>
       <c r="AA25">
         <v>11</v>
       </c>
       <c r="AB25">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC25">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="AE25">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AF25">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3318,100 +3291,100 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H26">
-        <v>4.33</v>
+        <v>1.44</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J26">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>1.8</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
       <c r="M26">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="P26">
         <v>1.22</v>
       </c>
       <c r="Q26">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="R26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="U26">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="V26">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="W26">
         <v>8</v>
       </c>
       <c r="X26">
+        <v>21</v>
+      </c>
+      <c r="Y26">
+        <v>51</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
         <v>9</v>
       </c>
-      <c r="Y26">
-        <v>15</v>
-      </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>23</v>
       </c>
-      <c r="AA26">
-        <v>15</v>
-      </c>
-      <c r="AB26">
-        <v>17</v>
-      </c>
       <c r="AC26">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AD26">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="AE26">
+        <v>13</v>
+      </c>
+      <c r="AF26">
         <v>34</v>
       </c>
-      <c r="AF26">
-        <v>41</v>
-      </c>
       <c r="AG26">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3419,100 +3392,100 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>2.38</v>
+        <v>1.33</v>
       </c>
       <c r="K27">
+        <v>1.8</v>
+      </c>
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>1.85</v>
-      </c>
       <c r="M27">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="O27">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="Q27">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S27">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>19</v>
+      </c>
+      <c r="W27">
+        <v>9.5</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
         <v>12</v>
       </c>
-      <c r="U27">
+      <c r="Z27">
+        <v>41</v>
+      </c>
+      <c r="AA27">
+        <v>26</v>
+      </c>
+      <c r="AB27">
         <v>23</v>
       </c>
-      <c r="V27">
-        <v>10</v>
-      </c>
-      <c r="W27">
-        <v>6.5</v>
-      </c>
-      <c r="X27">
-        <v>10</v>
-      </c>
-      <c r="Y27">
-        <v>21</v>
-      </c>
-      <c r="Z27">
-        <v>17</v>
-      </c>
-      <c r="AA27">
-        <v>12</v>
-      </c>
-      <c r="AB27">
-        <v>15</v>
-      </c>
       <c r="AC27">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD27">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AE27">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AF27">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG27">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3520,100 +3493,100 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
         <v>126</v>
       </c>
-      <c r="G28" t="s">
-        <v>136</v>
-      </c>
       <c r="H28">
-        <v>13</v>
+        <v>1.38</v>
       </c>
       <c r="I28">
-        <v>6.5</v>
+        <v>4.86</v>
       </c>
       <c r="J28">
-        <v>1.22</v>
+        <v>9.9</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L28">
-        <v>2.63</v>
+        <v>1.84</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="N28">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>1.06</v>
       </c>
       <c r="P28">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Q28">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="R28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S28">
+        <v>19</v>
+      </c>
+      <c r="T28">
+        <v>51</v>
+      </c>
+      <c r="U28">
+        <v>201</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
         <v>9</v>
       </c>
-      <c r="T28">
-        <v>7</v>
-      </c>
-      <c r="U28">
+      <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>126</v>
+      </c>
+      <c r="Z28">
+        <v>5</v>
+      </c>
+      <c r="AA28">
         <v>8</v>
       </c>
-      <c r="V28">
-        <v>29</v>
-      </c>
-      <c r="W28">
-        <v>13</v>
-      </c>
-      <c r="X28">
-        <v>10</v>
-      </c>
-      <c r="Y28">
-        <v>11</v>
-      </c>
-      <c r="Z28">
-        <v>51</v>
-      </c>
-      <c r="AA28">
-        <v>34</v>
-      </c>
       <c r="AB28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC28">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AD28">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="AE28">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="AF28">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="AG28">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3621,100 +3594,100 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H29">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="I29">
-        <v>3.7</v>
+        <v>3.31</v>
       </c>
       <c r="J29">
-        <v>6.25</v>
+        <v>2.3</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="L29">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="O29">
-        <v>1.13</v>
+        <v>1.66</v>
       </c>
       <c r="P29">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q29">
-        <v>2.3</v>
+        <v>1.35</v>
       </c>
       <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>23</v>
+      </c>
+      <c r="V29">
         <v>8</v>
       </c>
-      <c r="S29">
-        <v>13</v>
-      </c>
-      <c r="T29">
-        <v>29</v>
-      </c>
-      <c r="U29">
-        <v>67</v>
-      </c>
-      <c r="V29">
+      <c r="W29">
         <v>5.5</v>
       </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
       <c r="X29">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y29">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="Z29">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="AA29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB29">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC29">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD29">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AE29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3722,100 +3695,100 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H30">
-        <v>3.7</v>
+        <v>3.58</v>
       </c>
       <c r="I30">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="L30">
         <v>1.62</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P30">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q30">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>23</v>
+      </c>
+      <c r="V30">
         <v>8</v>
       </c>
-      <c r="S30">
-        <v>6.5</v>
-      </c>
-      <c r="T30">
-        <v>9</v>
-      </c>
-      <c r="U30">
-        <v>19</v>
-      </c>
-      <c r="V30">
-        <v>9</v>
-      </c>
       <c r="W30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X30">
         <v>9.5</v>
       </c>
       <c r="Y30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30">
         <v>34</v>
       </c>
       <c r="AD30">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AE30">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF30">
         <v>41</v>
       </c>
       <c r="AG30">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3823,100 +3796,100 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H31">
+        <v>2.62</v>
+      </c>
+      <c r="I31">
+        <v>3.23</v>
+      </c>
+      <c r="J31">
+        <v>2.94</v>
+      </c>
+      <c r="K31">
+        <v>2.42</v>
+      </c>
+      <c r="L31">
+        <v>1.62</v>
+      </c>
+      <c r="M31">
+        <v>1.98</v>
+      </c>
+      <c r="N31">
+        <v>1.79</v>
+      </c>
+      <c r="O31">
+        <v>1.44</v>
+      </c>
+      <c r="P31">
+        <v>1.38</v>
+      </c>
+      <c r="Q31">
+        <v>1.53</v>
+      </c>
+      <c r="R31">
         <v>7</v>
       </c>
-      <c r="I31">
-        <v>4.33</v>
-      </c>
-      <c r="J31">
-        <v>1.44</v>
-      </c>
-      <c r="K31">
-        <v>2.01</v>
-      </c>
-      <c r="L31">
-        <v>1.89</v>
-      </c>
-      <c r="M31">
-        <v>2.1</v>
-      </c>
-      <c r="N31">
-        <v>1.67</v>
-      </c>
-      <c r="O31">
-        <v>2.63</v>
-      </c>
-      <c r="P31">
-        <v>1.2</v>
-      </c>
-      <c r="Q31">
-        <v>1.1</v>
-      </c>
-      <c r="R31">
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>13</v>
+      </c>
+      <c r="U31">
+        <v>31</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>5.5</v>
+      </c>
+      <c r="X31">
         <v>10</v>
       </c>
-      <c r="S31">
-        <v>6</v>
-      </c>
-      <c r="T31">
-        <v>6</v>
-      </c>
-      <c r="U31">
-        <v>9</v>
-      </c>
-      <c r="V31">
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>11</v>
+      </c>
+      <c r="AA31">
+        <v>10</v>
+      </c>
+      <c r="AB31">
         <v>15</v>
       </c>
-      <c r="W31">
-        <v>8.5</v>
-      </c>
-      <c r="X31">
-        <v>9</v>
-      </c>
-      <c r="Y31">
-        <v>13</v>
-      </c>
-      <c r="Z31">
-        <v>34</v>
-      </c>
-      <c r="AA31">
+      <c r="AC31">
+        <v>41</v>
+      </c>
+      <c r="AD31">
+        <v>26</v>
+      </c>
+      <c r="AE31">
         <v>21</v>
       </c>
-      <c r="AB31">
-        <v>21</v>
-      </c>
-      <c r="AC31">
-        <v>34</v>
-      </c>
-      <c r="AD31">
-        <v>81</v>
-      </c>
-      <c r="AE31">
-        <v>51</v>
-      </c>
       <c r="AF31">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AG31">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -3924,100 +3897,100 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
         <v>106</v>
       </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H32">
-        <v>1.17</v>
+        <v>3.25</v>
       </c>
       <c r="I32">
+        <v>3.31</v>
+      </c>
+      <c r="J32">
+        <v>2.37</v>
+      </c>
+      <c r="K32">
+        <v>2.36</v>
+      </c>
+      <c r="L32">
+        <v>1.65</v>
+      </c>
+      <c r="M32">
+        <v>1.96</v>
+      </c>
+      <c r="N32">
+        <v>1.8</v>
+      </c>
+      <c r="O32">
+        <v>1.63</v>
+      </c>
+      <c r="P32">
+        <v>1.36</v>
+      </c>
+      <c r="Q32">
+        <v>1.37</v>
+      </c>
+      <c r="R32">
         <v>7.5</v>
       </c>
-      <c r="J32">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <v>1.53</v>
-      </c>
-      <c r="L32">
-        <v>2.5</v>
-      </c>
-      <c r="M32">
-        <v>2.38</v>
-      </c>
-      <c r="N32">
-        <v>1.53</v>
-      </c>
-      <c r="O32">
-        <v>1.03</v>
-      </c>
-      <c r="P32">
-        <v>1.1</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <v>15</v>
-      </c>
       <c r="S32">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="U32">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="V32">
         <v>8</v>
       </c>
       <c r="W32">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="X32">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="Y32">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB32">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AC32">
+        <v>36</v>
+      </c>
+      <c r="AD32">
+        <v>31</v>
+      </c>
+      <c r="AE32">
+        <v>23</v>
+      </c>
+      <c r="AF32">
+        <v>36</v>
+      </c>
+      <c r="AG32">
         <v>81</v>
-      </c>
-      <c r="AD32">
-        <v>6.5</v>
-      </c>
-      <c r="AE32">
-        <v>12</v>
-      </c>
-      <c r="AF32">
-        <v>34</v>
-      </c>
-      <c r="AG32">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4025,97 +3998,97 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
         <v>90</v>
       </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>124</v>
-      </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H33">
-        <v>1.45</v>
+        <v>2.81</v>
       </c>
       <c r="I33">
-        <v>4.1</v>
+        <v>3.26</v>
       </c>
       <c r="J33">
+        <v>2.72</v>
+      </c>
+      <c r="K33">
+        <v>2.37</v>
+      </c>
+      <c r="L33">
+        <v>1.64</v>
+      </c>
+      <c r="M33">
+        <v>1.96</v>
+      </c>
+      <c r="N33">
+        <v>1.8</v>
+      </c>
+      <c r="O33">
+        <v>1.5</v>
+      </c>
+      <c r="P33">
+        <v>1.37</v>
+      </c>
+      <c r="Q33">
+        <v>1.47</v>
+      </c>
+      <c r="R33">
         <v>7.5</v>
       </c>
-      <c r="K33">
-        <v>2.08</v>
-      </c>
-      <c r="L33">
-        <v>1.82</v>
-      </c>
-      <c r="M33">
-        <v>2.2</v>
-      </c>
-      <c r="N33">
-        <v>1.62</v>
-      </c>
-      <c r="O33">
-        <v>1.1</v>
-      </c>
-      <c r="P33">
-        <v>1.22</v>
-      </c>
-      <c r="Q33">
-        <v>2.63</v>
-      </c>
-      <c r="R33">
-        <v>9</v>
-      </c>
       <c r="S33">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T33">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="W33">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>23</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
+        <v>9.5</v>
+      </c>
+      <c r="AB33">
+        <v>14</v>
+      </c>
+      <c r="AC33">
+        <v>36</v>
+      </c>
+      <c r="AD33">
+        <v>26</v>
+      </c>
+      <c r="AE33">
         <v>21</v>
       </c>
-      <c r="Y33">
-        <v>51</v>
-      </c>
-      <c r="Z33">
-        <v>6</v>
-      </c>
-      <c r="AA33">
-        <v>9</v>
-      </c>
-      <c r="AB33">
-        <v>23</v>
-      </c>
-      <c r="AC33">
-        <v>51</v>
-      </c>
-      <c r="AD33">
-        <v>9.5</v>
-      </c>
-      <c r="AE33">
-        <v>13</v>
-      </c>
       <c r="AF33">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG33">
         <v>81</v>
@@ -4126,100 +4099,100 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34">
+        <v>1.75</v>
+      </c>
+      <c r="I34">
+        <v>3.71</v>
+      </c>
+      <c r="J34">
+        <v>5.27</v>
+      </c>
+      <c r="K34">
+        <v>2.29</v>
+      </c>
+      <c r="L34">
+        <v>1.68</v>
+      </c>
+      <c r="M34">
+        <v>2.13</v>
+      </c>
+      <c r="N34">
+        <v>1.68</v>
+      </c>
+      <c r="O34">
+        <v>1.18</v>
+      </c>
+      <c r="P34">
+        <v>1.31</v>
+      </c>
+      <c r="Q34">
+        <v>2.15</v>
+      </c>
+      <c r="R34">
+        <v>7.5</v>
+      </c>
+      <c r="S34">
+        <v>11</v>
+      </c>
+      <c r="T34">
+        <v>26</v>
+      </c>
+      <c r="U34">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34">
-        <v>9</v>
-      </c>
-      <c r="I34">
+      <c r="V34">
         <v>5</v>
       </c>
-      <c r="J34">
-        <v>1.33</v>
-      </c>
-      <c r="K34">
-        <v>1.84</v>
-      </c>
-      <c r="L34">
-        <v>2.06</v>
-      </c>
-      <c r="M34">
-        <v>2.2</v>
-      </c>
-      <c r="N34">
-        <v>1.62</v>
-      </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
-      <c r="P34">
-        <v>1.17</v>
-      </c>
-      <c r="Q34">
-        <v>1.07</v>
-      </c>
-      <c r="R34">
-        <v>11</v>
-      </c>
-      <c r="S34">
+      <c r="W34">
         <v>6.5</v>
       </c>
-      <c r="T34">
-        <v>6</v>
-      </c>
-      <c r="U34">
+      <c r="X34">
+        <v>17</v>
+      </c>
+      <c r="Y34">
+        <v>56</v>
+      </c>
+      <c r="Z34">
+        <v>7</v>
+      </c>
+      <c r="AA34">
         <v>8</v>
       </c>
-      <c r="V34">
+      <c r="AB34">
         <v>19</v>
       </c>
-      <c r="W34">
-        <v>9.5</v>
-      </c>
-      <c r="X34">
-        <v>9</v>
-      </c>
-      <c r="Y34">
+      <c r="AC34">
+        <v>76</v>
+      </c>
+      <c r="AD34">
         <v>12</v>
       </c>
-      <c r="Z34">
-        <v>41</v>
-      </c>
-      <c r="AA34">
-        <v>26</v>
-      </c>
-      <c r="AB34">
-        <v>23</v>
-      </c>
-      <c r="AC34">
+      <c r="AE34">
+        <v>15</v>
+      </c>
+      <c r="AF34">
         <v>34</v>
       </c>
-      <c r="AD34">
-        <v>126</v>
-      </c>
-      <c r="AE34">
-        <v>67</v>
-      </c>
-      <c r="AF34">
-        <v>67</v>
-      </c>
       <c r="AG34">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4227,806 +4200,99 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H35">
-        <v>1.37</v>
+        <v>3.6</v>
       </c>
       <c r="I35">
-        <v>4.83</v>
+        <v>3.33</v>
       </c>
       <c r="J35">
-        <v>9.85</v>
+        <v>2.21</v>
       </c>
       <c r="K35">
+        <v>2.42</v>
+      </c>
+      <c r="L35">
+        <v>1.62</v>
+      </c>
+      <c r="M35">
         <v>2.02</v>
       </c>
-      <c r="L35">
-        <v>1.85</v>
-      </c>
-      <c r="M35">
-        <v>2.4</v>
-      </c>
       <c r="N35">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="O35">
-        <v>1.06</v>
+        <v>1.71</v>
       </c>
       <c r="P35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Q35">
-        <v>3.19</v>
+        <v>1.32</v>
       </c>
       <c r="R35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S35">
+        <v>6.5</v>
+      </c>
+      <c r="T35">
+        <v>9.5</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>8.5</v>
+      </c>
+      <c r="W35">
+        <v>5.5</v>
+      </c>
+      <c r="X35">
+        <v>9</v>
+      </c>
+      <c r="Y35">
         <v>19</v>
       </c>
-      <c r="T35">
-        <v>51</v>
-      </c>
-      <c r="U35">
-        <v>201</v>
-      </c>
-      <c r="V35">
-        <v>5</v>
-      </c>
-      <c r="W35">
-        <v>9</v>
-      </c>
-      <c r="X35">
-        <v>26</v>
-      </c>
-      <c r="Y35">
-        <v>126</v>
-      </c>
       <c r="Z35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AA35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB35">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC35">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="AD35">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AE35">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AF35">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AG35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36">
-        <v>3.44</v>
-      </c>
-      <c r="I36">
-        <v>3.3</v>
-      </c>
-      <c r="J36">
-        <v>2.26</v>
-      </c>
-      <c r="K36">
-        <v>2.43</v>
-      </c>
-      <c r="L36">
-        <v>1.6</v>
-      </c>
-      <c r="M36">
-        <v>2.02</v>
-      </c>
-      <c r="N36">
-        <v>1.75</v>
-      </c>
-      <c r="O36">
-        <v>1.67</v>
-      </c>
-      <c r="P36">
-        <v>1.35</v>
-      </c>
-      <c r="Q36">
-        <v>1.33</v>
-      </c>
-      <c r="R36">
-        <v>7</v>
-      </c>
-      <c r="S36">
-        <v>7</v>
-      </c>
-      <c r="T36">
-        <v>11</v>
-      </c>
-      <c r="U36">
-        <v>23</v>
-      </c>
-      <c r="V36">
-        <v>7.5</v>
-      </c>
-      <c r="W36">
-        <v>5.5</v>
-      </c>
-      <c r="X36">
-        <v>9.5</v>
-      </c>
-      <c r="Y36">
-        <v>21</v>
-      </c>
-      <c r="Z36">
-        <v>13</v>
-      </c>
-      <c r="AA36">
-        <v>10</v>
-      </c>
-      <c r="AB36">
-        <v>14</v>
-      </c>
-      <c r="AC36">
-        <v>36</v>
-      </c>
-      <c r="AD36">
-        <v>34</v>
-      </c>
-      <c r="AE36">
-        <v>23</v>
-      </c>
-      <c r="AF36">
-        <v>41</v>
-      </c>
-      <c r="AG36">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37">
-        <v>3.56</v>
-      </c>
-      <c r="I37">
-        <v>3.31</v>
-      </c>
-      <c r="J37">
-        <v>2.21</v>
-      </c>
-      <c r="K37">
-        <v>2.41</v>
-      </c>
-      <c r="L37">
-        <v>1.61</v>
-      </c>
-      <c r="M37">
-        <v>2.02</v>
-      </c>
-      <c r="N37">
-        <v>1.75</v>
-      </c>
-      <c r="O37">
-        <v>1.7</v>
-      </c>
-      <c r="P37">
-        <v>1.35</v>
-      </c>
-      <c r="Q37">
-        <v>1.31</v>
-      </c>
-      <c r="R37">
-        <v>7</v>
-      </c>
-      <c r="S37">
-        <v>7</v>
-      </c>
-      <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="U37">
-        <v>23</v>
-      </c>
-      <c r="V37">
-        <v>8</v>
-      </c>
-      <c r="W37">
-        <v>5.5</v>
-      </c>
-      <c r="X37">
-        <v>9.5</v>
-      </c>
-      <c r="Y37">
-        <v>20</v>
-      </c>
-      <c r="Z37">
-        <v>14</v>
-      </c>
-      <c r="AA37">
-        <v>11</v>
-      </c>
-      <c r="AB37">
-        <v>15</v>
-      </c>
-      <c r="AC37">
-        <v>34</v>
-      </c>
-      <c r="AD37">
-        <v>36</v>
-      </c>
-      <c r="AE37">
-        <v>26</v>
-      </c>
-      <c r="AF37">
-        <v>41</v>
-      </c>
-      <c r="AG37">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38">
-        <v>2.63</v>
-      </c>
-      <c r="I38">
-        <v>3.23</v>
-      </c>
-      <c r="J38">
-        <v>2.88</v>
-      </c>
-      <c r="K38">
-        <v>2.43</v>
-      </c>
-      <c r="L38">
-        <v>1.6</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>1.77</v>
-      </c>
-      <c r="O38">
-        <v>1.44</v>
-      </c>
-      <c r="P38">
-        <v>1.37</v>
-      </c>
-      <c r="Q38">
-        <v>1.51</v>
-      </c>
-      <c r="R38">
-        <v>7</v>
-      </c>
-      <c r="S38">
-        <v>8</v>
-      </c>
-      <c r="T38">
-        <v>13</v>
-      </c>
-      <c r="U38">
-        <v>34</v>
-      </c>
-      <c r="V38">
-        <v>7</v>
-      </c>
-      <c r="W38">
-        <v>5.5</v>
-      </c>
-      <c r="X38">
-        <v>10</v>
-      </c>
-      <c r="Y38">
-        <v>23</v>
-      </c>
-      <c r="Z38">
-        <v>11</v>
-      </c>
-      <c r="AA38">
-        <v>10</v>
-      </c>
-      <c r="AB38">
-        <v>14</v>
-      </c>
-      <c r="AC38">
-        <v>36</v>
-      </c>
-      <c r="AD38">
-        <v>23</v>
-      </c>
-      <c r="AE38">
-        <v>21</v>
-      </c>
-      <c r="AF38">
-        <v>36</v>
-      </c>
-      <c r="AG38">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39">
-        <v>3.26</v>
-      </c>
-      <c r="I39">
-        <v>3.28</v>
-      </c>
-      <c r="J39">
-        <v>2.36</v>
-      </c>
-      <c r="K39">
-        <v>2.35</v>
-      </c>
-      <c r="L39">
-        <v>1.64</v>
-      </c>
-      <c r="M39">
-        <v>1.96</v>
-      </c>
-      <c r="N39">
-        <v>1.8</v>
-      </c>
-      <c r="O39">
-        <v>1.62</v>
-      </c>
-      <c r="P39">
-        <v>1.36</v>
-      </c>
-      <c r="Q39">
-        <v>1.36</v>
-      </c>
-      <c r="R39">
-        <v>7.5</v>
-      </c>
-      <c r="S39">
-        <v>7</v>
-      </c>
-      <c r="T39">
-        <v>11</v>
-      </c>
-      <c r="U39">
-        <v>23</v>
-      </c>
-      <c r="V39">
-        <v>8</v>
-      </c>
-      <c r="W39">
-        <v>5.5</v>
-      </c>
-      <c r="X39">
-        <v>9</v>
-      </c>
-      <c r="Y39">
-        <v>20</v>
-      </c>
-      <c r="Z39">
-        <v>13</v>
-      </c>
-      <c r="AA39">
-        <v>11</v>
-      </c>
-      <c r="AB39">
-        <v>14</v>
-      </c>
-      <c r="AC39">
-        <v>34</v>
-      </c>
-      <c r="AD39">
-        <v>34</v>
-      </c>
-      <c r="AE39">
-        <v>26</v>
-      </c>
-      <c r="AF39">
-        <v>36</v>
-      </c>
-      <c r="AG39">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40">
-        <v>2.79</v>
-      </c>
-      <c r="I40">
-        <v>3.24</v>
-      </c>
-      <c r="J40">
-        <v>2.71</v>
-      </c>
-      <c r="K40">
-        <v>2.36</v>
-      </c>
-      <c r="L40">
-        <v>1.63</v>
-      </c>
-      <c r="M40">
-        <v>1.96</v>
-      </c>
-      <c r="N40">
-        <v>1.8</v>
-      </c>
-      <c r="O40">
-        <v>1.49</v>
-      </c>
-      <c r="P40">
-        <v>1.36</v>
-      </c>
-      <c r="Q40">
-        <v>1.46</v>
-      </c>
-      <c r="R40">
-        <v>7.5</v>
-      </c>
-      <c r="S40">
-        <v>8</v>
-      </c>
-      <c r="T40">
-        <v>13</v>
-      </c>
-      <c r="U40">
-        <v>31</v>
-      </c>
-      <c r="V40">
-        <v>7.5</v>
-      </c>
-      <c r="W40">
-        <v>5.5</v>
-      </c>
-      <c r="X40">
-        <v>10</v>
-      </c>
-      <c r="Y40">
-        <v>23</v>
-      </c>
-      <c r="Z40">
-        <v>11</v>
-      </c>
-      <c r="AA40">
-        <v>9.5</v>
-      </c>
-      <c r="AB40">
-        <v>14</v>
-      </c>
-      <c r="AC40">
-        <v>36</v>
-      </c>
-      <c r="AD40">
-        <v>26</v>
-      </c>
-      <c r="AE40">
-        <v>21</v>
-      </c>
-      <c r="AF40">
-        <v>36</v>
-      </c>
-      <c r="AG40">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41">
-        <v>1.72</v>
-      </c>
-      <c r="I41">
-        <v>3.71</v>
-      </c>
-      <c r="J41">
-        <v>5.39</v>
-      </c>
-      <c r="K41">
-        <v>2.3</v>
-      </c>
-      <c r="L41">
-        <v>1.66</v>
-      </c>
-      <c r="M41">
-        <v>2.14</v>
-      </c>
-      <c r="N41">
-        <v>1.67</v>
-      </c>
-      <c r="O41">
-        <v>1.17</v>
-      </c>
-      <c r="P41">
-        <v>1.3</v>
-      </c>
-      <c r="Q41">
-        <v>2.17</v>
-      </c>
-      <c r="R41">
-        <v>7.5</v>
-      </c>
-      <c r="S41">
-        <v>12</v>
-      </c>
-      <c r="T41">
-        <v>26</v>
-      </c>
-      <c r="U41">
-        <v>101</v>
-      </c>
-      <c r="V41">
-        <v>5</v>
-      </c>
-      <c r="W41">
-        <v>7</v>
-      </c>
-      <c r="X41">
-        <v>18</v>
-      </c>
-      <c r="Y41">
-        <v>61</v>
-      </c>
-      <c r="Z41">
-        <v>7</v>
-      </c>
-      <c r="AA41">
-        <v>8</v>
-      </c>
-      <c r="AB41">
-        <v>19</v>
-      </c>
-      <c r="AC41">
-        <v>81</v>
-      </c>
-      <c r="AD41">
-        <v>11</v>
-      </c>
-      <c r="AE41">
-        <v>14</v>
-      </c>
-      <c r="AF41">
-        <v>31</v>
-      </c>
-      <c r="AG41">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42">
-        <v>3.62</v>
-      </c>
-      <c r="I42">
-        <v>3.32</v>
-      </c>
-      <c r="J42">
-        <v>2.18</v>
-      </c>
-      <c r="K42">
-        <v>2.41</v>
-      </c>
-      <c r="L42">
-        <v>1.61</v>
-      </c>
-      <c r="M42">
-        <v>2.02</v>
-      </c>
-      <c r="N42">
-        <v>1.75</v>
-      </c>
-      <c r="O42">
-        <v>1.72</v>
-      </c>
-      <c r="P42">
-        <v>1.35</v>
-      </c>
-      <c r="Q42">
-        <v>1.31</v>
-      </c>
-      <c r="R42">
-        <v>7</v>
-      </c>
-      <c r="S42">
-        <v>6.5</v>
-      </c>
-      <c r="T42">
-        <v>9.5</v>
-      </c>
-      <c r="U42">
-        <v>20</v>
-      </c>
-      <c r="V42">
-        <v>8.5</v>
-      </c>
-      <c r="W42">
-        <v>5.5</v>
-      </c>
-      <c r="X42">
-        <v>9</v>
-      </c>
-      <c r="Y42">
-        <v>19</v>
-      </c>
-      <c r="Z42">
-        <v>15</v>
-      </c>
-      <c r="AA42">
-        <v>11</v>
-      </c>
-      <c r="AB42">
-        <v>15</v>
-      </c>
-      <c r="AC42">
-        <v>36</v>
-      </c>
-      <c r="AD42">
-        <v>41</v>
-      </c>
-      <c r="AE42">
-        <v>31</v>
-      </c>
-      <c r="AF42">
-        <v>41</v>
-      </c>
-      <c r="AG42">
         <v>91</v>
       </c>
     </row>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -115,18 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>QZ9sqLro</t>
-  </si>
-  <si>
-    <t>YyV2j3jB</t>
-  </si>
-  <si>
-    <t>pYcbh6Z5</t>
-  </si>
-  <si>
-    <t>298ggnKa</t>
-  </si>
-  <si>
     <t>K4DPGJgf</t>
   </si>
   <si>
@@ -151,7 +139,16 @@
     <t>StTYFv6T</t>
   </si>
   <si>
-    <t>2024-06-30</t>
+    <t>dzYcuYye</t>
+  </si>
+  <si>
+    <t>rm0QrnRk</t>
+  </si>
+  <si>
+    <t>lAUksf7r</t>
+  </si>
+  <si>
+    <t>0dMzsHxJ</t>
   </si>
   <si>
     <t>2024-07-01</t>
@@ -160,15 +157,21 @@
     <t>2024-07-02</t>
   </si>
   <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-07-06</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>21:00</t>
-  </si>
-  <si>
     <t>22:00</t>
   </si>
   <si>
@@ -178,76 +181,76 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
     <t>England</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
   <si>
     <t xml:space="preserve">PLAY OFFS </t>
@@ -726,97 +729,97 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="I2">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J2">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="O2">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="P2">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q2">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2">
         <v>8</v>
       </c>
       <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>51</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>6.5</v>
+      </c>
+      <c r="X2">
         <v>15</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>41</v>
       </c>
-      <c r="U2">
-        <v>126</v>
-      </c>
-      <c r="V2">
-        <v>5.5</v>
-      </c>
-      <c r="W2">
-        <v>8.5</v>
-      </c>
-      <c r="X2">
-        <v>26</v>
-      </c>
-      <c r="Y2">
-        <v>81</v>
-      </c>
       <c r="Z2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AC2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AE2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -827,97 +830,97 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>1.33</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>9.5</v>
+      </c>
+      <c r="K3">
+        <v>1.87</v>
+      </c>
+      <c r="L3">
+        <v>2.06</v>
+      </c>
+      <c r="M3">
+        <v>2.2</v>
+      </c>
+      <c r="N3">
+        <v>1.62</v>
+      </c>
+      <c r="O3">
+        <v>1.06</v>
+      </c>
+      <c r="P3">
+        <v>1.17</v>
+      </c>
+      <c r="Q3">
+        <v>3.25</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>19</v>
+      </c>
+      <c r="T3">
+        <v>41</v>
+      </c>
+      <c r="U3">
+        <v>126</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>26</v>
+      </c>
+      <c r="Y3">
         <v>67</v>
       </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>1.2</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>1.62</v>
-      </c>
-      <c r="L3">
-        <v>2.3</v>
-      </c>
-      <c r="M3">
-        <v>2.5</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>1.04</v>
-      </c>
-      <c r="P3">
-        <v>1.1</v>
-      </c>
-      <c r="Q3">
-        <v>4.33</v>
-      </c>
-      <c r="R3">
-        <v>13</v>
-      </c>
-      <c r="S3">
-        <v>29</v>
-      </c>
-      <c r="T3">
+      <c r="Z3">
+        <v>6.5</v>
+      </c>
+      <c r="AA3">
+        <v>9.5</v>
+      </c>
+      <c r="AB3">
+        <v>26</v>
+      </c>
+      <c r="AC3">
         <v>67</v>
       </c>
-      <c r="U3">
-        <v>251</v>
-      </c>
-      <c r="V3">
-        <v>7.5</v>
-      </c>
-      <c r="W3">
-        <v>13</v>
-      </c>
-      <c r="X3">
-        <v>41</v>
-      </c>
-      <c r="Y3">
-        <v>101</v>
-      </c>
-      <c r="Z3">
-        <v>6</v>
-      </c>
-      <c r="AA3">
-        <v>11</v>
-      </c>
-      <c r="AB3">
-        <v>34</v>
-      </c>
-      <c r="AC3">
-        <v>101</v>
-      </c>
       <c r="AD3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE3">
         <v>13</v>
       </c>
       <c r="AF3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -928,88 +931,88 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J4">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="L4">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="P4">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q4">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="S4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>29</v>
+      </c>
+      <c r="AA4">
         <v>19</v>
-      </c>
-      <c r="Z4">
-        <v>21</v>
-      </c>
-      <c r="AA4">
-        <v>15</v>
       </c>
       <c r="AB4">
         <v>19</v>
       </c>
       <c r="AC4">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD4">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE4">
         <v>41</v>
@@ -1029,97 +1032,97 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="I5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="O5">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5">
         <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="S5">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="T5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5">
         <v>26</v>
       </c>
       <c r="Z5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5">
         <v>41</v>
       </c>
       <c r="AD5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF5">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1130,97 +1133,97 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>1.91</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
-        <v>4.6</v>
+        <v>1.42</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
+        <v>1.95</v>
+      </c>
+      <c r="M6">
+        <v>2.2</v>
+      </c>
+      <c r="N6">
         <v>1.62</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1.73</v>
-      </c>
       <c r="O6">
+        <v>2.75</v>
+      </c>
+      <c r="P6">
         <v>1.18</v>
       </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
       <c r="Q6">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="R6">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="S6">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="T6">
+        <v>6.5</v>
+      </c>
+      <c r="U6">
+        <v>9.5</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+      <c r="X6">
+        <v>9.5</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>41</v>
+      </c>
+      <c r="AA6">
         <v>23</v>
       </c>
-      <c r="U6">
-        <v>51</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <v>6.5</v>
-      </c>
-      <c r="X6">
-        <v>17</v>
-      </c>
-      <c r="Y6">
-        <v>41</v>
-      </c>
-      <c r="Z6">
-        <v>8.5</v>
-      </c>
-      <c r="AA6">
-        <v>9.5</v>
-      </c>
       <c r="AB6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD6">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AE6">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AF6">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG6">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1231,97 +1234,97 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="I7">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="J7">
+        <v>4.2</v>
+      </c>
+      <c r="K7">
+        <v>1.98</v>
+      </c>
+      <c r="L7">
+        <v>1.92</v>
+      </c>
+      <c r="M7">
+        <v>1.73</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1.22</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>1.8</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>41</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>6.5</v>
+      </c>
+      <c r="X7">
+        <v>15</v>
+      </c>
+      <c r="Y7">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>2.01</v>
-      </c>
-      <c r="L7">
-        <v>1.89</v>
-      </c>
-      <c r="M7">
-        <v>2.38</v>
-      </c>
-      <c r="N7">
-        <v>1.53</v>
-      </c>
-      <c r="O7">
-        <v>1.07</v>
-      </c>
-      <c r="P7">
-        <v>1.18</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>9.5</v>
-      </c>
-      <c r="S7">
-        <v>19</v>
-      </c>
-      <c r="T7">
+      <c r="AB7">
+        <v>15</v>
+      </c>
+      <c r="AC7">
         <v>41</v>
       </c>
-      <c r="U7">
-        <v>126</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>9.5</v>
-      </c>
-      <c r="X7">
+      <c r="AD7">
+        <v>17</v>
+      </c>
+      <c r="AE7">
+        <v>17</v>
+      </c>
+      <c r="AF7">
         <v>29</v>
       </c>
-      <c r="Y7">
-        <v>81</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <v>9.5</v>
-      </c>
-      <c r="AB7">
-        <v>26</v>
-      </c>
-      <c r="AC7">
-        <v>81</v>
-      </c>
-      <c r="AD7">
-        <v>8.5</v>
-      </c>
-      <c r="AE7">
-        <v>15</v>
-      </c>
-      <c r="AF7">
-        <v>41</v>
-      </c>
       <c r="AG7">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1332,97 +1335,97 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="I8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
-        <v>1.62</v>
+        <v>4.33</v>
       </c>
       <c r="K8">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="P8">
         <v>1.25</v>
       </c>
       <c r="Q8">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="R8">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="T8">
+        <v>23</v>
+      </c>
+      <c r="U8">
+        <v>51</v>
+      </c>
+      <c r="V8">
         <v>7.5</v>
       </c>
-      <c r="U8">
-        <v>12</v>
-      </c>
-      <c r="V8">
-        <v>13</v>
-      </c>
       <c r="W8">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>41</v>
+      </c>
+      <c r="Z8">
         <v>9</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>17</v>
+      </c>
+      <c r="AC8">
+        <v>41</v>
+      </c>
+      <c r="AD8">
         <v>15</v>
       </c>
-      <c r="Z8">
+      <c r="AE8">
+        <v>15</v>
+      </c>
+      <c r="AF8">
         <v>29</v>
       </c>
-      <c r="AA8">
-        <v>19</v>
-      </c>
-      <c r="AB8">
-        <v>21</v>
-      </c>
-      <c r="AC8">
-        <v>34</v>
-      </c>
-      <c r="AD8">
-        <v>67</v>
-      </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>51</v>
-      </c>
-      <c r="AF8">
-        <v>51</v>
-      </c>
-      <c r="AG8">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1433,97 +1436,97 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L9">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M9">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="N9">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q9">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="R9">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
         <v>9</v>
       </c>
-      <c r="T9">
-        <v>15</v>
-      </c>
       <c r="U9">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="W9">
         <v>6.5</v>
       </c>
       <c r="X9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC9">
         <v>41</v>
       </c>
       <c r="AD9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AE9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AF9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG9">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1534,94 +1537,94 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10">
+        <v>1.48</v>
+      </c>
+      <c r="I10">
+        <v>4.1</v>
+      </c>
+      <c r="J10">
         <v>7.5</v>
       </c>
-      <c r="I10">
-        <v>4.33</v>
-      </c>
-      <c r="J10">
-        <v>1.44</v>
-      </c>
       <c r="K10">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="L10">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
+        <v>1.1</v>
+      </c>
+      <c r="P10">
+        <v>1.22</v>
+      </c>
+      <c r="Q10">
         <v>2.63</v>
       </c>
-      <c r="P10">
-        <v>1.2</v>
-      </c>
-      <c r="Q10">
-        <v>1.1</v>
-      </c>
       <c r="R10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S10">
+        <v>19</v>
+      </c>
+      <c r="T10">
+        <v>51</v>
+      </c>
+      <c r="U10">
+        <v>151</v>
+      </c>
+      <c r="V10">
+        <v>6.5</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>34</v>
+      </c>
+      <c r="Y10">
+        <v>101</v>
+      </c>
+      <c r="Z10">
         <v>6</v>
       </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>9.5</v>
-      </c>
-      <c r="V10">
-        <v>15</v>
-      </c>
-      <c r="W10">
-        <v>9</v>
-      </c>
-      <c r="X10">
-        <v>9.5</v>
-      </c>
-      <c r="Y10">
-        <v>15</v>
-      </c>
-      <c r="Z10">
-        <v>41</v>
-      </c>
       <c r="AA10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB10">
         <v>26</v>
       </c>
       <c r="AC10">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AD10">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="AE10">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AF10">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10">
         <v>101</v>
@@ -1632,37 +1635,37 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="I11">
         <v>3.25</v>
       </c>
       <c r="J11">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K11">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="L11">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="M11">
         <v>1.73</v>
@@ -1671,58 +1674,58 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P11">
         <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="R11">
         <v>9.5</v>
       </c>
       <c r="S11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="U11">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W11">
         <v>6.5</v>
       </c>
       <c r="X11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y11">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB11">
         <v>15</v>
       </c>
       <c r="AC11">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD11">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG11">
         <v>51</v>
@@ -1733,37 +1736,37 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
       </c>
       <c r="H12">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="I12">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J12">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="M12">
         <v>1.95</v>
@@ -1772,58 +1775,58 @@
         <v>1.8</v>
       </c>
       <c r="O12">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="P12">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q12">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>13</v>
+      </c>
+      <c r="U12">
+        <v>29</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
         <v>12</v>
       </c>
-      <c r="T12">
-        <v>23</v>
-      </c>
-      <c r="U12">
-        <v>51</v>
-      </c>
-      <c r="V12">
-        <v>6.5</v>
-      </c>
-      <c r="W12">
-        <v>7</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
+        <v>26</v>
+      </c>
+      <c r="Z12">
+        <v>13</v>
+      </c>
+      <c r="AA12">
+        <v>11</v>
+      </c>
+      <c r="AB12">
         <v>17</v>
-      </c>
-      <c r="Y12">
-        <v>41</v>
-      </c>
-      <c r="Z12">
-        <v>8.5</v>
-      </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>19</v>
       </c>
       <c r="AC12">
         <v>41</v>
       </c>
       <c r="AD12">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE12">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF12">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12">
         <v>67</v>
@@ -1834,100 +1837,100 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
         <v>79</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="K13">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="L13">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O13">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="P13">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q13">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="R13">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="S13">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="U13">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>15</v>
+      </c>
+      <c r="Y13">
+        <v>41</v>
+      </c>
+      <c r="Z13">
         <v>9.5</v>
       </c>
-      <c r="W13">
-        <v>6.5</v>
-      </c>
-      <c r="X13">
+      <c r="AA13">
         <v>10</v>
-      </c>
-      <c r="Y13">
-        <v>21</v>
-      </c>
-      <c r="Z13">
-        <v>19</v>
-      </c>
-      <c r="AA13">
-        <v>15</v>
       </c>
       <c r="AB13">
         <v>19</v>
       </c>
       <c r="AC13">
+        <v>51</v>
+      </c>
+      <c r="AD13">
+        <v>21</v>
+      </c>
+      <c r="AE13">
+        <v>23</v>
+      </c>
+      <c r="AF13">
         <v>41</v>
       </c>
-      <c r="AD13">
-        <v>41</v>
-      </c>
-      <c r="AE13">
-        <v>41</v>
-      </c>
-      <c r="AF13">
-        <v>51</v>
-      </c>
       <c r="AG13">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -115,18 +115,6 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>K4DPGJgf</t>
-  </si>
-  <si>
-    <t>6kTAlsLN</t>
-  </si>
-  <si>
-    <t>UwuO8RJn</t>
-  </si>
-  <si>
-    <t>zHuK974t</t>
-  </si>
-  <si>
     <t>xOGS6Ozh</t>
   </si>
   <si>
@@ -145,15 +133,15 @@
     <t>rm0QrnRk</t>
   </si>
   <si>
+    <t>xf5z0D9j</t>
+  </si>
+  <si>
     <t>lAUksf7r</t>
   </si>
   <si>
     <t>0dMzsHxJ</t>
   </si>
   <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
     <t>2024-07-02</t>
   </si>
   <si>
@@ -181,70 +169,52 @@
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Germany</t>
   </si>
   <si>
     <t>Canada</t>
@@ -614,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,100 +696,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
+      </c>
+      <c r="I2">
+        <v>4.5</v>
+      </c>
+      <c r="J2">
+        <v>1.4</v>
+      </c>
+      <c r="K2">
+        <v>1.86</v>
+      </c>
+      <c r="L2">
+        <v>2.07</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1.73</v>
+      </c>
+      <c r="O2">
+        <v>2.75</v>
+      </c>
+      <c r="P2">
+        <v>1.18</v>
+      </c>
+      <c r="Q2">
+        <v>1.08</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>6.5</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>8.5</v>
+      </c>
+      <c r="X2">
+        <v>8.5</v>
+      </c>
+      <c r="Y2">
+        <v>13</v>
+      </c>
+      <c r="Z2">
+        <v>41</v>
+      </c>
+      <c r="AA2">
+        <v>23</v>
+      </c>
+      <c r="AB2">
+        <v>21</v>
+      </c>
+      <c r="AC2">
+        <v>29</v>
+      </c>
+      <c r="AD2">
+        <v>101</v>
+      </c>
+      <c r="AE2">
+        <v>51</v>
+      </c>
+      <c r="AF2">
+        <v>51</v>
+      </c>
+      <c r="AG2">
         <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2">
-        <v>1.95</v>
-      </c>
-      <c r="I2">
-        <v>3.2</v>
-      </c>
-      <c r="J2">
-        <v>4.5</v>
-      </c>
-      <c r="K2">
-        <v>2.1</v>
-      </c>
-      <c r="L2">
-        <v>1.73</v>
-      </c>
-      <c r="M2">
-        <v>1.83</v>
-      </c>
-      <c r="N2">
-        <v>1.83</v>
-      </c>
-      <c r="O2">
-        <v>1.18</v>
-      </c>
-      <c r="P2">
-        <v>1.36</v>
-      </c>
-      <c r="Q2">
-        <v>1.8</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>12</v>
-      </c>
-      <c r="T2">
-        <v>23</v>
-      </c>
-      <c r="U2">
-        <v>51</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>6.5</v>
-      </c>
-      <c r="X2">
-        <v>15</v>
-      </c>
-      <c r="Y2">
-        <v>41</v>
-      </c>
-      <c r="Z2">
-        <v>9</v>
-      </c>
-      <c r="AA2">
-        <v>9.5</v>
-      </c>
-      <c r="AB2">
-        <v>17</v>
-      </c>
-      <c r="AC2">
-        <v>41</v>
-      </c>
-      <c r="AD2">
-        <v>17</v>
-      </c>
-      <c r="AE2">
-        <v>17</v>
-      </c>
-      <c r="AF2">
-        <v>34</v>
-      </c>
-      <c r="AG2">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -827,100 +797,100 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>1.91</v>
+      </c>
+      <c r="I3">
+        <v>3.4</v>
+      </c>
+      <c r="J3">
+        <v>4.33</v>
+      </c>
+      <c r="K3">
+        <v>2.03</v>
+      </c>
+      <c r="L3">
+        <v>1.9</v>
+      </c>
+      <c r="M3">
+        <v>1.73</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1.2</v>
+      </c>
+      <c r="P3">
+        <v>1.3</v>
+      </c>
+      <c r="Q3">
+        <v>1.83</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>23</v>
+      </c>
+      <c r="U3">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3">
-        <v>1.33</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>6.5</v>
+      </c>
+      <c r="X3">
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <v>34</v>
+      </c>
+      <c r="Z3">
         <v>9.5</v>
       </c>
-      <c r="K3">
-        <v>1.87</v>
-      </c>
-      <c r="L3">
-        <v>2.06</v>
-      </c>
-      <c r="M3">
-        <v>2.2</v>
-      </c>
-      <c r="N3">
-        <v>1.62</v>
-      </c>
-      <c r="O3">
-        <v>1.06</v>
-      </c>
-      <c r="P3">
-        <v>1.17</v>
-      </c>
-      <c r="Q3">
-        <v>3.25</v>
-      </c>
-      <c r="R3">
-        <v>11</v>
-      </c>
-      <c r="S3">
-        <v>19</v>
-      </c>
-      <c r="T3">
+      <c r="AA3">
+        <v>9</v>
+      </c>
+      <c r="AB3">
+        <v>15</v>
+      </c>
+      <c r="AC3">
         <v>41</v>
       </c>
-      <c r="U3">
-        <v>126</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3">
+      <c r="AD3">
+        <v>17</v>
+      </c>
+      <c r="AE3">
+        <v>17</v>
+      </c>
+      <c r="AF3">
         <v>26</v>
       </c>
-      <c r="Y3">
-        <v>67</v>
-      </c>
-      <c r="Z3">
-        <v>6.5</v>
-      </c>
-      <c r="AA3">
-        <v>9.5</v>
-      </c>
-      <c r="AB3">
-        <v>26</v>
-      </c>
-      <c r="AC3">
-        <v>67</v>
-      </c>
-      <c r="AD3">
-        <v>8.5</v>
-      </c>
-      <c r="AE3">
-        <v>13</v>
-      </c>
-      <c r="AF3">
-        <v>34</v>
-      </c>
       <c r="AG3">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -928,37 +898,37 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="I4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="K4">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="M4">
         <v>1.95</v>
@@ -967,58 +937,58 @@
         <v>1.8</v>
       </c>
       <c r="O4">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q4">
-        <v>1.14</v>
+        <v>1.91</v>
       </c>
       <c r="R4">
+        <v>8.5</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>51</v>
+      </c>
+      <c r="V4">
+        <v>6.5</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>15</v>
+      </c>
+      <c r="Y4">
+        <v>41</v>
+      </c>
+      <c r="Z4">
+        <v>8.5</v>
+      </c>
+      <c r="AA4">
         <v>9.5</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>7.5</v>
-      </c>
-      <c r="U4">
-        <v>13</v>
-      </c>
-      <c r="V4">
-        <v>15</v>
-      </c>
-      <c r="W4">
-        <v>7.5</v>
-      </c>
-      <c r="X4">
-        <v>9</v>
-      </c>
-      <c r="Y4">
-        <v>15</v>
-      </c>
-      <c r="Z4">
-        <v>29</v>
-      </c>
-      <c r="AA4">
-        <v>19</v>
       </c>
       <c r="AB4">
         <v>19</v>
       </c>
       <c r="AC4">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD4">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="AE4">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AF4">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG4">
         <v>67</v>
@@ -1029,31 +999,31 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
       <c r="H5">
-        <v>2.55</v>
+        <v>4.1</v>
       </c>
       <c r="I5">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="K5">
         <v>2.2</v>
@@ -1062,67 +1032,67 @@
         <v>1.67</v>
       </c>
       <c r="M5">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="P5">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q5">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>6.5</v>
+      </c>
+      <c r="T5">
         <v>8.5</v>
       </c>
-      <c r="S5">
-        <v>8.5</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>17</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>9.5</v>
+      </c>
+      <c r="Y5">
+        <v>19</v>
+      </c>
+      <c r="Z5">
+        <v>21</v>
+      </c>
+      <c r="AA5">
         <v>15</v>
       </c>
-      <c r="U5">
+      <c r="AB5">
+        <v>19</v>
+      </c>
+      <c r="AC5">
         <v>34</v>
       </c>
-      <c r="V5">
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <v>6.5</v>
-      </c>
-      <c r="X5">
-        <v>12</v>
-      </c>
-      <c r="Y5">
-        <v>26</v>
-      </c>
-      <c r="Z5">
-        <v>12</v>
-      </c>
-      <c r="AA5">
-        <v>11</v>
-      </c>
-      <c r="AB5">
-        <v>17</v>
-      </c>
-      <c r="AC5">
+      <c r="AD5">
+        <v>51</v>
+      </c>
+      <c r="AE5">
         <v>41</v>
       </c>
-      <c r="AD5">
-        <v>26</v>
-      </c>
-      <c r="AE5">
-        <v>23</v>
-      </c>
       <c r="AF5">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG5">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1130,100 +1100,100 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H6">
+        <v>1.45</v>
+      </c>
+      <c r="I6">
+        <v>4.2</v>
+      </c>
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>4.5</v>
-      </c>
-      <c r="J6">
-        <v>1.42</v>
-      </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="N6">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="O6">
-        <v>2.75</v>
+        <v>1.08</v>
       </c>
       <c r="P6">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Q6">
-        <v>1.08</v>
+        <v>2.63</v>
       </c>
       <c r="R6">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="S6">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="T6">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="U6">
-        <v>9.5</v>
+        <v>126</v>
       </c>
       <c r="V6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>9</v>
       </c>
       <c r="X6">
+        <v>26</v>
+      </c>
+      <c r="Y6">
+        <v>81</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>29</v>
+      </c>
+      <c r="AC6">
+        <v>81</v>
+      </c>
+      <c r="AD6">
         <v>9.5</v>
       </c>
-      <c r="Y6">
-        <v>15</v>
-      </c>
-      <c r="Z6">
+      <c r="AE6">
+        <v>17</v>
+      </c>
+      <c r="AF6">
         <v>41</v>
       </c>
-      <c r="AA6">
-        <v>23</v>
-      </c>
-      <c r="AB6">
-        <v>23</v>
-      </c>
-      <c r="AC6">
-        <v>34</v>
-      </c>
-      <c r="AD6">
-        <v>101</v>
-      </c>
-      <c r="AE6">
-        <v>67</v>
-      </c>
-      <c r="AF6">
-        <v>67</v>
-      </c>
       <c r="AG6">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1231,37 +1201,37 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H7">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="I7">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="L7">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="M7">
         <v>1.73</v>
@@ -1270,58 +1240,58 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="P7">
         <v>1.33</v>
       </c>
       <c r="Q7">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
         <v>13</v>
       </c>
-      <c r="T7">
-        <v>23</v>
-      </c>
       <c r="U7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W7">
         <v>6.5</v>
       </c>
       <c r="X7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB7">
         <v>15</v>
       </c>
       <c r="AC7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG7">
         <v>51</v>
@@ -1332,100 +1302,100 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H8">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="I8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="J8">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>1.53</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>1.9</v>
-      </c>
-      <c r="M8">
-        <v>1.8</v>
-      </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="P8">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q8">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>6.5</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>23</v>
+      </c>
+      <c r="V8">
+        <v>8.5</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
         <v>11</v>
       </c>
-      <c r="S8">
+      <c r="Y8">
+        <v>23</v>
+      </c>
+      <c r="Z8">
+        <v>17</v>
+      </c>
+      <c r="AA8">
         <v>13</v>
       </c>
-      <c r="T8">
-        <v>23</v>
-      </c>
-      <c r="U8">
-        <v>51</v>
-      </c>
-      <c r="V8">
-        <v>7.5</v>
-      </c>
-      <c r="W8">
-        <v>7.5</v>
-      </c>
-      <c r="X8">
-        <v>15</v>
-      </c>
-      <c r="Y8">
-        <v>41</v>
-      </c>
-      <c r="Z8">
-        <v>9</v>
-      </c>
-      <c r="AA8">
-        <v>9</v>
-      </c>
       <c r="AB8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC8">
         <v>41</v>
       </c>
       <c r="AD8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AE8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF8">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG8">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1433,31 +1403,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="I9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K9">
         <v>2.38</v>
@@ -1466,67 +1436,67 @@
         <v>1.57</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>13</v>
+      </c>
+      <c r="U9">
+        <v>34</v>
+      </c>
+      <c r="V9">
         <v>7.5</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>6</v>
       </c>
-      <c r="T9">
-        <v>9</v>
-      </c>
-      <c r="U9">
-        <v>19</v>
-      </c>
-      <c r="V9">
-        <v>9.5</v>
-      </c>
-      <c r="W9">
-        <v>6.5</v>
-      </c>
       <c r="X9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC9">
         <v>41</v>
       </c>
       <c r="AD9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AE9">
+        <v>26</v>
+      </c>
+      <c r="AF9">
         <v>41</v>
       </c>
-      <c r="AF9">
-        <v>51</v>
-      </c>
       <c r="AG9">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1534,402 +1504,99 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H10">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="I10">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="L10">
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <v>2.1</v>
+      </c>
+      <c r="N10">
+        <v>1.63</v>
+      </c>
+      <c r="O10">
+        <v>1.29</v>
+      </c>
+      <c r="P10">
+        <v>1.36</v>
+      </c>
+      <c r="Q10">
         <v>1.62</v>
       </c>
-      <c r="M10">
-        <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10">
-        <v>1.1</v>
-      </c>
-      <c r="P10">
-        <v>1.22</v>
-      </c>
-      <c r="Q10">
-        <v>2.63</v>
-      </c>
       <c r="R10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="S10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="U10">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="V10">
         <v>6.5</v>
       </c>
       <c r="W10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X10">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Y10">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AC10">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AD10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AE10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF10">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11">
-        <v>2.63</v>
-      </c>
-      <c r="I11">
-        <v>3.25</v>
-      </c>
-      <c r="J11">
-        <v>2.75</v>
-      </c>
-      <c r="K11">
-        <v>2.08</v>
-      </c>
-      <c r="L11">
-        <v>1.82</v>
-      </c>
-      <c r="M11">
-        <v>1.73</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>1.4</v>
-      </c>
-      <c r="P11">
-        <v>1.33</v>
-      </c>
-      <c r="Q11">
-        <v>1.44</v>
-      </c>
-      <c r="R11">
-        <v>9.5</v>
-      </c>
-      <c r="S11">
-        <v>9</v>
-      </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
-        <v>29</v>
-      </c>
-      <c r="V11">
-        <v>9</v>
-      </c>
-      <c r="W11">
-        <v>6.5</v>
-      </c>
-      <c r="X11">
-        <v>11</v>
-      </c>
-      <c r="Y11">
-        <v>23</v>
-      </c>
-      <c r="Z11">
-        <v>13</v>
-      </c>
-      <c r="AA11">
-        <v>11</v>
-      </c>
-      <c r="AB11">
-        <v>15</v>
-      </c>
-      <c r="AC11">
-        <v>34</v>
-      </c>
-      <c r="AD11">
-        <v>29</v>
-      </c>
-      <c r="AE11">
-        <v>23</v>
-      </c>
-      <c r="AF11">
-        <v>34</v>
-      </c>
-      <c r="AG11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12">
-        <v>2.7</v>
-      </c>
-      <c r="I12">
-        <v>3.1</v>
-      </c>
-      <c r="J12">
-        <v>2.8</v>
-      </c>
-      <c r="K12">
-        <v>2.3</v>
-      </c>
-      <c r="L12">
-        <v>1.62</v>
-      </c>
-      <c r="M12">
-        <v>1.95</v>
-      </c>
-      <c r="N12">
-        <v>1.8</v>
-      </c>
-      <c r="O12">
-        <v>1.4</v>
-      </c>
-      <c r="P12">
-        <v>1.36</v>
-      </c>
-      <c r="Q12">
-        <v>1.44</v>
-      </c>
-      <c r="R12">
-        <v>7.5</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <v>13</v>
-      </c>
-      <c r="U12">
-        <v>29</v>
-      </c>
-      <c r="V12">
-        <v>8</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>12</v>
-      </c>
-      <c r="Y12">
-        <v>26</v>
-      </c>
-      <c r="Z12">
-        <v>13</v>
-      </c>
-      <c r="AA12">
-        <v>11</v>
-      </c>
-      <c r="AB12">
-        <v>17</v>
-      </c>
-      <c r="AC12">
-        <v>41</v>
-      </c>
-      <c r="AD12">
-        <v>29</v>
-      </c>
-      <c r="AE12">
-        <v>26</v>
-      </c>
-      <c r="AF12">
-        <v>41</v>
-      </c>
-      <c r="AG12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13">
-        <v>2.2</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>3.75</v>
-      </c>
-      <c r="K13">
-        <v>2.63</v>
-      </c>
-      <c r="L13">
-        <v>1.5</v>
-      </c>
-      <c r="M13">
-        <v>2.1</v>
-      </c>
-      <c r="N13">
-        <v>1.67</v>
-      </c>
-      <c r="O13">
-        <v>1.25</v>
-      </c>
-      <c r="P13">
-        <v>1.36</v>
-      </c>
-      <c r="Q13">
-        <v>1.67</v>
-      </c>
-      <c r="R13">
-        <v>6.5</v>
-      </c>
-      <c r="S13">
-        <v>9</v>
-      </c>
-      <c r="T13">
-        <v>19</v>
-      </c>
-      <c r="U13">
-        <v>41</v>
-      </c>
-      <c r="V13">
-        <v>6</v>
-      </c>
-      <c r="W13">
-        <v>6</v>
-      </c>
-      <c r="X13">
-        <v>15</v>
-      </c>
-      <c r="Y13">
-        <v>41</v>
-      </c>
-      <c r="Z13">
-        <v>9.5</v>
-      </c>
-      <c r="AA13">
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <v>19</v>
-      </c>
-      <c r="AC13">
-        <v>51</v>
-      </c>
-      <c r="AD13">
-        <v>21</v>
-      </c>
-      <c r="AE13">
-        <v>23</v>
-      </c>
-      <c r="AF13">
-        <v>41</v>
-      </c>
-      <c r="AG13">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -115,118 +115,88 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>xOGS6Ozh</t>
-  </si>
-  <si>
-    <t>xAyfhPLb</t>
-  </si>
-  <si>
-    <t>4dXz6P35</t>
-  </si>
-  <si>
-    <t>StTYFv6T</t>
-  </si>
-  <si>
-    <t>dzYcuYye</t>
-  </si>
-  <si>
-    <t>rm0QrnRk</t>
-  </si>
-  <si>
-    <t>xf5z0D9j</t>
-  </si>
-  <si>
-    <t>lAUksf7r</t>
-  </si>
-  <si>
     <t>0dMzsHxJ</t>
   </si>
   <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
+    <t>naiVz03c</t>
+  </si>
+  <si>
+    <t>t8gEuDQb</t>
+  </si>
+  <si>
+    <t>pt05sZen</t>
+  </si>
+  <si>
+    <t>UJffDWe5</t>
+  </si>
+  <si>
+    <t>dCDmUTuC</t>
   </si>
   <si>
     <t>2024-07-06</t>
   </si>
   <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
+    <t>19:00</t>
+  </si>
+  <si>
     <t>22:00</t>
   </si>
   <si>
+    <t>21:00</t>
+  </si>
+  <si>
     <t>EUROPE - EURO</t>
   </si>
   <si>
     <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Austria</t>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Panama</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLAY OFFS </t>
-  </si>
-  <si>
-    <t>ROUND 3</t>
   </si>
 </sst>
 </file>
@@ -584,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,100 +666,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>2.2</v>
+      </c>
+      <c r="I2">
+        <v>2.9</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2.63</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
+      </c>
+      <c r="M2">
+        <v>2.1</v>
+      </c>
+      <c r="N2">
+        <v>1.67</v>
+      </c>
+      <c r="O2">
+        <v>1.22</v>
+      </c>
+      <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>1.67</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>15</v>
+      </c>
+      <c r="Y2">
+        <v>41</v>
+      </c>
+      <c r="Z2">
+        <v>9.5</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>19</v>
+      </c>
+      <c r="AC2">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2">
-        <v>8.5</v>
-      </c>
-      <c r="I2">
-        <v>4.5</v>
-      </c>
-      <c r="J2">
-        <v>1.4</v>
-      </c>
-      <c r="K2">
-        <v>1.86</v>
-      </c>
-      <c r="L2">
-        <v>2.07</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1.73</v>
-      </c>
-      <c r="O2">
-        <v>2.75</v>
-      </c>
-      <c r="P2">
-        <v>1.18</v>
-      </c>
-      <c r="Q2">
-        <v>1.08</v>
-      </c>
-      <c r="R2">
-        <v>11</v>
-      </c>
-      <c r="S2">
-        <v>6.5</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
-      </c>
-      <c r="V2">
-        <v>19</v>
-      </c>
-      <c r="W2">
-        <v>8.5</v>
-      </c>
-      <c r="X2">
-        <v>8.5</v>
-      </c>
-      <c r="Y2">
-        <v>13</v>
-      </c>
-      <c r="Z2">
+      <c r="AD2">
+        <v>21</v>
+      </c>
+      <c r="AE2">
+        <v>23</v>
+      </c>
+      <c r="AF2">
         <v>41</v>
       </c>
-      <c r="AA2">
-        <v>23</v>
-      </c>
-      <c r="AB2">
-        <v>21</v>
-      </c>
-      <c r="AC2">
-        <v>29</v>
-      </c>
-      <c r="AD2">
-        <v>101</v>
-      </c>
-      <c r="AE2">
-        <v>51</v>
-      </c>
-      <c r="AF2">
-        <v>51</v>
-      </c>
       <c r="AG2">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -797,94 +767,94 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="I3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>4.33</v>
+        <v>6.25</v>
       </c>
       <c r="K3">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O3">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P3">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q3">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="U3">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V3">
         <v>8</v>
       </c>
       <c r="W3">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA3">
         <v>9</v>
       </c>
       <c r="AB3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC3">
         <v>41</v>
       </c>
       <c r="AD3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF3">
         <v>26</v>
@@ -898,100 +868,100 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="L4">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="O4">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="P4">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Q4">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="R4">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T4">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="U4">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="V4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Y4">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="Z4">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AA4">
         <v>9.5</v>
       </c>
       <c r="AB4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC4">
+        <v>81</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>13</v>
+      </c>
+      <c r="AF4">
         <v>41</v>
       </c>
-      <c r="AD4">
-        <v>17</v>
-      </c>
-      <c r="AE4">
-        <v>17</v>
-      </c>
-      <c r="AF4">
-        <v>34</v>
-      </c>
       <c r="AG4">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -999,94 +969,94 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="P5">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7.5</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <v>26</v>
+      </c>
+      <c r="V5">
         <v>8</v>
       </c>
-      <c r="S5">
-        <v>6.5</v>
-      </c>
-      <c r="T5">
-        <v>8.5</v>
-      </c>
-      <c r="U5">
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>26</v>
+      </c>
+      <c r="Z5">
+        <v>15</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
         <v>17</v>
       </c>
-      <c r="V5">
-        <v>10</v>
-      </c>
-      <c r="W5">
-        <v>7</v>
-      </c>
-      <c r="X5">
-        <v>9.5</v>
-      </c>
-      <c r="Y5">
-        <v>19</v>
-      </c>
-      <c r="Z5">
-        <v>21</v>
-      </c>
-      <c r="AA5">
-        <v>15</v>
-      </c>
-      <c r="AB5">
-        <v>19</v>
-      </c>
       <c r="AC5">
+        <v>41</v>
+      </c>
+      <c r="AD5">
         <v>34</v>
       </c>
-      <c r="AD5">
-        <v>51</v>
-      </c>
       <c r="AE5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AF5">
         <v>41</v>
@@ -1100,100 +1070,100 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="I6">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J6">
+        <v>3.1</v>
+      </c>
+      <c r="K6">
+        <v>2.5</v>
+      </c>
+      <c r="L6">
+        <v>1.53</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1.73</v>
+      </c>
+      <c r="O6">
+        <v>1.36</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>1.5</v>
+      </c>
+      <c r="R6">
+        <v>6.5</v>
+      </c>
+      <c r="S6">
         <v>8</v>
       </c>
-      <c r="K6">
-        <v>2.3</v>
-      </c>
-      <c r="L6">
-        <v>1.62</v>
-      </c>
-      <c r="M6">
-        <v>2.63</v>
-      </c>
-      <c r="N6">
-        <v>1.44</v>
-      </c>
-      <c r="O6">
-        <v>1.08</v>
-      </c>
-      <c r="P6">
-        <v>1.22</v>
-      </c>
-      <c r="Q6">
-        <v>2.63</v>
-      </c>
-      <c r="R6">
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>34</v>
+      </c>
+      <c r="V6">
         <v>7.5</v>
       </c>
-      <c r="S6">
-        <v>15</v>
-      </c>
-      <c r="T6">
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>13</v>
+      </c>
+      <c r="Y6">
+        <v>29</v>
+      </c>
+      <c r="Z6">
+        <v>12</v>
+      </c>
+      <c r="AA6">
+        <v>11</v>
+      </c>
+      <c r="AB6">
+        <v>17</v>
+      </c>
+      <c r="AC6">
         <v>41</v>
       </c>
-      <c r="U6">
-        <v>126</v>
-      </c>
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>9</v>
-      </c>
-      <c r="X6">
+      <c r="AD6">
         <v>26</v>
       </c>
-      <c r="Y6">
-        <v>81</v>
-      </c>
-      <c r="Z6">
-        <v>6</v>
-      </c>
-      <c r="AA6">
-        <v>10</v>
-      </c>
-      <c r="AB6">
-        <v>29</v>
-      </c>
-      <c r="AC6">
-        <v>81</v>
-      </c>
-      <c r="AD6">
-        <v>9.5</v>
-      </c>
       <c r="AE6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF6">
         <v>41</v>
       </c>
       <c r="AG6">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1201,403 +1171,100 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>2.63</v>
+        <v>1.36</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J7">
-        <v>2.7</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="L7">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="M7">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="O7">
-        <v>1.44</v>
+        <v>1.07</v>
       </c>
       <c r="P7">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Q7">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>17</v>
+      </c>
+      <c r="T7">
+        <v>41</v>
+      </c>
+      <c r="U7">
+        <v>126</v>
+      </c>
+      <c r="V7">
+        <v>6.5</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>26</v>
+      </c>
+      <c r="Y7">
+        <v>67</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
         <v>9.5</v>
       </c>
-      <c r="S7">
-        <v>9</v>
-      </c>
-      <c r="T7">
+      <c r="AB7">
+        <v>29</v>
+      </c>
+      <c r="AC7">
+        <v>67</v>
+      </c>
+      <c r="AD7">
+        <v>8.5</v>
+      </c>
+      <c r="AE7">
         <v>13</v>
       </c>
-      <c r="U7">
-        <v>29</v>
-      </c>
-      <c r="V7">
-        <v>9</v>
-      </c>
-      <c r="W7">
-        <v>6.5</v>
-      </c>
-      <c r="X7">
-        <v>11</v>
-      </c>
-      <c r="Y7">
-        <v>23</v>
-      </c>
-      <c r="Z7">
-        <v>13</v>
-      </c>
-      <c r="AA7">
-        <v>11</v>
-      </c>
-      <c r="AB7">
-        <v>15</v>
-      </c>
-      <c r="AC7">
-        <v>34</v>
-      </c>
-      <c r="AD7">
-        <v>29</v>
-      </c>
-      <c r="AE7">
-        <v>23</v>
-      </c>
       <c r="AF7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <v>3.25</v>
-      </c>
-      <c r="I8">
-        <v>3.1</v>
-      </c>
-      <c r="J8">
-        <v>2.38</v>
-      </c>
-      <c r="K8">
-        <v>2.5</v>
-      </c>
-      <c r="L8">
-        <v>1.53</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1.73</v>
-      </c>
-      <c r="O8">
-        <v>1.53</v>
-      </c>
-      <c r="P8">
-        <v>1.36</v>
-      </c>
-      <c r="Q8">
-        <v>1.33</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <v>6.5</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>23</v>
-      </c>
-      <c r="V8">
-        <v>8.5</v>
-      </c>
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>11</v>
-      </c>
-      <c r="Y8">
-        <v>23</v>
-      </c>
-      <c r="Z8">
-        <v>17</v>
-      </c>
-      <c r="AA8">
-        <v>13</v>
-      </c>
-      <c r="AB8">
-        <v>19</v>
-      </c>
-      <c r="AC8">
-        <v>41</v>
-      </c>
-      <c r="AD8">
-        <v>41</v>
-      </c>
-      <c r="AE8">
-        <v>34</v>
-      </c>
-      <c r="AF8">
-        <v>41</v>
-      </c>
-      <c r="AG8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9">
-        <v>2.6</v>
-      </c>
-      <c r="I9">
-        <v>3.1</v>
-      </c>
-      <c r="J9">
-        <v>2.9</v>
-      </c>
-      <c r="K9">
-        <v>2.38</v>
-      </c>
-      <c r="L9">
-        <v>1.57</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>1.4</v>
-      </c>
-      <c r="P9">
-        <v>1.36</v>
-      </c>
-      <c r="Q9">
-        <v>1.5</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>13</v>
-      </c>
-      <c r="U9">
-        <v>34</v>
-      </c>
-      <c r="V9">
-        <v>7.5</v>
-      </c>
-      <c r="W9">
-        <v>6</v>
-      </c>
-      <c r="X9">
-        <v>12</v>
-      </c>
-      <c r="Y9">
-        <v>29</v>
-      </c>
-      <c r="Z9">
-        <v>12</v>
-      </c>
-      <c r="AA9">
-        <v>11</v>
-      </c>
-      <c r="AB9">
-        <v>17</v>
-      </c>
-      <c r="AC9">
-        <v>41</v>
-      </c>
-      <c r="AD9">
-        <v>29</v>
-      </c>
-      <c r="AE9">
-        <v>26</v>
-      </c>
-      <c r="AF9">
-        <v>41</v>
-      </c>
-      <c r="AG9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10">
-        <v>2.25</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3.7</v>
-      </c>
-      <c r="K10">
-        <v>2.63</v>
-      </c>
-      <c r="L10">
-        <v>1.5</v>
-      </c>
-      <c r="M10">
-        <v>2.1</v>
-      </c>
-      <c r="N10">
-        <v>1.63</v>
-      </c>
-      <c r="O10">
-        <v>1.29</v>
-      </c>
-      <c r="P10">
-        <v>1.36</v>
-      </c>
-      <c r="Q10">
-        <v>1.62</v>
-      </c>
-      <c r="R10">
-        <v>6.5</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
-      </c>
-      <c r="T10">
-        <v>17</v>
-      </c>
-      <c r="U10">
-        <v>41</v>
-      </c>
-      <c r="V10">
-        <v>6.5</v>
-      </c>
-      <c r="W10">
-        <v>6</v>
-      </c>
-      <c r="X10">
-        <v>15</v>
-      </c>
-      <c r="Y10">
-        <v>41</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10">
-        <v>10</v>
-      </c>
-      <c r="AB10">
-        <v>19</v>
-      </c>
-      <c r="AC10">
-        <v>51</v>
-      </c>
-      <c r="AD10">
-        <v>21</v>
-      </c>
-      <c r="AE10">
-        <v>23</v>
-      </c>
-      <c r="AF10">
-        <v>41</v>
-      </c>
-      <c r="AG10">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
+++ b/Jogos_do_Dia/FlashScore/Jogos_CopaAmerica_EuroCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -115,85 +115,49 @@
     <t>Odd_3x3</t>
   </si>
   <si>
-    <t>0dMzsHxJ</t>
-  </si>
-  <si>
-    <t>naiVz03c</t>
-  </si>
-  <si>
-    <t>t8gEuDQb</t>
-  </si>
-  <si>
-    <t>pt05sZen</t>
-  </si>
-  <si>
-    <t>UJffDWe5</t>
-  </si>
-  <si>
-    <t>dCDmUTuC</t>
-  </si>
-  <si>
-    <t>2024-07-06</t>
-  </si>
-  <si>
-    <t>2024-07-09</t>
-  </si>
-  <si>
-    <t>13:00</t>
+    <t>QTfagEAj</t>
+  </si>
+  <si>
+    <t>IFsEWU3F</t>
+  </si>
+  <si>
+    <t>hzmoHH2c</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2024-07-14</t>
+  </si>
+  <si>
+    <t>21:00</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
+    <t>SOUTH AMERICA - COPA AMÉRICA</t>
   </si>
   <si>
     <t>EUROPE - EURO</t>
   </si>
   <si>
-    <t>SOUTH AMERICA - COPA AMÉRICA</t>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>England</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>Colombia</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Canada</t>
   </si>
   <si>
     <t xml:space="preserve">PLAY OFFS </t>
@@ -554,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,100 +630,100 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>6.25</v>
       </c>
       <c r="I2">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="K2">
-        <v>2.63</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N2">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="O2">
+        <v>2.38</v>
+      </c>
+      <c r="P2">
         <v>1.22</v>
       </c>
-      <c r="P2">
-        <v>1.4</v>
-      </c>
       <c r="Q2">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S2">
+        <v>7.5</v>
+      </c>
+      <c r="T2">
+        <v>7.5</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
         <v>9</v>
       </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>41</v>
-      </c>
-      <c r="V2">
-        <v>6</v>
-      </c>
-      <c r="W2">
-        <v>6</v>
-      </c>
-      <c r="X2">
-        <v>15</v>
-      </c>
       <c r="Y2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="Z2">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AB2">
         <v>19</v>
       </c>
       <c r="AC2">
+        <v>29</v>
+      </c>
+      <c r="AD2">
+        <v>67</v>
+      </c>
+      <c r="AE2">
         <v>51</v>
       </c>
-      <c r="AD2">
-        <v>21</v>
-      </c>
-      <c r="AE2">
-        <v>23</v>
-      </c>
       <c r="AF2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -767,82 +731,82 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J3">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="L3">
+        <v>1.5</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1.83</v>
-      </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O3">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P3">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="Q3">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="S3">
+        <v>8.5</v>
+      </c>
+      <c r="T3">
         <v>17</v>
       </c>
-      <c r="T3">
+      <c r="U3">
+        <v>41</v>
+      </c>
+      <c r="V3">
+        <v>6.5</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>13</v>
+      </c>
+      <c r="Y3">
         <v>34</v>
       </c>
-      <c r="U3">
-        <v>67</v>
-      </c>
-      <c r="V3">
-        <v>8</v>
-      </c>
-      <c r="W3">
-        <v>8</v>
-      </c>
-      <c r="X3">
-        <v>19</v>
-      </c>
-      <c r="Y3">
-        <v>41</v>
-      </c>
       <c r="Z3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB3">
         <v>17</v>
@@ -851,16 +815,16 @@
         <v>41</v>
       </c>
       <c r="AD3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AF3">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG3">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -868,403 +832,100 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="I4">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>1.93</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="M4">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="N4">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O4">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P4">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="Q4">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="T4">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="U4">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="V4">
         <v>6</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Y4">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AA4">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC4">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AF4">
         <v>41</v>
       </c>
       <c r="AG4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>2.6</v>
-      </c>
-      <c r="K5">
-        <v>2.5</v>
-      </c>
-      <c r="L5">
-        <v>1.53</v>
-      </c>
-      <c r="M5">
-        <v>1.95</v>
-      </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>1.36</v>
-      </c>
-      <c r="Q5">
-        <v>1.36</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>7.5</v>
-      </c>
-      <c r="T5">
-        <v>12</v>
-      </c>
-      <c r="U5">
-        <v>26</v>
-      </c>
-      <c r="V5">
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>11</v>
-      </c>
-      <c r="Y5">
-        <v>26</v>
-      </c>
-      <c r="Z5">
-        <v>15</v>
-      </c>
-      <c r="AA5">
-        <v>12</v>
-      </c>
-      <c r="AB5">
-        <v>17</v>
-      </c>
-      <c r="AC5">
-        <v>41</v>
-      </c>
-      <c r="AD5">
-        <v>34</v>
-      </c>
-      <c r="AE5">
-        <v>29</v>
-      </c>
-      <c r="AF5">
-        <v>41</v>
-      </c>
-      <c r="AG5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6">
-        <v>2.6</v>
-      </c>
-      <c r="I6">
-        <v>2.9</v>
-      </c>
-      <c r="J6">
-        <v>3.1</v>
-      </c>
-      <c r="K6">
-        <v>2.5</v>
-      </c>
-      <c r="L6">
-        <v>1.53</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1.73</v>
-      </c>
-      <c r="O6">
-        <v>1.36</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>1.5</v>
-      </c>
-      <c r="R6">
-        <v>6.5</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="T6">
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <v>34</v>
-      </c>
-      <c r="V6">
-        <v>7.5</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
-      </c>
-      <c r="X6">
-        <v>13</v>
-      </c>
-      <c r="Y6">
-        <v>29</v>
-      </c>
-      <c r="Z6">
-        <v>12</v>
-      </c>
-      <c r="AA6">
-        <v>11</v>
-      </c>
-      <c r="AB6">
-        <v>17</v>
-      </c>
-      <c r="AC6">
-        <v>41</v>
-      </c>
-      <c r="AD6">
-        <v>26</v>
-      </c>
-      <c r="AE6">
-        <v>26</v>
-      </c>
-      <c r="AF6">
-        <v>41</v>
-      </c>
-      <c r="AG6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>1.36</v>
-      </c>
-      <c r="I7">
-        <v>4.75</v>
-      </c>
-      <c r="J7">
-        <v>9.5</v>
-      </c>
-      <c r="K7">
-        <v>1.95</v>
-      </c>
-      <c r="L7">
-        <v>1.95</v>
-      </c>
-      <c r="M7">
-        <v>2.25</v>
-      </c>
-      <c r="N7">
-        <v>1.57</v>
-      </c>
-      <c r="O7">
-        <v>1.07</v>
-      </c>
-      <c r="P7">
-        <v>1.18</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-      <c r="S7">
-        <v>17</v>
-      </c>
-      <c r="T7">
-        <v>41</v>
-      </c>
-      <c r="U7">
-        <v>126</v>
-      </c>
-      <c r="V7">
-        <v>6.5</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
-      <c r="X7">
-        <v>26</v>
-      </c>
-      <c r="Y7">
-        <v>67</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <v>9.5</v>
-      </c>
-      <c r="AB7">
-        <v>29</v>
-      </c>
-      <c r="AC7">
-        <v>67</v>
-      </c>
-      <c r="AD7">
-        <v>8.5</v>
-      </c>
-      <c r="AE7">
-        <v>13</v>
-      </c>
-      <c r="AF7">
-        <v>41</v>
-      </c>
-      <c r="AG7">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
